--- a/1.Data/tempdata2.xlsx
+++ b/1.Data/tempdata2.xlsx
@@ -419,31 +419,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>111.15619047619</v>
+        <v>111.370873235031</v>
       </c>
       <c r="D2" t="n">
-        <v>1.28945340920919</v>
+        <v>1.37644289076506</v>
       </c>
       <c r="E2" t="n">
-        <v>116.46</v>
+        <v>123.069767808923</v>
       </c>
       <c r="F2" t="n">
-        <v>1.94361731025613</v>
+        <v>2.05403644639639</v>
       </c>
       <c r="G2" t="n">
-        <v>8.2425</v>
+        <v>8.21656081887824</v>
       </c>
       <c r="H2" t="n">
-        <v>359.6271375</v>
+        <v>376.745437902663</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>428.989241494285</v>
+        <v>432.57059813702</v>
       </c>
       <c r="K2" t="n">
-        <v>0.192872274535415</v>
+        <v>0.148177402081191</v>
       </c>
     </row>
     <row r="3">
@@ -454,31 +454,31 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>119.702380952381</v>
+        <v>125.668559254674</v>
       </c>
       <c r="D3" t="n">
-        <v>1.32124992060122</v>
+        <v>1.28186950310027</v>
       </c>
       <c r="E3" t="n">
-        <v>117.02</v>
+        <v>122.864472490235</v>
       </c>
       <c r="F3" t="n">
-        <v>1.88481087516663</v>
+        <v>1.96257446540429</v>
       </c>
       <c r="G3" t="n">
-        <v>9.1</v>
+        <v>8.83052816250362</v>
       </c>
       <c r="H3" t="n">
-        <v>376.22136875</v>
+        <v>376.827087698649</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>458.099651878571</v>
+        <v>458.136753049824</v>
       </c>
       <c r="K3" t="n">
-        <v>0.217633260440822</v>
+        <v>0.21577447058742</v>
       </c>
     </row>
     <row r="4">
@@ -489,31 +489,31 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>124.928636363636</v>
+        <v>118.398860087051</v>
       </c>
       <c r="D4" t="n">
-        <v>1.32179594236881</v>
+        <v>1.22039718368561</v>
       </c>
       <c r="E4" t="n">
-        <v>107.46</v>
+        <v>106.008016270199</v>
       </c>
       <c r="F4" t="n">
-        <v>1.82600444007713</v>
+        <v>1.89709927354809</v>
       </c>
       <c r="G4" t="n">
-        <v>9.48</v>
+        <v>9.46182370198891</v>
       </c>
       <c r="H4" t="n">
-        <v>386.14925</v>
+        <v>378.901320691738</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>465.731020969545</v>
+        <v>460.246240182759</v>
       </c>
       <c r="K4" t="n">
-        <v>0.206090704486789</v>
+        <v>0.214686291783081</v>
       </c>
     </row>
     <row r="5">
@@ -524,31 +524,31 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>120.4635</v>
+        <v>121.322217430153</v>
       </c>
       <c r="D5" t="n">
-        <v>1.31618096674676</v>
+        <v>1.23622503909414</v>
       </c>
       <c r="E5" t="n">
-        <v>103.59</v>
+        <v>97.0997106329282</v>
       </c>
       <c r="F5" t="n">
-        <v>1.74378085286223</v>
+        <v>1.81673791471238</v>
       </c>
       <c r="G5" t="n">
-        <v>9.4775</v>
+        <v>10.3952170906577</v>
       </c>
       <c r="H5" t="n">
-        <v>403.1772375</v>
+        <v>405.961700639677</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>460.4426859485</v>
+        <v>481.967284617708</v>
       </c>
       <c r="K5" t="n">
-        <v>0.14203542046071</v>
+        <v>0.187223533299493</v>
       </c>
     </row>
     <row r="6">
@@ -559,31 +559,31 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>110.521739130435</v>
+        <v>119.544369436967</v>
       </c>
       <c r="D6" t="n">
-        <v>1.28042617397904</v>
+        <v>1.39543544893587</v>
       </c>
       <c r="E6" t="n">
-        <v>95.83</v>
+        <v>93.9650173833598</v>
       </c>
       <c r="F6" t="n">
-        <v>1.66155726564733</v>
+        <v>1.63110889144954</v>
       </c>
       <c r="G6" t="n">
-        <v>9.246</v>
+        <v>8.80687358103544</v>
       </c>
       <c r="H6" t="n">
-        <v>403.75115625</v>
+        <v>440.62942093395</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>443.034804970435</v>
+        <v>435.497579546441</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0972966841390561</v>
+        <v>0.0116466153726908</v>
       </c>
     </row>
     <row r="7">
@@ -594,31 +594,31 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>95.5890476190476</v>
+        <v>103.111743829611</v>
       </c>
       <c r="D7" t="n">
-        <v>1.25212240064324</v>
+        <v>1.33095483463274</v>
       </c>
       <c r="E7" t="n">
-        <v>87.19</v>
+        <v>88.9056631866414</v>
       </c>
       <c r="F7" t="n">
-        <v>1.57933367843243</v>
+        <v>1.55123636041482</v>
       </c>
       <c r="G7" t="n">
-        <v>8.6375</v>
+        <v>7.8713428494829</v>
       </c>
       <c r="H7" t="n">
-        <v>372.22662</v>
+        <v>348.696962356721</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>411.660120998571</v>
+        <v>396.504560080083</v>
       </c>
       <c r="K7" t="n">
-        <v>0.105939497284131</v>
+        <v>0.137103568096055</v>
       </c>
     </row>
     <row r="8">
@@ -629,31 +629,31 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>103.140909090909</v>
+        <v>94.7483903348989</v>
       </c>
       <c r="D8" t="n">
-        <v>1.23035702971676</v>
+        <v>1.20178220605928</v>
       </c>
       <c r="E8" t="n">
-        <v>88.24</v>
+        <v>80.7015787023269</v>
       </c>
       <c r="F8" t="n">
-        <v>1.55752684787293</v>
+        <v>1.54848087970002</v>
       </c>
       <c r="G8" t="n">
-        <v>8.73</v>
+        <v>8.70999835627712</v>
       </c>
       <c r="H8" t="n">
-        <v>351.068475</v>
+        <v>369.252506658475</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>419.560363513636</v>
+        <v>409.036252763207</v>
       </c>
       <c r="K8" t="n">
-        <v>0.195095525206689</v>
+        <v>0.107741302732789</v>
       </c>
     </row>
     <row r="9">
@@ -664,31 +664,31 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>113.34</v>
+        <v>104.571437823052</v>
       </c>
       <c r="D9" t="n">
-        <v>1.23815485795614</v>
+        <v>1.21741554436037</v>
       </c>
       <c r="E9" t="n">
-        <v>91</v>
+        <v>89.9695677244104</v>
       </c>
       <c r="F9" t="n">
-        <v>1.53572001731344</v>
+        <v>1.40975611684775</v>
       </c>
       <c r="G9" t="n">
-        <v>8.85</v>
+        <v>8.33443062588572</v>
       </c>
       <c r="H9" t="n">
-        <v>357.85056</v>
+        <v>345.666957670224</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>430.93917474</v>
+        <v>410.734791704254</v>
       </c>
       <c r="K9" t="n">
-        <v>0.204243399088156</v>
+        <v>0.188238512794463</v>
       </c>
     </row>
     <row r="10">
@@ -699,31 +699,31 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>113.3825</v>
+        <v>116.348233962812</v>
       </c>
       <c r="D10" t="n">
-        <v>1.28417168834087</v>
+        <v>1.23725110578774</v>
       </c>
       <c r="E10" t="n">
-        <v>88.96</v>
+        <v>89.3274700337052</v>
       </c>
       <c r="F10" t="n">
-        <v>1.51391318675394</v>
+        <v>1.53938665220507</v>
       </c>
       <c r="G10" t="n">
-        <v>9.58</v>
+        <v>8.94076798828412</v>
       </c>
       <c r="H10" t="n">
-        <v>382.12528125</v>
+        <v>371.521726563412</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>449.6246142575</v>
+        <v>434.244557625432</v>
       </c>
       <c r="K10" t="n">
-        <v>0.176641892906687</v>
+        <v>0.16882681839958</v>
       </c>
     </row>
     <row r="11">
@@ -734,31 +734,31 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>111.97347826087</v>
+        <v>111.015691746014</v>
       </c>
       <c r="D11" t="n">
-        <v>1.29644086060586</v>
+        <v>1.26709233384617</v>
       </c>
       <c r="E11" t="n">
-        <v>81.85</v>
+        <v>87.6665758427815</v>
       </c>
       <c r="F11" t="n">
-        <v>1.38704508985128</v>
+        <v>1.51182125115636</v>
       </c>
       <c r="G11" t="n">
-        <v>10.1125</v>
+        <v>9.44357603481039</v>
       </c>
       <c r="H11" t="n">
-        <v>410.8926625</v>
+        <v>389.724295284869</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>458.82117499087</v>
+        <v>443.607483619368</v>
       </c>
       <c r="K11" t="n">
-        <v>0.116644848801285</v>
+        <v>0.13825976205849</v>
       </c>
     </row>
     <row r="12">
@@ -769,31 +769,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>109.711818181818</v>
+        <v>106.041745612469</v>
       </c>
       <c r="D12" t="n">
-        <v>1.28342852071292</v>
+        <v>1.35479657928551</v>
       </c>
       <c r="E12" t="n">
-        <v>85.89</v>
+        <v>89.978491292357</v>
       </c>
       <c r="F12" t="n">
-        <v>1.26017699294861</v>
+        <v>1.17914113190113</v>
       </c>
       <c r="G12" t="n">
-        <v>10.29</v>
+        <v>9.6599282190674</v>
       </c>
       <c r="H12" t="n">
-        <v>427.02757</v>
+        <v>454.856786950607</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>464.798648557273</v>
+        <v>447.866973623963</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0884511474452869</v>
+        <v>0.0153670639356719</v>
       </c>
     </row>
     <row r="13">
@@ -804,31 +804,31 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>109.6765</v>
+        <v>113.694805145724</v>
       </c>
       <c r="D13" t="n">
-        <v>1.3110953849636</v>
+        <v>1.34237385324434</v>
       </c>
       <c r="E13" t="n">
-        <v>92.88</v>
+        <v>91.449509160284</v>
       </c>
       <c r="F13" t="n">
-        <v>1.13330889604595</v>
+        <v>1.0225951976864</v>
       </c>
       <c r="G13" t="n">
-        <v>10.5625</v>
+        <v>10.2143610463623</v>
       </c>
       <c r="H13" t="n">
-        <v>431.716616666667</v>
+        <v>406.157130153769</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>476.6155863915</v>
+        <v>468.713824064053</v>
       </c>
       <c r="K13" t="n">
-        <v>0.10400102287353</v>
+        <v>0.154020917684248</v>
       </c>
     </row>
     <row r="14">
@@ -839,31 +839,31 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>112.973636363636</v>
+        <v>116.220838361996</v>
       </c>
       <c r="D14" t="n">
-        <v>1.33242974109691</v>
+        <v>1.37215041853538</v>
       </c>
       <c r="E14" t="n">
-        <v>92.77</v>
+        <v>96.3418589343033</v>
       </c>
       <c r="F14" t="n">
-        <v>1.14321460248121</v>
+        <v>1.21117368309197</v>
       </c>
       <c r="G14" t="n">
-        <v>10.36</v>
+        <v>9.41894401018321</v>
       </c>
       <c r="H14" t="n">
-        <v>423.9896875</v>
+        <v>419.094909761481</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>473.072460764545</v>
+        <v>451.637864947213</v>
       </c>
       <c r="K14" t="n">
-        <v>0.115764073305545</v>
+        <v>0.0776505617886258</v>
       </c>
     </row>
     <row r="15">
@@ -874,31 +874,31 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>116.5195</v>
+        <v>124.281899567633</v>
       </c>
       <c r="D15" t="n">
-        <v>1.33865507742874</v>
+        <v>1.25092995770731</v>
       </c>
       <c r="E15" t="n">
-        <v>94.94</v>
+        <v>104.075591012143</v>
       </c>
       <c r="F15" t="n">
-        <v>1.15312030891647</v>
+        <v>1.19156442260057</v>
       </c>
       <c r="G15" t="n">
-        <v>10.08</v>
+        <v>10.2085712968558</v>
       </c>
       <c r="H15" t="n">
-        <v>446.5117625</v>
+        <v>434.135552723485</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>469.0010552645</v>
+        <v>483.101961399171</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0503666300716994</v>
+        <v>0.112790598163414</v>
       </c>
     </row>
     <row r="16">
@@ -909,31 +909,31 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>109.24</v>
+        <v>118.529676671486</v>
       </c>
       <c r="D16" t="n">
-        <v>1.2965747351266</v>
+        <v>1.17969748882147</v>
       </c>
       <c r="E16" t="n">
-        <v>90.98</v>
+        <v>86.7127679638471</v>
       </c>
       <c r="F16" t="n">
-        <v>1.16302601535173</v>
+        <v>1.0741066274455</v>
       </c>
       <c r="G16" t="n">
-        <v>10.1725</v>
+        <v>9.45417537085991</v>
       </c>
       <c r="H16" t="n">
-        <v>441.01218</v>
+        <v>402.048937614277</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>464.49479434</v>
+        <v>447.986872629935</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0532470879602465</v>
+        <v>0.114259560759568</v>
       </c>
     </row>
     <row r="17">
@@ -944,31 +944,31 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>102.875454545455</v>
+        <v>107.037615480886</v>
       </c>
       <c r="D17" t="n">
-        <v>1.30080003462069</v>
+        <v>1.33014506310706</v>
       </c>
       <c r="E17" t="n">
-        <v>87.76</v>
+        <v>92.0904179349989</v>
       </c>
       <c r="F17" t="n">
-        <v>1.26114546310179</v>
+        <v>1.28417040849347</v>
       </c>
       <c r="G17" t="n">
-        <v>10.345</v>
+        <v>9.74977300747111</v>
       </c>
       <c r="H17" t="n">
-        <v>458.29545</v>
+        <v>499.18809497616</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>463.210228211819</v>
+        <v>452.270713606811</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0107240388527063</v>
+        <v>0.093987380391332</v>
       </c>
     </row>
     <row r="18">
@@ -979,31 +979,31 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>103.026956521739</v>
+        <v>93.3559608814247</v>
       </c>
       <c r="D18" t="n">
-        <v>1.29599812388292</v>
+        <v>1.27507403429307</v>
       </c>
       <c r="E18" t="n">
-        <v>87.71</v>
+        <v>85.259365287614</v>
       </c>
       <c r="F18" t="n">
-        <v>1.35926491085185</v>
+        <v>1.43796124716444</v>
       </c>
       <c r="G18" t="n">
-        <v>10.036</v>
+        <v>10.9912576424653</v>
       </c>
       <c r="H18" t="n">
-        <v>454.97385</v>
+        <v>478.667950910275</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>454.832317101739</v>
+        <v>473.350683540966</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000311079193366814</v>
+        <v>0.0111084674860672</v>
       </c>
     </row>
     <row r="19">
@@ -1014,31 +1014,31 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>103.11</v>
+        <v>95.2042173520261</v>
       </c>
       <c r="D19" t="n">
-        <v>1.3193602052329</v>
+        <v>1.32262921569386</v>
       </c>
       <c r="E19" t="n">
-        <v>82.7543194620071</v>
+        <v>90.1478279335203</v>
       </c>
       <c r="F19" t="n">
-        <v>1.45738435860191</v>
+        <v>1.58578929028086</v>
       </c>
       <c r="G19" t="n">
-        <v>10.07</v>
+        <v>9.97632119217562</v>
       </c>
       <c r="H19" t="n">
-        <v>452.44875</v>
+        <v>430.061626976912</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>452.696997914932</v>
+        <v>449.852607911018</v>
       </c>
       <c r="K19" t="n">
-        <v>0.000548676319542585</v>
+        <v>0.0460189416880215</v>
       </c>
     </row>
     <row r="20">
@@ -1049,31 +1049,31 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>107.716086956522</v>
+        <v>100.707484305537</v>
       </c>
       <c r="D20" t="n">
-        <v>1.30772257149181</v>
+        <v>1.30402678192316</v>
       </c>
       <c r="E20" t="n">
-        <v>77.2592108288309</v>
+        <v>75.7372286908652</v>
       </c>
       <c r="F20" t="n">
-        <v>1.59183744744634</v>
+        <v>1.66511578795511</v>
       </c>
       <c r="G20" t="n">
-        <v>9.985</v>
+        <v>10.0718301793165</v>
       </c>
       <c r="H20" t="n">
-        <v>478.17549375</v>
+        <v>440.488109604262</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>449.794637547258</v>
+        <v>446.835490896713</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0593523854185227</v>
+        <v>0.014409881116096</v>
       </c>
     </row>
     <row r="21">
@@ -1084,31 +1084,31 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>110.964545454545</v>
+        <v>117.087931608069</v>
       </c>
       <c r="D21" t="n">
-        <v>1.33140411733142</v>
+        <v>1.41627839527551</v>
       </c>
       <c r="E21" t="n">
-        <v>76.96</v>
+        <v>80.2846986846775</v>
       </c>
       <c r="F21" t="n">
-        <v>1.72629053629078</v>
+        <v>1.69373796781152</v>
       </c>
       <c r="G21" t="n">
-        <v>10.044</v>
+        <v>9.98871042247955</v>
       </c>
       <c r="H21" t="n">
-        <v>485.5538</v>
+        <v>462.52391548571</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>453.245621588182</v>
+        <v>457.647373130197</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0665388231166525</v>
+        <v>0.0105433301765431</v>
       </c>
     </row>
     <row r="22">
@@ -1119,31 +1119,31 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>111.621428571429</v>
+        <v>107.131214829431</v>
       </c>
       <c r="D22" t="n">
-        <v>1.33403484674122</v>
+        <v>1.40801094987813</v>
       </c>
       <c r="E22" t="n">
-        <v>77.6125</v>
+        <v>71.7031714751414</v>
       </c>
       <c r="F22" t="n">
-        <v>1.86074362513521</v>
+        <v>1.68870169603023</v>
       </c>
       <c r="G22" t="n">
-        <v>10.3275</v>
+        <v>10.6841016711979</v>
       </c>
       <c r="H22" t="n">
-        <v>495.4801875</v>
+        <v>464.644431392019</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>461.810293007143</v>
+        <v>465.033725251635</v>
       </c>
       <c r="K22" t="n">
-        <v>0.067954068280191</v>
+        <v>0.000837831755456042</v>
       </c>
     </row>
     <row r="23">
@@ -1154,31 +1154,31 @@
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>109.478695652174</v>
+        <v>106.684920360375</v>
       </c>
       <c r="D23" t="n">
-        <v>1.36296071657827</v>
+        <v>1.32563792126991</v>
       </c>
       <c r="E23" t="n">
-        <v>79.4125</v>
+        <v>82.5920667318261</v>
       </c>
       <c r="F23" t="n">
-        <v>2.08044982554345</v>
+        <v>2.22606210740248</v>
       </c>
       <c r="G23" t="n">
-        <v>10.738</v>
+        <v>10.6523223561835</v>
       </c>
       <c r="H23" t="n">
-        <v>518.0301125</v>
+        <v>557.538147367645</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>472.818484842174</v>
+        <v>470.733566570567</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0872760609217017</v>
+        <v>0.155692630552575</v>
       </c>
     </row>
     <row r="24">
@@ -1189,31 +1189,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>108.07619047619</v>
+        <v>111.30587207353</v>
       </c>
       <c r="D24" t="n">
-        <v>1.35066091003443</v>
+        <v>1.41936134759957</v>
       </c>
       <c r="E24" t="n">
-        <v>82.25</v>
+        <v>78.9243327204487</v>
       </c>
       <c r="F24" t="n">
-        <v>2.30015602595169</v>
+        <v>2.20988844000371</v>
       </c>
       <c r="G24" t="n">
-        <v>10.91</v>
+        <v>11.6510116429203</v>
       </c>
       <c r="H24" t="n">
-        <v>530.197715</v>
+        <v>520.901897414127</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>478.425837714285</v>
+        <v>498.59286385944</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0976463606330604</v>
+        <v>0.0428277064557331</v>
       </c>
     </row>
     <row r="25">
@@ -1224,31 +1224,31 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>110.674</v>
+        <v>112.576742696324</v>
       </c>
       <c r="D25" t="n">
-        <v>1.36951377232217</v>
+        <v>1.24979793757064</v>
       </c>
       <c r="E25" t="n">
-        <v>84.3375</v>
+        <v>75.9263861884904</v>
       </c>
       <c r="F25" t="n">
-        <v>2.51986222635993</v>
+        <v>2.53835282094663</v>
       </c>
       <c r="G25" t="n">
-        <v>11.2866666666667</v>
+        <v>11.9027976013012</v>
       </c>
       <c r="H25" t="n">
-        <v>537.705316666667</v>
+        <v>492.982649492692</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>491.649189447334</v>
+        <v>504.37913678699</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0856530999262626</v>
+        <v>0.0231174206760127</v>
       </c>
     </row>
     <row r="26">
@@ -1259,31 +1259,31 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>107.42</v>
+        <v>114.184355004434</v>
       </c>
       <c r="D26" t="n">
-        <v>1.36332324021673</v>
+        <v>1.33852335158658</v>
       </c>
       <c r="E26" t="n">
-        <v>81.61</v>
+        <v>78.4315991644659</v>
       </c>
       <c r="F26" t="n">
-        <v>2.59157382160382</v>
+        <v>2.82369372427273</v>
       </c>
       <c r="G26" t="n">
-        <v>10.714</v>
+        <v>11.6036174321903</v>
       </c>
       <c r="H26" t="n">
-        <v>532.24483</v>
+        <v>580.764021240732</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>472.25971658</v>
+        <v>498.784866540148</v>
       </c>
       <c r="K26" t="n">
-        <v>0.11270210632201</v>
+        <v>0.141157426600645</v>
       </c>
     </row>
     <row r="27">
@@ -1294,31 +1294,31 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>108.81</v>
+        <v>111.47765318131</v>
       </c>
       <c r="D27" t="n">
-        <v>1.36301698520082</v>
+        <v>1.26173581544375</v>
       </c>
       <c r="E27" t="n">
-        <v>76.29</v>
+        <v>83.3005282362923</v>
       </c>
       <c r="F27" t="n">
-        <v>2.66328541684771</v>
+        <v>2.5514104617153</v>
       </c>
       <c r="G27" t="n">
-        <v>9.6975</v>
+        <v>8.78179310372332</v>
       </c>
       <c r="H27" t="n">
-        <v>541.933384375</v>
+        <v>580.713306057532</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>442.01425321</v>
+        <v>423.072519583247</v>
       </c>
       <c r="K27" t="n">
-        <v>0.184375301551563</v>
+        <v>0.271460606860398</v>
       </c>
     </row>
     <row r="28">
@@ -1329,31 +1329,31 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>107.4</v>
+        <v>110.541252662363</v>
       </c>
       <c r="D28" t="n">
-        <v>1.38211007087117</v>
+        <v>1.32086989692509</v>
       </c>
       <c r="E28" t="n">
-        <v>73.34</v>
+        <v>75.8582916510124</v>
       </c>
       <c r="F28" t="n">
-        <v>2.73499701209159</v>
+        <v>2.94190680009661</v>
       </c>
       <c r="G28" t="n">
-        <v>9.4575</v>
+        <v>8.61076802340976</v>
       </c>
       <c r="H28" t="n">
-        <v>524.04735625</v>
+        <v>542.213225305451</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>432.7232771</v>
+        <v>413.136787878661</v>
       </c>
       <c r="K28" t="n">
-        <v>0.174266844514779</v>
+        <v>0.238054756694797</v>
       </c>
     </row>
     <row r="29">
@@ -1364,31 +1364,31 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>107.79</v>
+        <v>101.226118124344</v>
       </c>
       <c r="D29" t="n">
-        <v>1.380527404527</v>
+        <v>1.33310148185806</v>
       </c>
       <c r="E29" t="n">
-        <v>72.82</v>
+        <v>73.1929500611983</v>
       </c>
       <c r="F29" t="n">
-        <v>2.78222737076019</v>
+        <v>2.59100045713935</v>
       </c>
       <c r="G29" t="n">
-        <v>8.5025</v>
+        <v>9.04957533496211</v>
       </c>
       <c r="H29" t="n">
-        <v>469.051525</v>
+        <v>449.012086248905</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>406.55176099</v>
+        <v>417.634254412422</v>
       </c>
       <c r="K29" t="n">
-        <v>0.133247118235038</v>
+        <v>0.0698819314611704</v>
       </c>
     </row>
     <row r="30">
@@ -1399,31 +1399,31 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>109.68</v>
+        <v>120.195686869361</v>
       </c>
       <c r="D30" t="n">
-        <v>1.37171596763391</v>
+        <v>1.32915260317857</v>
       </c>
       <c r="E30" t="n">
-        <v>73.69</v>
+        <v>67.6778091547936</v>
       </c>
       <c r="F30" t="n">
-        <v>2.82945772942879</v>
+        <v>2.6769915984286</v>
       </c>
       <c r="G30" t="n">
-        <v>7.914</v>
+        <v>7.98490409018341</v>
       </c>
       <c r="H30" t="n">
-        <v>402.2864</v>
+        <v>398.094709841987</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>392.20215624</v>
+        <v>396.921791020414</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0250673245727422</v>
+        <v>0.0029463310930179</v>
       </c>
     </row>
     <row r="31">
@@ -1434,31 +1434,31 @@
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>111.87</v>
+        <v>106.130183344508</v>
       </c>
       <c r="D31" t="n">
-        <v>1.3603501180353</v>
+        <v>1.30845874203917</v>
       </c>
       <c r="E31" t="n">
-        <v>71.48</v>
+        <v>69.5623162000198</v>
       </c>
       <c r="F31" t="n">
-        <v>2.87668808809739</v>
+        <v>2.89467348003955</v>
       </c>
       <c r="G31" t="n">
-        <v>7.0625</v>
+        <v>7.40745188685541</v>
       </c>
       <c r="H31" t="n">
-        <v>371.900175</v>
+        <v>335.173310126367</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>368.91876987</v>
+        <v>373.553857772931</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00801668116988652</v>
+        <v>0.114509558150956</v>
       </c>
     </row>
     <row r="32">
@@ -1469,31 +1469,31 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>106.98</v>
+        <v>107.968795742235</v>
       </c>
       <c r="D32" t="n">
-        <v>1.35586095956524</v>
+        <v>1.40446453981644</v>
       </c>
       <c r="E32" t="n">
-        <v>68.75</v>
+        <v>66.0739673298667</v>
       </c>
       <c r="F32" t="n">
-        <v>2.93572125913781</v>
+        <v>2.80483450006397</v>
       </c>
       <c r="G32" t="n">
-        <v>6.594</v>
+        <v>6.38824295206564</v>
       </c>
       <c r="H32" t="n">
-        <v>365.4538375</v>
+        <v>367.219216555255</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.35222534</v>
+        <v>344.666046677695</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0385865756848155</v>
+        <v>0.061416093877448</v>
       </c>
     </row>
     <row r="33">
@@ -1504,31 +1504,31 @@
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>101.92</v>
+        <v>96.2223967651725</v>
       </c>
       <c r="D33" t="n">
-        <v>1.33248659575698</v>
+        <v>1.25320596347076</v>
       </c>
       <c r="E33" t="n">
-        <v>68.94</v>
+        <v>70.8030936834086</v>
       </c>
       <c r="F33" t="n">
-        <v>2.99475443017823</v>
+        <v>2.83817070467087</v>
       </c>
       <c r="G33" t="n">
-        <v>7.0125</v>
+        <v>7.48802334453037</v>
       </c>
       <c r="H33" t="n">
-        <v>375.93203</v>
+        <v>347.788392437664</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>359.74595302</v>
+        <v>370.351440280027</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0430558603373061</v>
+        <v>0.0648757932495045</v>
       </c>
     </row>
     <row r="34">
@@ -1539,31 +1539,31 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>97.34</v>
+        <v>90.2452426451016</v>
       </c>
       <c r="D34" t="n">
-        <v>1.29240465259052</v>
+        <v>1.27229757145856</v>
       </c>
       <c r="E34" t="n">
-        <v>65.94</v>
+        <v>72.3445792614687</v>
       </c>
       <c r="F34" t="n">
-        <v>3.05378760121864</v>
+        <v>3.2800294799695</v>
       </c>
       <c r="G34" t="n">
-        <v>8.205</v>
+        <v>8.6509841539585</v>
       </c>
       <c r="H34" t="n">
-        <v>406.48823125</v>
+        <v>396.492279550554</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>387.57705334</v>
+        <v>399.359136658799</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0465233097938552</v>
+        <v>0.00723054963767544</v>
       </c>
     </row>
     <row r="35">
@@ -1574,31 +1574,31 @@
         <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>87.27</v>
+        <v>93.5124215825088</v>
       </c>
       <c r="D35" t="n">
-        <v>1.26853045960041</v>
+        <v>1.14561351694903</v>
       </c>
       <c r="E35" t="n">
-        <v>63.71</v>
+        <v>63.6024343082551</v>
       </c>
       <c r="F35" t="n">
-        <v>3.06789932798895</v>
+        <v>2.87344186272498</v>
       </c>
       <c r="G35" t="n">
-        <v>8.5</v>
+        <v>8.70218992535956</v>
       </c>
       <c r="H35" t="n">
-        <v>411.50738</v>
+        <v>373.047890557975</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>387.94870657</v>
+        <v>397.300308258569</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0572496984865739</v>
+        <v>0.065011539575573</v>
       </c>
     </row>
     <row r="36">
@@ -1609,31 +1609,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>78.44</v>
+        <v>76.0557472702004</v>
       </c>
       <c r="D36" t="n">
-        <v>1.24813654669757</v>
+        <v>1.35917052099265</v>
       </c>
       <c r="E36" t="n">
-        <v>62.55</v>
+        <v>58.8726557369228</v>
       </c>
       <c r="F36" t="n">
-        <v>3.08201105475925</v>
+        <v>3.26804474644017</v>
       </c>
       <c r="G36" t="n">
-        <v>8.425</v>
+        <v>7.84983649956528</v>
       </c>
       <c r="H36" t="n">
-        <v>387.9138375</v>
+        <v>394.586367329821</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>379.65965184</v>
+        <v>360.147567125084</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0212783996394559</v>
+        <v>0.0872782312216847</v>
       </c>
     </row>
     <row r="37">
@@ -1644,31 +1644,31 @@
         <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>62.33</v>
+        <v>60.7702781271567</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23279999081493</v>
+        <v>1.25009331968815</v>
       </c>
       <c r="E37" t="n">
-        <v>62.44</v>
+        <v>67.3586185220592</v>
       </c>
       <c r="F37" t="n">
-        <v>3.09612278152956</v>
+        <v>3.21027131943203</v>
       </c>
       <c r="G37" t="n">
-        <v>8.3625</v>
+        <v>7.7017351335485</v>
       </c>
       <c r="H37" t="n">
-        <v>375.1706875</v>
+        <v>369.930036949854</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>367.82873253</v>
+        <v>351.897651093724</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0195696391392517</v>
+        <v>0.0487453952234058</v>
       </c>
     </row>
     <row r="38">
@@ -1679,31 +1679,31 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>48.07</v>
+        <v>50.1761184792262</v>
       </c>
       <c r="D38" t="n">
-        <v>1.15716241302786</v>
+        <v>1.20672947142261</v>
       </c>
       <c r="E38" t="n">
-        <v>62.1</v>
+        <v>57.8891421150835</v>
       </c>
       <c r="F38" t="n">
-        <v>3.20483027333727</v>
+        <v>3.05224299236885</v>
       </c>
       <c r="G38" t="n">
-        <v>6.8075</v>
+        <v>6.33948375178012</v>
       </c>
       <c r="H38" t="n">
-        <v>320.0692625</v>
+        <v>294.525276055759</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>316.23682307</v>
+        <v>302.118743599946</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0119737815498605</v>
+        <v>0.025782057302103</v>
       </c>
     </row>
     <row r="39">
@@ -1714,31 +1714,31 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>57.93</v>
+        <v>58.9301653079996</v>
       </c>
       <c r="D39" t="n">
-        <v>1.13603677322678</v>
+        <v>1.15603506353802</v>
       </c>
       <c r="E39" t="n">
-        <v>61.4</v>
+        <v>63.0466661153827</v>
       </c>
       <c r="F39" t="n">
-        <v>3.31353776514498</v>
+        <v>3.20354214531507</v>
       </c>
       <c r="G39" t="n">
-        <v>7.2775</v>
+        <v>7.52357755467272</v>
       </c>
       <c r="H39" t="n">
-        <v>332.076975</v>
+        <v>300.37385841296</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>334.78952833</v>
+        <v>343.171259906857</v>
       </c>
       <c r="K39" t="n">
-        <v>0.00816844748119006</v>
+        <v>0.142480446600843</v>
       </c>
     </row>
     <row r="40">
@@ -1749,31 +1749,31 @@
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>55.79</v>
+        <v>53.4566583761936</v>
       </c>
       <c r="D40" t="n">
-        <v>1.08116510558968</v>
+        <v>1.00128915828963</v>
       </c>
       <c r="E40" t="n">
-        <v>60.115</v>
+        <v>63.0520380038039</v>
       </c>
       <c r="F40" t="n">
-        <v>3.42224525695269</v>
+        <v>3.11885314889673</v>
       </c>
       <c r="G40" t="n">
-        <v>6.9075</v>
+        <v>6.91350911979843</v>
       </c>
       <c r="H40" t="n">
-        <v>335.977275</v>
+        <v>351.094025308229</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>322.53859539</v>
+        <v>323.093175798819</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0399987755421851</v>
+        <v>0.0797531358866844</v>
       </c>
     </row>
     <row r="41">
@@ -1784,31 +1784,31 @@
         <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>59.39</v>
+        <v>60.2410947331805</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0775772178982</v>
+        <v>1.07033990666561</v>
       </c>
       <c r="E41" t="n">
-        <v>57.8142857142857</v>
+        <v>52.1118641924419</v>
       </c>
       <c r="F41" t="n">
-        <v>3.4125454996046</v>
+        <v>3.28511710830109</v>
       </c>
       <c r="G41" t="n">
-        <v>6.79</v>
+        <v>6.30110770662641</v>
       </c>
       <c r="H41" t="n">
-        <v>343.3527375</v>
+        <v>362.658404726578</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>320.129022175714</v>
+        <v>303.719557092423</v>
       </c>
       <c r="K41" t="n">
-        <v>0.067638066594083</v>
+        <v>0.162518907230597</v>
       </c>
     </row>
     <row r="42">
@@ -1819,31 +1819,31 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>64.56</v>
+        <v>67.1737257209569</v>
       </c>
       <c r="D42" t="n">
-        <v>1.11585237283569</v>
+        <v>1.0869088753992</v>
       </c>
       <c r="E42" t="n">
-        <v>60.3973684210526</v>
+        <v>61.6926914008747</v>
       </c>
       <c r="F42" t="n">
-        <v>3.4028457422565</v>
+        <v>3.08975257702715</v>
       </c>
       <c r="G42" t="n">
-        <v>6.695</v>
+        <v>6.14805870410567</v>
       </c>
       <c r="H42" t="n">
-        <v>356.2384025</v>
+        <v>321.384779926098</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>322.384677328421</v>
+        <v>309.88945293279</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0950310941605431</v>
+        <v>0.0357681125906201</v>
       </c>
     </row>
     <row r="43">
@@ -1854,31 +1854,31 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>62.34</v>
+        <v>59.1972867734833</v>
       </c>
       <c r="D43" t="n">
-        <v>1.12218492742573</v>
+        <v>1.12888130534415</v>
       </c>
       <c r="E43" t="n">
-        <v>58.8409090909091</v>
+        <v>52.9976652765424</v>
       </c>
       <c r="F43" t="n">
-        <v>3.39314598490841</v>
+        <v>3.2391550396</v>
       </c>
       <c r="G43" t="n">
-        <v>6.655</v>
+        <v>7.07412545087305</v>
       </c>
       <c r="H43" t="n">
-        <v>347.42600625</v>
+        <v>371.834428377458</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>318.92782194</v>
+        <v>324.741772596372</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0820266295479714</v>
+        <v>0.126649530508997</v>
       </c>
     </row>
     <row r="44">
@@ -1889,31 +1889,31 @@
         <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>55.87</v>
+        <v>53.5491868939116</v>
       </c>
       <c r="D44" t="n">
-        <v>1.10162166009412</v>
+        <v>1.02646430842088</v>
       </c>
       <c r="E44" t="n">
-        <v>59.1304347826087</v>
+        <v>60.4890209086563</v>
       </c>
       <c r="F44" t="n">
-        <v>3.31252350373562</v>
+        <v>3.31943245090617</v>
       </c>
       <c r="G44" t="n">
-        <v>6.698</v>
+        <v>6.21351379060158</v>
       </c>
       <c r="H44" t="n">
-        <v>323.31087</v>
+        <v>341.70630112349</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>316.246507263913</v>
+        <v>302.417460829246</v>
       </c>
       <c r="K44" t="n">
-        <v>0.021850062560801</v>
+        <v>0.114978389819172</v>
       </c>
     </row>
     <row r="45">
@@ -1924,31 +1924,31 @@
         <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>46.99</v>
+        <v>51.5608173541026</v>
       </c>
       <c r="D45" t="n">
-        <v>1.11267142857143</v>
+        <v>1.16522944228874</v>
       </c>
       <c r="E45" t="n">
-        <v>58.5725</v>
+        <v>55.8717450698548</v>
       </c>
       <c r="F45" t="n">
-        <v>3.23190102256283</v>
+        <v>3.16460215820541</v>
       </c>
       <c r="G45" t="n">
-        <v>6.455</v>
+        <v>6.93368893303443</v>
       </c>
       <c r="H45" t="n">
-        <v>308.22225</v>
+        <v>307.540316692786</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>303.71550519</v>
+        <v>317.946536378854</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0146217374313501</v>
+        <v>0.033836928432583</v>
       </c>
     </row>
     <row r="46">
@@ -1959,31 +1959,31 @@
         <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>47.24</v>
+        <v>45.3546631662808</v>
       </c>
       <c r="D46" t="n">
-        <v>1.12366363636364</v>
+        <v>1.19963797540496</v>
       </c>
       <c r="E46" t="n">
-        <v>54.7454545454545</v>
+        <v>58.1168260125773</v>
       </c>
       <c r="F46" t="n">
-        <v>3.15127854139004</v>
+        <v>3.4232642995638</v>
       </c>
       <c r="G46" t="n">
-        <v>6.3</v>
+        <v>6.26872433199082</v>
       </c>
       <c r="H46" t="n">
-        <v>285.14254375</v>
+        <v>299.536942046434</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>297.23106764</v>
+        <v>297.319826777872</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0423946694555641</v>
+        <v>0.00740180911714916</v>
       </c>
     </row>
     <row r="47">
@@ -1994,31 +1994,31 @@
         <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>48.12</v>
+        <v>48.3514836018495</v>
       </c>
       <c r="D47" t="n">
-        <v>1.1234347826087</v>
+        <v>1.04147464352519</v>
       </c>
       <c r="E47" t="n">
-        <v>52.3136363636364</v>
+        <v>55.5612019503377</v>
       </c>
       <c r="F47" t="n">
-        <v>3.10259243930964</v>
+        <v>3.30039091359426</v>
       </c>
       <c r="G47" t="n">
-        <v>6.052</v>
+        <v>5.90464670622796</v>
       </c>
       <c r="H47" t="n">
-        <v>271.17467</v>
+        <v>280.789497195933</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>289.4765798</v>
+        <v>287.637705309767</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0674912218018002</v>
+        <v>0.0243891177633873</v>
       </c>
     </row>
     <row r="48">
@@ -2029,31 +2029,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>44.42</v>
+        <v>42.7916662903009</v>
       </c>
       <c r="D48" t="n">
-        <v>1.076025</v>
+        <v>1.05615479262235</v>
       </c>
       <c r="E48" t="n">
-        <v>52.5714285714286</v>
+        <v>52.5558147039797</v>
       </c>
       <c r="F48" t="n">
-        <v>3.05390633722925</v>
+        <v>2.94467848861614</v>
       </c>
       <c r="G48" t="n">
-        <v>5.525</v>
+        <v>5.89102142975549</v>
       </c>
       <c r="H48" t="n">
-        <v>243.513975</v>
+        <v>242.736392421372</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>272.933273048571</v>
+        <v>281.905889935154</v>
       </c>
       <c r="K48" t="n">
-        <v>0.120811538839081</v>
+        <v>0.161366398845489</v>
       </c>
     </row>
     <row r="49">
@@ -2064,31 +2064,31 @@
         <v>12</v>
       </c>
       <c r="C49" t="n">
-        <v>37.72</v>
+        <v>34.9504866494183</v>
       </c>
       <c r="D49" t="n">
-        <v>1.08697826086957</v>
+        <v>1.00523459342575</v>
       </c>
       <c r="E49" t="n">
-        <v>52.1275</v>
+        <v>51.1777756731156</v>
       </c>
       <c r="F49" t="n">
-        <v>3.00522023514886</v>
+        <v>2.98350080743639</v>
       </c>
       <c r="G49" t="n">
-        <v>5.25</v>
+        <v>5.46895584646845</v>
       </c>
       <c r="H49" t="n">
-        <v>236.62155</v>
+        <v>218.089095952221</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>260.96036382</v>
+        <v>264.616000812865</v>
       </c>
       <c r="K49" t="n">
-        <v>0.102859666923828</v>
+        <v>0.213338978079111</v>
       </c>
     </row>
     <row r="50">
@@ -2099,31 +2099,31 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>30.8</v>
+        <v>27.7948773665912</v>
       </c>
       <c r="D50" t="n">
-        <v>1.08774375</v>
+        <v>1.09086653230613</v>
       </c>
       <c r="E50" t="n">
-        <v>49.815625</v>
+        <v>49.9917347310115</v>
       </c>
       <c r="F50" t="n">
-        <v>2.91231896905698</v>
+        <v>2.96800728540912</v>
       </c>
       <c r="G50" t="n">
-        <v>4.415</v>
+        <v>4.09100423798244</v>
       </c>
       <c r="H50" t="n">
-        <v>198.1587125</v>
+        <v>209.88233986988</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>232.378005775</v>
+        <v>221.762536447595</v>
       </c>
       <c r="K50" t="n">
-        <v>0.172686291928749</v>
+        <v>0.0566040791477744</v>
       </c>
     </row>
     <row r="51">
@@ -2134,31 +2134,31 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>33.2</v>
+        <v>31.482672838252</v>
       </c>
       <c r="D51" t="n">
-        <v>1.11146315789474</v>
+        <v>1.03879688775974</v>
       </c>
       <c r="E51" t="n">
-        <v>50.7075</v>
+        <v>52.0822784893925</v>
       </c>
       <c r="F51" t="n">
-        <v>2.8194177029651</v>
+        <v>2.82395041691959</v>
       </c>
       <c r="G51" t="n">
-        <v>4.0175</v>
+        <v>4.1894139706234</v>
       </c>
       <c r="H51" t="n">
-        <v>164.7498</v>
+        <v>158.723163971371</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>223.5780446</v>
+        <v>228.066862745617</v>
       </c>
       <c r="K51" t="n">
-        <v>0.357076273233716</v>
+        <v>0.436884554460833</v>
       </c>
     </row>
     <row r="52">
@@ -2169,31 +2169,31 @@
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>39.07</v>
+        <v>35.891105809838</v>
       </c>
       <c r="D52" t="n">
-        <v>1.11022380952381</v>
+        <v>1.16948578939472</v>
       </c>
       <c r="E52" t="n">
-        <v>52.19</v>
+        <v>51.4514453602261</v>
       </c>
       <c r="F52" t="n">
-        <v>2.72651643687323</v>
+        <v>2.47086503282294</v>
       </c>
       <c r="G52" t="n">
-        <v>3.904</v>
+        <v>3.61745992614627</v>
       </c>
       <c r="H52" t="n">
-        <v>181.8716625</v>
+        <v>168.733017748838</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>225.07320613</v>
+        <v>214.7973657157</v>
       </c>
       <c r="K52" t="n">
-        <v>0.237538619464701</v>
+        <v>0.273001387525879</v>
       </c>
     </row>
     <row r="53">
@@ -2204,31 +2204,31 @@
         <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>42.25</v>
+        <v>42.3872372215148</v>
       </c>
       <c r="D53" t="n">
-        <v>1.13380909090909</v>
+        <v>1.11506156515128</v>
       </c>
       <c r="E53" t="n">
-        <v>50.91</v>
+        <v>49.3460971960123</v>
       </c>
       <c r="F53" t="n">
-        <v>2.82657984635832</v>
+        <v>2.842016832005</v>
       </c>
       <c r="G53" t="n">
-        <v>3.9425</v>
+        <v>3.75308359955647</v>
       </c>
       <c r="H53" t="n">
-        <v>199.705155</v>
+        <v>207.051576478658</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>227.30478005</v>
+        <v>221.232778511669</v>
       </c>
       <c r="K53" t="n">
-        <v>0.13820186589575</v>
+        <v>0.0684911570063473</v>
       </c>
     </row>
     <row r="54">
@@ -2239,31 +2239,31 @@
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>47.13</v>
+        <v>51.2366841626465</v>
       </c>
       <c r="D54" t="n">
-        <v>1.12945</v>
+        <v>1.20511587838196</v>
       </c>
       <c r="E54" t="n">
-        <v>51.48</v>
+        <v>55.2201928159632</v>
       </c>
       <c r="F54" t="n">
-        <v>2.92664325584342</v>
+        <v>2.75352200605064</v>
       </c>
       <c r="G54" t="n">
-        <v>4.28</v>
+        <v>4.42846579699032</v>
       </c>
       <c r="H54" t="n">
-        <v>227.51163125</v>
+        <v>224.752264495298</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>239.92840343</v>
+        <v>248.898789632574</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0545764280787733</v>
+        <v>0.107436181751048</v>
       </c>
     </row>
     <row r="55">
@@ -2274,31 +2274,31 @@
         <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>48.48</v>
+        <v>51.1862718372121</v>
       </c>
       <c r="D55" t="n">
-        <v>1.12375238095238</v>
+        <v>1.13711387631491</v>
       </c>
       <c r="E55" t="n">
-        <v>53.17</v>
+        <v>57.1602416382115</v>
       </c>
       <c r="F55" t="n">
-        <v>3.02670666532852</v>
+        <v>2.72521868226104</v>
       </c>
       <c r="G55" t="n">
-        <v>4.706</v>
+        <v>4.87510820174711</v>
       </c>
       <c r="H55" t="n">
-        <v>228.0944125</v>
+        <v>208.542452220878</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>253.47070192</v>
+        <v>262.28818960813</v>
       </c>
       <c r="K55" t="n">
-        <v>0.111253446070276</v>
+        <v>0.257720846834233</v>
       </c>
     </row>
     <row r="56">
@@ -2309,31 +2309,31 @@
         <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>45.07</v>
+        <v>46.424867977235</v>
       </c>
       <c r="D56" t="n">
-        <v>1.1066</v>
+        <v>1.19115695076605</v>
       </c>
       <c r="E56" t="n">
-        <v>62.29</v>
+        <v>66.4375399116627</v>
       </c>
       <c r="F56" t="n">
-        <v>2.93841155121377</v>
+        <v>2.66462598305366</v>
       </c>
       <c r="G56" t="n">
-        <v>4.665</v>
+        <v>4.23821874457318</v>
       </c>
       <c r="H56" t="n">
-        <v>220.50038</v>
+        <v>203.279365082228</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>255.95676777</v>
+        <v>247.751676991001</v>
       </c>
       <c r="K56" t="n">
-        <v>0.160799667420074</v>
+        <v>0.218774354646297</v>
       </c>
     </row>
     <row r="57">
@@ -2344,31 +2344,31 @@
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>46.14</v>
+        <v>44.6048139182953</v>
       </c>
       <c r="D57" t="n">
-        <v>1.12108181818182</v>
+        <v>1.09641842582332</v>
       </c>
       <c r="E57" t="n">
-        <v>67.3739130434783</v>
+        <v>60.9065308803709</v>
       </c>
       <c r="F57" t="n">
-        <v>2.85011643709902</v>
+        <v>2.61237176114273</v>
       </c>
       <c r="G57" t="n">
-        <v>4.165</v>
+        <v>4.54845016826643</v>
       </c>
       <c r="H57" t="n">
-        <v>218.345125</v>
+        <v>228.037195738149</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>246.162507705217</v>
+        <v>251.612750250278</v>
       </c>
       <c r="K57" t="n">
-        <v>0.127400979093156</v>
+        <v>0.103384688782088</v>
       </c>
     </row>
     <row r="58">
@@ -2379,31 +2379,31 @@
         <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>46.19</v>
+        <v>46.0046477265973</v>
       </c>
       <c r="D58" t="n">
-        <v>1.12092272727273</v>
+        <v>1.13034598821604</v>
       </c>
       <c r="E58" t="n">
-        <v>72.9</v>
+        <v>66.5433226484573</v>
       </c>
       <c r="F58" t="n">
-        <v>2.76182132298427</v>
+        <v>2.608855834177</v>
       </c>
       <c r="G58" t="n">
-        <v>4.11</v>
+        <v>4.2053621001821</v>
       </c>
       <c r="H58" t="n">
-        <v>234.95507</v>
+        <v>233.045110933384</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>248.16584749</v>
+        <v>246.658372023317</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0562268245158533</v>
+        <v>0.0584147036400358</v>
       </c>
     </row>
     <row r="59">
@@ -2414,31 +2414,31 @@
         <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>49.73</v>
+        <v>52.0294817635044</v>
       </c>
       <c r="D59" t="n">
-        <v>1.10388571428571</v>
+        <v>0.995798048048381</v>
       </c>
       <c r="E59" t="n">
-        <v>93.17</v>
+        <v>93.81398149624</v>
       </c>
       <c r="F59" t="n">
-        <v>2.84000203845094</v>
+        <v>2.6010676470985</v>
       </c>
       <c r="G59" t="n">
-        <v>5.2525</v>
+        <v>5.57974305899325</v>
       </c>
       <c r="H59" t="n">
-        <v>235.83091875</v>
+        <v>258.294879486284</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>294.33011233</v>
+        <v>305.109531179331</v>
       </c>
       <c r="K59" t="n">
-        <v>0.248055657375503</v>
+        <v>0.181244985522576</v>
       </c>
     </row>
     <row r="60">
@@ -2449,31 +2449,31 @@
         <v>11</v>
       </c>
       <c r="C60" t="n">
-        <v>46.44</v>
+        <v>43.9726989548374</v>
       </c>
       <c r="D60" t="n">
-        <v>1.08137619047619</v>
+        <v>1.08171172611141</v>
       </c>
       <c r="E60" t="n">
-        <v>100.01</v>
+        <v>98.8286167717218</v>
       </c>
       <c r="F60" t="n">
-        <v>2.9181827539176</v>
+        <v>2.72110480394643</v>
       </c>
       <c r="G60" t="n">
-        <v>5.655</v>
+        <v>5.17060054513835</v>
       </c>
       <c r="H60" t="n">
-        <v>268.24530625</v>
+        <v>283.508077765638</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>307.57269464</v>
+        <v>292.057562234465</v>
       </c>
       <c r="K60" t="n">
-        <v>0.146609791387543</v>
+        <v>0.0301560524702047</v>
       </c>
     </row>
     <row r="61">
@@ -2484,31 +2484,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>54.07</v>
+        <v>58.6199245509873</v>
       </c>
       <c r="D61" t="n">
-        <v>1.05502608695652</v>
+        <v>1.0961773304037</v>
       </c>
       <c r="E61" t="n">
-        <v>86.32</v>
+        <v>92.5585444716029</v>
       </c>
       <c r="F61" t="n">
-        <v>2.99636346938427</v>
+        <v>2.96289815007277</v>
       </c>
       <c r="G61" t="n">
-        <v>5.3625</v>
+        <v>5.80231812982704</v>
       </c>
       <c r="H61" t="n">
-        <v>316.81850625</v>
+        <v>310.379694631009</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>295.73664447</v>
+        <v>314.513467062243</v>
       </c>
       <c r="K61" t="n">
-        <v>0.066542393717886</v>
+        <v>0.013318437071562</v>
       </c>
     </row>
     <row r="62">
@@ -2519,31 +2519,31 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>54.89</v>
+        <v>50.7776338823382</v>
       </c>
       <c r="D62" t="n">
-        <v>1.06598125</v>
+        <v>1.0912906179784</v>
       </c>
       <c r="E62" t="n">
-        <v>83.73</v>
+        <v>86.0252461062265</v>
       </c>
       <c r="F62" t="n">
-        <v>3.01905396279001</v>
+        <v>2.75248853407125</v>
       </c>
       <c r="G62" t="n">
-        <v>6.1125</v>
+        <v>5.92943654558156</v>
       </c>
       <c r="H62" t="n">
-        <v>351.2602375</v>
+        <v>320.779373172467</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>315.10785709</v>
+        <v>308.983654782113</v>
       </c>
       <c r="K62" t="n">
-        <v>0.102921926681212</v>
+        <v>0.0367720601037886</v>
       </c>
     </row>
     <row r="63">
@@ -2554,31 +2554,31 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>55.49</v>
+        <v>53.324006136253</v>
       </c>
       <c r="D63" t="n">
-        <v>1.06586111111111</v>
+        <v>1.08828196939185</v>
       </c>
       <c r="E63" t="n">
-        <v>80.41</v>
+        <v>74.4793666116898</v>
       </c>
       <c r="F63" t="n">
-        <v>3.04174445619575</v>
+        <v>3.12664137042295</v>
       </c>
       <c r="G63" t="n">
-        <v>6.2475</v>
+        <v>6.76693639129819</v>
       </c>
       <c r="H63" t="n">
-        <v>412.69965</v>
+        <v>379.569851041436</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>317.08266789</v>
+        <v>326.191470810296</v>
       </c>
       <c r="K63" t="n">
-        <v>0.231686608190727</v>
+        <v>0.140628609160303</v>
       </c>
     </row>
     <row r="64">
@@ -2589,31 +2589,31 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>51.97</v>
+        <v>51.2663501171251</v>
       </c>
       <c r="D64" t="n">
-        <v>1.06896363636364</v>
+        <v>1.15525998692029</v>
       </c>
       <c r="E64" t="n">
-        <v>80.55</v>
+        <v>80.9091786169913</v>
       </c>
       <c r="F64" t="n">
-        <v>3.06443494960149</v>
+        <v>3.15773607809287</v>
       </c>
       <c r="G64" t="n">
-        <v>5.08</v>
+        <v>5.42805432211794</v>
       </c>
       <c r="H64" t="n">
-        <v>401.897885</v>
+        <v>428.492133888839</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>283.08094587</v>
+        <v>292.375510835502</v>
       </c>
       <c r="K64" t="n">
-        <v>0.295639622811152</v>
+        <v>0.317664228320815</v>
       </c>
     </row>
     <row r="65">
@@ -2624,31 +2624,31 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>52.98</v>
+        <v>55.2409463340947</v>
       </c>
       <c r="D65" t="n">
-        <v>1.0713380952381</v>
+        <v>1.04378503874453</v>
       </c>
       <c r="E65" t="n">
-        <v>84.6421052631579</v>
+        <v>78.3374950324872</v>
       </c>
       <c r="F65" t="n">
-        <v>3.01574387630643</v>
+        <v>2.83204024283003</v>
       </c>
       <c r="G65" t="n">
-        <v>4.99</v>
+        <v>4.63993922928674</v>
       </c>
       <c r="H65" t="n">
-        <v>327.4513125</v>
+        <v>322.965616970571</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>283.825698485263</v>
+        <v>271.709999145986</v>
       </c>
       <c r="K65" t="n">
-        <v>0.133227787916522</v>
+        <v>0.158703017074588</v>
       </c>
     </row>
     <row r="66">
@@ -2659,31 +2659,31 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>50.87</v>
+        <v>48.7216141597168</v>
       </c>
       <c r="D66" t="n">
-        <v>1.10552631578947</v>
+        <v>1.13393343468749</v>
       </c>
       <c r="E66" t="n">
-        <v>74.52</v>
+        <v>72.1666495964695</v>
       </c>
       <c r="F66" t="n">
-        <v>2.96705280301138</v>
+        <v>2.78596477703719</v>
       </c>
       <c r="G66" t="n">
-        <v>5.1925</v>
+        <v>5.27011971288978</v>
       </c>
       <c r="H66" t="n">
-        <v>307.4268</v>
+        <v>322.85471277409</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>281.67619047</v>
+        <v>280.976022960852</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0837617589943362</v>
+        <v>0.129713732388789</v>
       </c>
     </row>
     <row r="67">
@@ -2694,31 +2694,31 @@
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>46.89</v>
+        <v>46.838127799626</v>
       </c>
       <c r="D67" t="n">
-        <v>1.12217619047619</v>
+        <v>1.21003910679679</v>
       </c>
       <c r="E67" t="n">
-        <v>80.9522727272727</v>
+        <v>82.1718972276918</v>
       </c>
       <c r="F67" t="n">
-        <v>2.91836172971633</v>
+        <v>3.0549115879135</v>
       </c>
       <c r="G67" t="n">
-        <v>4.918</v>
+        <v>4.92672306221891</v>
       </c>
       <c r="H67" t="n">
-        <v>300.83554</v>
+        <v>329.346716824666</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>275.73800211</v>
+        <v>276.710769184205</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0834261068024076</v>
+        <v>0.159819257188718</v>
       </c>
     </row>
     <row r="68">
@@ -2729,31 +2729,31 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>48.69</v>
+        <v>47.2564372066394</v>
       </c>
       <c r="D68" t="n">
-        <v>1.1496</v>
+        <v>1.10686428075839</v>
       </c>
       <c r="E68" t="n">
-        <v>87.5309523809524</v>
+        <v>84.7717190372283</v>
       </c>
       <c r="F68" t="n">
-        <v>3.06588456875344</v>
+        <v>3.26014706728554</v>
       </c>
       <c r="G68" t="n">
-        <v>4.9825</v>
+        <v>5.26312846536154</v>
       </c>
       <c r="H68" t="n">
-        <v>298.4081</v>
+        <v>322.600799656586</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>282.759774509048</v>
+        <v>287.796171782433</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0524393456174695</v>
+        <v>0.107887605707124</v>
       </c>
     </row>
     <row r="69">
@@ -2764,31 +2764,31 @@
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>51.37</v>
+        <v>47.008254436553</v>
       </c>
       <c r="D69" t="n">
-        <v>1.18050869565217</v>
+        <v>1.18587741027581</v>
       </c>
       <c r="E69" t="n">
-        <v>95.89</v>
+        <v>93.1835466277837</v>
       </c>
       <c r="F69" t="n">
-        <v>3.21340740779054</v>
+        <v>2.98745051723486</v>
       </c>
       <c r="G69" t="n">
-        <v>5.544</v>
+        <v>5.30977865133136</v>
       </c>
       <c r="H69" t="n">
-        <v>305.06503125</v>
+        <v>308.028606051936</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>305.02685703</v>
+        <v>294.204653227632</v>
       </c>
       <c r="K69" t="n">
-        <v>0.000125134696178142</v>
+        <v>0.0448787955167167</v>
       </c>
     </row>
     <row r="70">
@@ -2799,31 +2799,31 @@
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>55.16</v>
+        <v>57.4255633399039</v>
       </c>
       <c r="D70" t="n">
-        <v>1.19133636363636</v>
+        <v>1.23690575274889</v>
       </c>
       <c r="E70" t="n">
-        <v>96.8690476190476</v>
+        <v>92.6540540891633</v>
       </c>
       <c r="F70" t="n">
-        <v>3.36093024682764</v>
+        <v>3.22117989792373</v>
       </c>
       <c r="G70" t="n">
-        <v>5.935</v>
+        <v>5.35801946328604</v>
       </c>
       <c r="H70" t="n">
-        <v>318.439145</v>
+        <v>328.992959156169</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>318.688864540952</v>
+        <v>301.691092413989</v>
       </c>
       <c r="K70" t="n">
-        <v>0.000784198629073751</v>
+        <v>0.0829861733582574</v>
       </c>
     </row>
     <row r="71">
@@ -2834,31 +2834,31 @@
         <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>57.62</v>
+        <v>58.5945432061022</v>
       </c>
       <c r="D71" t="n">
-        <v>1.17605238095238</v>
+        <v>1.19516431314448</v>
       </c>
       <c r="E71" t="n">
-        <v>97.1409090909091</v>
+        <v>93.6486126083005</v>
       </c>
       <c r="F71" t="n">
-        <v>3.36131575384284</v>
+        <v>3.5074025980663</v>
       </c>
       <c r="G71" t="n">
-        <v>6.175</v>
+        <v>5.95346835363307</v>
       </c>
       <c r="H71" t="n">
-        <v>296.457925</v>
+        <v>273.271991563444</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>326.95125082</v>
+        <v>319.312024467098</v>
       </c>
       <c r="K71" t="n">
-        <v>0.10285886545283</v>
+        <v>0.168476954554508</v>
       </c>
     </row>
     <row r="72">
@@ -2869,31 +2869,31 @@
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>62.57</v>
+        <v>60.4819708168539</v>
       </c>
       <c r="D72" t="n">
-        <v>1.17319047619048</v>
+        <v>1.18776461182112</v>
       </c>
       <c r="E72" t="n">
-        <v>96.6272727272727</v>
+        <v>104.52002361094</v>
       </c>
       <c r="F72" t="n">
-        <v>3.36170126085804</v>
+        <v>3.42369890587663</v>
       </c>
       <c r="G72" t="n">
-        <v>6.56</v>
+        <v>6.06955562412739</v>
       </c>
       <c r="H72" t="n">
-        <v>326.98085</v>
+        <v>347.746700273023</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>340.23478367</v>
+        <v>330.49668101173</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0405342810442875</v>
+        <v>0.0496051270874744</v>
       </c>
     </row>
     <row r="73">
@@ -2904,31 +2904,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>64.21</v>
+        <v>64.3689077621843</v>
       </c>
       <c r="D73" t="n">
-        <v>1.18380909090909</v>
+        <v>1.29312124870263</v>
       </c>
       <c r="E73" t="n">
-        <v>102.155</v>
+        <v>100.876382954359</v>
       </c>
       <c r="F73" t="n">
-        <v>3.36208676787324</v>
+        <v>3.1860259840624</v>
       </c>
       <c r="G73" t="n">
-        <v>7.46333333333333</v>
+        <v>7.00903347667586</v>
       </c>
       <c r="H73" t="n">
-        <v>367.56368125</v>
+        <v>359.01313341012</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>369.410512976667</v>
+        <v>356.295527589136</v>
       </c>
       <c r="K73" t="n">
-        <v>0.00502452179275692</v>
+        <v>0.0075696557258792</v>
       </c>
     </row>
     <row r="74">
@@ -2939,31 +2939,31 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>68.99</v>
+        <v>72.5333802026096</v>
       </c>
       <c r="D74" t="n">
-        <v>1.22171875</v>
+        <v>1.18919136543819</v>
       </c>
       <c r="E74" t="n">
-        <v>106.776086956522</v>
+        <v>112.740151621966</v>
       </c>
       <c r="F74" t="n">
-        <v>3.35272444524883</v>
+        <v>3.19443602667359</v>
       </c>
       <c r="G74" t="n">
-        <v>6.7625</v>
+        <v>7.24532767633849</v>
       </c>
       <c r="H74" t="n">
-        <v>431.8401</v>
+        <v>426.148754222649</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>356.154485824783</v>
+        <v>375.305433198639</v>
       </c>
       <c r="K74" t="n">
-        <v>0.175263052632716</v>
+        <v>0.119308857576634</v>
       </c>
     </row>
     <row r="75">
@@ -2974,31 +2974,31 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>65.42</v>
+        <v>63.8556863333629</v>
       </c>
       <c r="D75" t="n">
-        <v>1.23760526315789</v>
+        <v>1.31797049288671</v>
       </c>
       <c r="E75" t="n">
-        <v>104.705</v>
+        <v>99.9372619650443</v>
       </c>
       <c r="F75" t="n">
-        <v>3.34336212262442</v>
+        <v>3.6733775011357</v>
       </c>
       <c r="G75" t="n">
-        <v>6.5925</v>
+        <v>7.23967604961013</v>
       </c>
       <c r="H75" t="n">
-        <v>412.355775</v>
+        <v>424.554849501109</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>347.98026212</v>
+        <v>361.685257255795</v>
       </c>
       <c r="K75" t="n">
-        <v>0.156116433388134</v>
+        <v>0.148083556975482</v>
       </c>
     </row>
     <row r="76">
@@ -3009,31 +3009,31 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>66.45</v>
+        <v>65.373471398293</v>
       </c>
       <c r="D76" t="n">
-        <v>1.23292857142857</v>
+        <v>1.15424208784958</v>
       </c>
       <c r="E76" t="n">
-        <v>95.85</v>
+        <v>93.3764931200235</v>
       </c>
       <c r="F76" t="n">
-        <v>3.33399980000001</v>
+        <v>3.47241411996926</v>
       </c>
       <c r="G76" t="n">
-        <v>6.784</v>
+        <v>7.08662975150943</v>
       </c>
       <c r="H76" t="n">
-        <v>389.85887</v>
+        <v>412.674896671851</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>348.28667811</v>
+        <v>354.326572135129</v>
       </c>
       <c r="K76" t="n">
-        <v>0.106633951639987</v>
+        <v>0.1413905352792</v>
       </c>
     </row>
     <row r="77">
@@ -3044,31 +3044,31 @@
         <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>71.63</v>
+        <v>67.2779141358836</v>
       </c>
       <c r="D77" t="n">
-        <v>1.2284</v>
+        <v>1.14578707043536</v>
       </c>
       <c r="E77" t="n">
-        <v>94.2075</v>
+        <v>92.3099650921348</v>
       </c>
       <c r="F77" t="n">
-        <v>3.28533936666667</v>
+        <v>3.20364603381958</v>
       </c>
       <c r="G77" t="n">
-        <v>6.8425</v>
+        <v>6.46477575362858</v>
       </c>
       <c r="H77" t="n">
-        <v>388.99829375</v>
+        <v>374.190632104746</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>352.08489333</v>
+        <v>337.857230728644</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0948934764318616</v>
+        <v>0.0970986397273873</v>
       </c>
     </row>
     <row r="78">
@@ -3079,31 +3079,31 @@
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>76.65</v>
+        <v>82.2792452439736</v>
       </c>
       <c r="D78" t="n">
-        <v>1.18135263157895</v>
+        <v>1.16988294403314</v>
       </c>
       <c r="E78" t="n">
-        <v>105.445454545455</v>
+        <v>105.247598625089</v>
       </c>
       <c r="F78" t="n">
-        <v>3.23667893333334</v>
+        <v>3.44739571359912</v>
       </c>
       <c r="G78" t="n">
-        <v>7.414</v>
+        <v>6.72908922933843</v>
       </c>
       <c r="H78" t="n">
-        <v>387.2764875</v>
+        <v>415.701674959321</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>377.89570951</v>
+        <v>362.574707599226</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0242224309834964</v>
+        <v>0.127800705554757</v>
       </c>
     </row>
     <row r="79">
@@ -3114,31 +3114,31 @@
         <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>75.19</v>
+        <v>77.1239900071029</v>
       </c>
       <c r="D79" t="n">
-        <v>1.16736666666667</v>
+        <v>1.07983374161137</v>
       </c>
       <c r="E79" t="n">
-        <v>114.75</v>
+        <v>116.998452922585</v>
       </c>
       <c r="F79" t="n">
-        <v>3.1880185</v>
+        <v>2.94118688518302</v>
       </c>
       <c r="G79" t="n">
-        <v>7.4725</v>
+        <v>6.87856452923908</v>
       </c>
       <c r="H79" t="n">
-        <v>433.77583</v>
+        <v>476.722019844141</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>384.43289199</v>
+        <v>370.828975887639</v>
       </c>
       <c r="K79" t="n">
-        <v>0.113752160903017</v>
+        <v>0.222127444398568</v>
       </c>
     </row>
     <row r="80">
@@ -3149,31 +3149,31 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>74.44</v>
+        <v>69.7856498772036</v>
       </c>
       <c r="D80" t="n">
-        <v>1.16839047619048</v>
+        <v>1.10292075336079</v>
       </c>
       <c r="E80" t="n">
-        <v>119.57</v>
+        <v>128.978417284873</v>
       </c>
       <c r="F80" t="n">
-        <v>3.101458</v>
+        <v>3.27240218329084</v>
       </c>
       <c r="G80" t="n">
-        <v>7.6075</v>
+        <v>8.25926126809313</v>
       </c>
       <c r="H80" t="n">
-        <v>408.3903125</v>
+        <v>424.866984502597</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>390.68325934</v>
+        <v>411.498383665753</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0433581615871459</v>
+        <v>0.0314653793410081</v>
       </c>
     </row>
     <row r="81">
@@ -3184,31 +3184,31 @@
         <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>73.13</v>
+        <v>74.0856755586872</v>
       </c>
       <c r="D81" t="n">
-        <v>1.15482173913043</v>
+        <v>1.21975711824709</v>
       </c>
       <c r="E81" t="n">
-        <v>117.34</v>
+        <v>125.928468557118</v>
       </c>
       <c r="F81" t="n">
-        <v>3.0148975</v>
+        <v>3.21314313303534</v>
       </c>
       <c r="G81" t="n">
-        <v>7.91</v>
+        <v>8.16513148011593</v>
       </c>
       <c r="H81" t="n">
-        <v>408.34485</v>
+        <v>369.261200638779</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>396.72700423</v>
+        <v>409.693025222463</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0284510647556838</v>
+        <v>0.109493833941238</v>
       </c>
     </row>
     <row r="82">
@@ -3219,31 +3219,31 @@
         <v>9</v>
       </c>
       <c r="C82" t="n">
-        <v>78.86</v>
+        <v>81.3062870516153</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16611428571429</v>
+        <v>1.26566894641208</v>
       </c>
       <c r="E82" t="n">
-        <v>114.16</v>
+        <v>115.230512838457</v>
       </c>
       <c r="F82" t="n">
-        <v>2.928337</v>
+        <v>3.03241388175666</v>
       </c>
       <c r="G82" t="n">
-        <v>9.475</v>
+        <v>8.56438874974148</v>
       </c>
       <c r="H82" t="n">
-        <v>430.7602375</v>
+        <v>395.749952632202</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>441.05518406</v>
+        <v>418.379648300367</v>
       </c>
       <c r="K82" t="n">
-        <v>0.023899482040749</v>
+        <v>0.057181802594418</v>
       </c>
     </row>
     <row r="83">
@@ -3254,31 +3254,31 @@
         <v>10</v>
       </c>
       <c r="C83" t="n">
-        <v>80.47</v>
+        <v>74.8192236289354</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14980454545455</v>
+        <v>1.09625778127134</v>
       </c>
       <c r="E83" t="n">
-        <v>108.73</v>
+        <v>112.55801784057</v>
       </c>
       <c r="F83" t="n">
-        <v>2.8434903</v>
+        <v>2.64386123981133</v>
       </c>
       <c r="G83" t="n">
-        <v>9.0525</v>
+        <v>8.70786034717143</v>
       </c>
       <c r="H83" t="n">
-        <v>418.818425</v>
+        <v>397.595883162489</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>427.10430207</v>
+        <v>416.569890765881</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0197839363681291</v>
+        <v>0.0477218412134246</v>
       </c>
     </row>
     <row r="84">
@@ -3289,31 +3289,31 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>65.17</v>
+        <v>65.6587031786232</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13665238095238</v>
+        <v>1.07598167980487</v>
       </c>
       <c r="E84" t="n">
-        <v>100.73</v>
+        <v>101.477471195458</v>
       </c>
       <c r="F84" t="n">
-        <v>2.7586436</v>
+        <v>2.89936744555654</v>
       </c>
       <c r="G84" t="n">
-        <v>8.214</v>
+        <v>7.67810724662868</v>
       </c>
       <c r="H84" t="n">
-        <v>382.87915</v>
+        <v>407.100295454123</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>389.61981803</v>
+        <v>375.755692090265</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01760521049527</v>
+        <v>0.0769947939460305</v>
       </c>
     </row>
     <row r="85">
@@ -3324,31 +3324,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="n">
-        <v>56.46</v>
+        <v>61.4123403983396</v>
       </c>
       <c r="D85" t="n">
-        <v>1.13835909090909</v>
+        <v>1.18561667196894</v>
       </c>
       <c r="E85" t="n">
-        <v>101.37</v>
+        <v>99.3940983375195</v>
       </c>
       <c r="F85" t="n">
-        <v>2.6737969</v>
+        <v>2.79419575944114</v>
       </c>
       <c r="G85" t="n">
-        <v>8.01666666666667</v>
+        <v>7.2590217075528</v>
       </c>
       <c r="H85" t="n">
-        <v>326.58625</v>
+        <v>317.277646887728</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>379.195615593333</v>
+        <v>360.347288599477</v>
       </c>
       <c r="K85" t="n">
-        <v>0.161088734119496</v>
+        <v>0.135747482163435</v>
       </c>
     </row>
     <row r="86">
@@ -3359,31 +3359,31 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>59.27</v>
+        <v>64.1660495270183</v>
       </c>
       <c r="D86" t="n">
-        <v>1.14274166666667</v>
+        <v>1.22097444173925</v>
       </c>
       <c r="E86" t="n">
-        <v>98.56</v>
+        <v>91.5993996567726</v>
       </c>
       <c r="F86" t="n">
-        <v>2.65741756666667</v>
+        <v>2.69646259753338</v>
       </c>
       <c r="G86" t="n">
-        <v>7.426</v>
+        <v>7.65649928380232</v>
       </c>
       <c r="H86" t="n">
-        <v>314.21551875</v>
+        <v>329.473230750766</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>363.04716881</v>
+        <v>368.022904360005</v>
       </c>
       <c r="K86" t="n">
-        <v>0.15540814232938</v>
+        <v>0.11700396272376</v>
       </c>
     </row>
     <row r="87">
@@ -3394,31 +3394,31 @@
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>64.13</v>
+        <v>67.2781029804055</v>
       </c>
       <c r="D87" t="n">
-        <v>1.135505</v>
+        <v>1.13232481962183</v>
       </c>
       <c r="E87" t="n">
-        <v>95.42</v>
+        <v>90.7459114849195</v>
       </c>
       <c r="F87" t="n">
-        <v>2.64103823333333</v>
+        <v>2.77019822325471</v>
       </c>
       <c r="G87" t="n">
-        <v>5.9925</v>
+        <v>5.79934547124908</v>
       </c>
       <c r="H87" t="n">
-        <v>315.5239</v>
+        <v>327.695308857986</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>324.94677833</v>
+        <v>318.696215515486</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0298642300313858</v>
+        <v>0.027461770428944</v>
       </c>
     </row>
     <row r="88">
@@ -3429,31 +3429,31 @@
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>66.41</v>
+        <v>72.896336543947</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13176666666667</v>
+        <v>1.04693488500867</v>
       </c>
       <c r="E88" t="n">
-        <v>93.12</v>
+        <v>97.7682083355188</v>
       </c>
       <c r="F88" t="n">
-        <v>2.6246589</v>
+        <v>2.72746438529561</v>
       </c>
       <c r="G88" t="n">
-        <v>5.2675</v>
+        <v>5.01956995643955</v>
       </c>
       <c r="H88" t="n">
-        <v>318.64856</v>
+        <v>302.393893010965</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>305.11860441</v>
+        <v>305.316641366669</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0424604322392041</v>
+        <v>0.00966536832672693</v>
       </c>
     </row>
     <row r="89">
@@ -3464,31 +3464,31 @@
         <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>71.2</v>
+        <v>70.6328697813302</v>
       </c>
       <c r="D89" t="n">
-        <v>1.12415714285714</v>
+        <v>1.07301728225268</v>
       </c>
       <c r="E89" t="n">
-        <v>86.77</v>
+        <v>85.3426795423753</v>
       </c>
       <c r="F89" t="n">
-        <v>2.60485196666667</v>
+        <v>2.52642407757816</v>
       </c>
       <c r="G89" t="n">
-        <v>4.935</v>
+        <v>5.24628489649482</v>
       </c>
       <c r="H89" t="n">
-        <v>305.3556625</v>
+        <v>285.612848212375</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>295.0324878</v>
+        <v>302.284537807084</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0338070518014382</v>
+        <v>0.0583716373372396</v>
       </c>
     </row>
     <row r="90">
@@ -3499,31 +3499,31 @@
         <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>70.53</v>
+        <v>75.917902377611</v>
       </c>
       <c r="D90" t="n">
-        <v>1.11841111111111</v>
+        <v>1.17790371938399</v>
       </c>
       <c r="E90" t="n">
-        <v>82.32</v>
+        <v>90.0587376790568</v>
       </c>
       <c r="F90" t="n">
-        <v>2.58504503333333</v>
+        <v>2.53216834780135</v>
       </c>
       <c r="G90" t="n">
-        <v>4.464</v>
+        <v>4.49263863413483</v>
       </c>
       <c r="H90" t="n">
-        <v>295.96278</v>
+        <v>320.092753704257</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>278.94993139</v>
+        <v>287.96071767581</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0574830680060513</v>
+        <v>0.100383515892192</v>
       </c>
     </row>
     <row r="91">
@@ -3534,31 +3534,31 @@
         <v>6</v>
       </c>
       <c r="C91" t="n">
-        <v>63.3</v>
+        <v>60.3081637138221</v>
       </c>
       <c r="D91" t="n">
-        <v>1.12829</v>
+        <v>1.20383170085926</v>
       </c>
       <c r="E91" t="n">
-        <v>72.49</v>
+        <v>72.8499368026904</v>
       </c>
       <c r="F91" t="n">
-        <v>2.5652381</v>
+        <v>2.58402462911389</v>
       </c>
       <c r="G91" t="n">
-        <v>3.6325</v>
+        <v>3.6304364211699</v>
       </c>
       <c r="H91" t="n">
-        <v>279.560475</v>
+        <v>287.630922650644</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>245.542613</v>
+        <v>243.845317649496</v>
       </c>
       <c r="K91" t="n">
-        <v>0.12168337459006</v>
+        <v>0.152228434264454</v>
       </c>
     </row>
     <row r="92">
@@ -3569,31 +3569,31 @@
         <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>64</v>
+        <v>62.7046469062567</v>
       </c>
       <c r="D92" t="n">
-        <v>1.12252272727273</v>
+        <v>1.0771419672523</v>
       </c>
       <c r="E92" t="n">
-        <v>72.08</v>
+        <v>74.7743100126646</v>
       </c>
       <c r="F92" t="n">
-        <v>2.5109587</v>
+        <v>2.63292189583239</v>
       </c>
       <c r="G92" t="n">
-        <v>3.65</v>
+        <v>3.4542306636367</v>
       </c>
       <c r="H92" t="n">
-        <v>246.6103875</v>
+        <v>263.969421605509</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>246.1997508</v>
+        <v>241.737503102797</v>
       </c>
       <c r="K92" t="n">
-        <v>0.00166512329088331</v>
+        <v>0.0842215676630034</v>
       </c>
     </row>
     <row r="93">
@@ -3604,31 +3604,31 @@
         <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>59.25</v>
+        <v>57.450229835452</v>
       </c>
       <c r="D93" t="n">
-        <v>1.11258695652174</v>
+        <v>1.18893714519188</v>
       </c>
       <c r="E93" t="n">
-        <v>65.55</v>
+        <v>65.107541951146</v>
       </c>
       <c r="F93" t="n">
-        <v>2.4566793</v>
+        <v>2.60660993234001</v>
       </c>
       <c r="G93" t="n">
-        <v>3.634</v>
+        <v>3.44290038224794</v>
       </c>
       <c r="H93" t="n">
-        <v>234.160145</v>
+        <v>229.028010794479</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>238.69234491</v>
+        <v>232.070574507995</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0193551294136753</v>
+        <v>0.0132846794720072</v>
       </c>
     </row>
     <row r="94">
@@ -3639,31 +3639,31 @@
         <v>9</v>
       </c>
       <c r="C94" t="n">
-        <v>62.33</v>
+        <v>63.8993306314182</v>
       </c>
       <c r="D94" t="n">
-        <v>1.10152</v>
+        <v>1.14889547048461</v>
       </c>
       <c r="E94" t="n">
-        <v>65.95</v>
+        <v>63.1187734377361</v>
       </c>
       <c r="F94" t="n">
-        <v>2.4023999</v>
+        <v>2.6392296831611</v>
       </c>
       <c r="G94" t="n">
-        <v>4.1125</v>
+        <v>3.7912614487682</v>
       </c>
       <c r="H94" t="n">
-        <v>235.53129375</v>
+        <v>221.956026653186</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>253.93741013</v>
+        <v>244.361334025165</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0781472223369892</v>
+        <v>0.100944802940574</v>
       </c>
     </row>
     <row r="95">
@@ -3674,31 +3674,31 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>59.37</v>
+        <v>65.0371867492888</v>
       </c>
       <c r="D95" t="n">
-        <v>1.10387826086957</v>
+        <v>1.16951791453445</v>
       </c>
       <c r="E95" t="n">
-        <v>69.2</v>
+        <v>70.2338976825587</v>
       </c>
       <c r="F95" t="n">
-        <v>2.42049303333333</v>
+        <v>2.43897581676617</v>
       </c>
       <c r="G95" t="n">
-        <v>4.912</v>
+        <v>4.64308930469677</v>
       </c>
       <c r="H95" t="n">
-        <v>226.25415</v>
+        <v>247.499372821374</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>275.97364495</v>
+        <v>272.814774044006</v>
       </c>
       <c r="K95" t="n">
-        <v>0.219750643026879</v>
+        <v>0.102284708579454</v>
       </c>
     </row>
     <row r="96">
@@ -3709,31 +3709,31 @@
         <v>11</v>
       </c>
       <c r="C96" t="n">
-        <v>62.74</v>
+        <v>59.0449453943912</v>
       </c>
       <c r="D96" t="n">
-        <v>1.10502</v>
+        <v>1.08260011858957</v>
       </c>
       <c r="E96" t="n">
-        <v>66.99</v>
+        <v>62.8190672783735</v>
       </c>
       <c r="F96" t="n">
-        <v>2.43858616666667</v>
+        <v>2.24115163331267</v>
       </c>
       <c r="G96" t="n">
-        <v>5.11</v>
+        <v>5.15105426699901</v>
       </c>
       <c r="H96" t="n">
-        <v>229.890105</v>
+        <v>209.202111617016</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>282.09615294</v>
+        <v>278.289002321625</v>
       </c>
       <c r="K96" t="n">
-        <v>0.227091322351608</v>
+        <v>0.33023993003993</v>
       </c>
     </row>
     <row r="97">
@@ -3744,31 +3744,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>65.85</v>
+        <v>70.3967566039762</v>
       </c>
       <c r="D97" t="n">
-        <v>1.11061428571429</v>
+        <v>1.03313739674672</v>
       </c>
       <c r="E97" t="n">
-        <v>66.18</v>
+        <v>67.7623729150761</v>
       </c>
       <c r="F97" t="n">
-        <v>2.4566793</v>
+        <v>2.48832867890211</v>
       </c>
       <c r="G97" t="n">
-        <v>4.86</v>
+        <v>4.72935742692836</v>
       </c>
       <c r="H97" t="n">
-        <v>224.708083333333</v>
+        <v>208.600731570235</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>276.69853255</v>
+        <v>276.962351632132</v>
       </c>
       <c r="K97" t="n">
-        <v>0.231368842835725</v>
+        <v>0.327715150121033</v>
       </c>
     </row>
     <row r="98">
@@ -3779,31 +3779,31 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>63.6</v>
+        <v>68.6980096399784</v>
       </c>
       <c r="D98" t="n">
-        <v>1.11056842105263</v>
+        <v>1.21450731541067</v>
       </c>
       <c r="E98" t="n">
-        <v>69.66</v>
+        <v>74.4207408072464</v>
       </c>
       <c r="F98" t="n">
-        <v>1.29954037702048</v>
+        <v>1.18851241556498</v>
       </c>
       <c r="G98" t="n">
-        <v>3.762</v>
+        <v>3.92203652253142</v>
       </c>
       <c r="H98" t="n">
-        <v>256.9306</v>
+        <v>246.79149297848</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>247.48803808</v>
+        <v>258.034881459137</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0367514103808577</v>
+        <v>0.0455582497798555</v>
       </c>
     </row>
     <row r="99">
@@ -3814,31 +3814,31 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>55</v>
+        <v>49.944587924052</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09178947368421</v>
+        <v>1.09377688471144</v>
       </c>
       <c r="E99" t="n">
-        <v>67.64</v>
+        <v>66.6676132727936</v>
       </c>
       <c r="F99" t="n">
-        <v>0.14240145404096</v>
+        <v>0.153778161372486</v>
       </c>
       <c r="G99" t="n">
-        <v>2.9275</v>
+        <v>2.95095248481794</v>
       </c>
       <c r="H99" t="n">
-        <v>266.43094375</v>
+        <v>285.298982275948</v>
       </c>
       <c r="I99" t="n">
-        <v>0.14240145404096</v>
+        <v>0.153778161372486</v>
       </c>
       <c r="J99" t="n">
-        <v>218.0543515</v>
+        <v>214.928472491638</v>
       </c>
       <c r="K99" t="n">
-        <v>0.181572724132949</v>
+        <v>0.246655313043655</v>
       </c>
     </row>
     <row r="100">
@@ -3849,31 +3849,31 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>32.98</v>
+        <v>35.8204161269637</v>
       </c>
       <c r="D100" t="n">
-        <v>1.10631</v>
+        <v>1.18928785527261</v>
       </c>
       <c r="E100" t="n">
-        <v>66.74</v>
+        <v>70.2645528646177</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.01473746893856</v>
+        <v>-0.98093070687356</v>
       </c>
       <c r="G100" t="n">
-        <v>2.82</v>
+        <v>2.63467661722004</v>
       </c>
       <c r="H100" t="n">
-        <v>218.870075</v>
+        <v>239.221057831732</v>
       </c>
       <c r="I100" t="n">
-        <v>-1.01473746893856</v>
+        <v>-0.98093070687356</v>
       </c>
       <c r="J100" t="n">
-        <v>200.80893998</v>
+        <v>199.73524946356</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0825198923151099</v>
+        <v>0.165059918746559</v>
       </c>
     </row>
     <row r="101">
@@ -3884,31 +3884,31 @@
         <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>23.34</v>
+        <v>25.5757164418632</v>
       </c>
       <c r="D101" t="n">
-        <v>1.08867142857143</v>
+        <v>0.987887656123235</v>
       </c>
       <c r="E101" t="n">
-        <v>58.55</v>
+        <v>60.447715083214</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.68366897757253</v>
       </c>
       <c r="G101" t="n">
-        <v>2.216</v>
+        <v>2.37134135396816</v>
       </c>
       <c r="H101" t="n">
-        <v>165.01195</v>
+        <v>176.761493615955</v>
       </c>
       <c r="I101" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.68366897757253</v>
       </c>
       <c r="J101" t="n">
-        <v>173.14335258</v>
+        <v>179.975392188242</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0492776588604642</v>
+        <v>0.018182119343652</v>
       </c>
     </row>
     <row r="102">
@@ -3919,31 +3919,31 @@
         <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>31.02</v>
+        <v>28.6606166342441</v>
       </c>
       <c r="D102" t="n">
-        <v>1.08883181818182</v>
+        <v>1.07888230868088</v>
       </c>
       <c r="E102" t="n">
-        <v>52.49</v>
+        <v>57.3373941212641</v>
       </c>
       <c r="F102" t="n">
-        <v>-6.76959153825622</v>
+        <v>-7.12064038635344</v>
       </c>
       <c r="G102" t="n">
-        <v>1.6025</v>
+        <v>1.44276073642145</v>
       </c>
       <c r="H102" t="n">
-        <v>161.55253</v>
+        <v>148.819927323294</v>
       </c>
       <c r="I102" t="n">
-        <v>-6.76959153825622</v>
+        <v>-7.12064038635344</v>
       </c>
       <c r="J102" t="n">
-        <v>157.36711272</v>
+        <v>154.578807335302</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0259074697251723</v>
+        <v>0.0386969683132403</v>
       </c>
     </row>
     <row r="103">
@@ -3954,31 +3954,31 @@
         <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>39.93</v>
+        <v>41.3548821754209</v>
       </c>
       <c r="D103" t="n">
-        <v>1.12609047619048</v>
+        <v>1.05087643907143</v>
       </c>
       <c r="E103" t="n">
-        <v>52.21</v>
+        <v>53.2878981742756</v>
       </c>
       <c r="F103" t="n">
-        <v>-9.64701857291505</v>
+        <v>-8.91924180192224</v>
       </c>
       <c r="G103" t="n">
-        <v>1.6725</v>
+        <v>1.66435530511464</v>
       </c>
       <c r="H103" t="n">
-        <v>173.4710625</v>
+        <v>170.745321845679</v>
       </c>
       <c r="I103" t="n">
-        <v>-9.64701857291505</v>
+        <v>-8.91924180192224</v>
       </c>
       <c r="J103" t="n">
-        <v>164.66409573</v>
+        <v>166.008629040531</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0507690829990736</v>
+        <v>0.0277412742788268</v>
       </c>
     </row>
     <row r="104">
@@ -3989,31 +3989,31 @@
         <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>42.81</v>
+        <v>38.5511582200457</v>
       </c>
       <c r="D104" t="n">
-        <v>1.14287826086957</v>
+        <v>1.13573674703457</v>
       </c>
       <c r="E104" t="n">
-        <v>51.56</v>
+        <v>50.4213852595352</v>
       </c>
       <c r="F104" t="n">
-        <v>-6.76959153825622</v>
+        <v>-6.32022548974088</v>
       </c>
       <c r="G104" t="n">
-        <v>1.796</v>
+        <v>1.95956169957407</v>
       </c>
       <c r="H104" t="n">
-        <v>191.14311</v>
+        <v>181.38980780365</v>
       </c>
       <c r="I104" t="n">
-        <v>-6.76959153825622</v>
+        <v>-6.32022548974088</v>
       </c>
       <c r="J104" t="n">
-        <v>169.42652055</v>
+        <v>170.520669345729</v>
       </c>
       <c r="K104" t="n">
-        <v>0.11361429376136</v>
+        <v>0.0599214398511658</v>
       </c>
     </row>
     <row r="105">
@@ -4024,31 +4024,31 @@
         <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>44.26</v>
+        <v>41.9518028020039</v>
       </c>
       <c r="D105" t="n">
-        <v>1.18269047619048</v>
+        <v>1.24063263366411</v>
       </c>
       <c r="E105" t="n">
-        <v>50.14</v>
+        <v>50.9588300813716</v>
       </c>
       <c r="F105" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.6492306852301</v>
       </c>
       <c r="G105" t="n">
-        <v>2.64</v>
+        <v>2.57713883810118</v>
       </c>
       <c r="H105" t="n">
-        <v>223.1313625</v>
+        <v>225.575739357192</v>
       </c>
       <c r="I105" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.6492306852301</v>
       </c>
       <c r="J105" t="n">
-        <v>192.49439286</v>
+        <v>189.851475754256</v>
       </c>
       <c r="K105" t="n">
-        <v>0.13730463210881</v>
+        <v>0.158369263045473</v>
       </c>
     </row>
     <row r="106">
@@ -4059,31 +4059,31 @@
         <v>9</v>
       </c>
       <c r="C106" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D106" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E106" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F106" t="n">
         <v>-3</v>
       </c>
       <c r="G106" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H106" t="n">
-        <v>241.47715</v>
+        <v>238.1854048711</v>
       </c>
       <c r="I106" t="n">
         <v>-3</v>
       </c>
       <c r="J106" t="n">
-        <v>223.460252056667</v>
+        <v>211.862085990192</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0746111917559629</v>
+        <v>0.110516086807056</v>
       </c>
     </row>
     <row r="107">
@@ -4094,26 +4094,26 @@
         <v>10</v>
       </c>
       <c r="C107" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D107" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E107" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F107" t="n">
         <v>-2</v>
       </c>
       <c r="G107" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H107"/>
       <c r="I107" t="n">
         <v>-2</v>
       </c>
       <c r="J107" t="n">
-        <v>223.460252056667</v>
+        <v>211.862085990192</v>
       </c>
       <c r="K107"/>
     </row>
@@ -4125,26 +4125,26 @@
         <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E108" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F108" t="n">
         <v>-2</v>
       </c>
       <c r="G108" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H108"/>
       <c r="I108" t="n">
         <v>-2</v>
       </c>
       <c r="J108" t="n">
-        <v>223.460252056667</v>
+        <v>211.862085990192</v>
       </c>
       <c r="K108"/>
     </row>
@@ -4156,26 +4156,26 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D109" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E109" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F109" t="n">
         <v>-2</v>
       </c>
       <c r="G109" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H109"/>
       <c r="I109" t="n">
         <v>-2</v>
       </c>
       <c r="J109" t="n">
-        <v>223.460252056667</v>
+        <v>211.862085990192</v>
       </c>
       <c r="K109"/>
     </row>

--- a/1.Data/tempdata2.xlsx
+++ b/1.Data/tempdata2.xlsx
@@ -419,31 +419,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>111.370873235031</v>
+        <v>111.15619047619</v>
       </c>
       <c r="D2" t="n">
-        <v>1.37644289076506</v>
+        <v>1.28945340920919</v>
       </c>
       <c r="E2" t="n">
-        <v>123.069767808923</v>
+        <v>116.46</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05403644639639</v>
+        <v>1.94361731025613</v>
       </c>
       <c r="G2" t="n">
-        <v>8.21656081887824</v>
+        <v>8.2425</v>
       </c>
       <c r="H2" t="n">
-        <v>376.745437902663</v>
+        <v>359.6271375</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>432.57059813702</v>
+        <v>428.989241494285</v>
       </c>
       <c r="K2" t="n">
-        <v>0.148177402081191</v>
+        <v>0.192872274535415</v>
       </c>
     </row>
     <row r="3">
@@ -454,31 +454,31 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>125.668559254674</v>
+        <v>119.702380952381</v>
       </c>
       <c r="D3" t="n">
-        <v>1.28186950310027</v>
+        <v>1.32124992060122</v>
       </c>
       <c r="E3" t="n">
-        <v>122.864472490235</v>
+        <v>117.02</v>
       </c>
       <c r="F3" t="n">
-        <v>1.96257446540429</v>
+        <v>1.88481087516663</v>
       </c>
       <c r="G3" t="n">
-        <v>8.83052816250362</v>
+        <v>9.1</v>
       </c>
       <c r="H3" t="n">
-        <v>376.827087698649</v>
+        <v>376.22136875</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>458.136753049824</v>
+        <v>458.099651878571</v>
       </c>
       <c r="K3" t="n">
-        <v>0.21577447058742</v>
+        <v>0.217633260440822</v>
       </c>
     </row>
     <row r="4">
@@ -489,31 +489,31 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>118.398860087051</v>
+        <v>124.928636363636</v>
       </c>
       <c r="D4" t="n">
-        <v>1.22039718368561</v>
+        <v>1.32179594236881</v>
       </c>
       <c r="E4" t="n">
-        <v>106.008016270199</v>
+        <v>107.46</v>
       </c>
       <c r="F4" t="n">
-        <v>1.89709927354809</v>
+        <v>1.82600444007713</v>
       </c>
       <c r="G4" t="n">
-        <v>9.46182370198891</v>
+        <v>9.48</v>
       </c>
       <c r="H4" t="n">
-        <v>378.901320691738</v>
+        <v>386.14925</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>460.246240182759</v>
+        <v>465.731020969545</v>
       </c>
       <c r="K4" t="n">
-        <v>0.214686291783081</v>
+        <v>0.206090704486789</v>
       </c>
     </row>
     <row r="5">
@@ -524,31 +524,31 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>121.322217430153</v>
+        <v>120.4635</v>
       </c>
       <c r="D5" t="n">
-        <v>1.23622503909414</v>
+        <v>1.31618096674676</v>
       </c>
       <c r="E5" t="n">
-        <v>97.0997106329282</v>
+        <v>103.59</v>
       </c>
       <c r="F5" t="n">
-        <v>1.81673791471238</v>
+        <v>1.74378085286223</v>
       </c>
       <c r="G5" t="n">
-        <v>10.3952170906577</v>
+        <v>9.4775</v>
       </c>
       <c r="H5" t="n">
-        <v>405.961700639677</v>
+        <v>403.1772375</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>481.967284617708</v>
+        <v>460.4426859485</v>
       </c>
       <c r="K5" t="n">
-        <v>0.187223533299493</v>
+        <v>0.14203542046071</v>
       </c>
     </row>
     <row r="6">
@@ -559,31 +559,31 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>119.544369436967</v>
+        <v>110.521739130435</v>
       </c>
       <c r="D6" t="n">
-        <v>1.39543544893587</v>
+        <v>1.28042617397904</v>
       </c>
       <c r="E6" t="n">
-        <v>93.9650173833598</v>
+        <v>95.83</v>
       </c>
       <c r="F6" t="n">
-        <v>1.63110889144954</v>
+        <v>1.66155726564733</v>
       </c>
       <c r="G6" t="n">
-        <v>8.80687358103544</v>
+        <v>9.246</v>
       </c>
       <c r="H6" t="n">
-        <v>440.62942093395</v>
+        <v>403.75115625</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>435.497579546441</v>
+        <v>443.034804970435</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0116466153726908</v>
+        <v>0.0972966841390561</v>
       </c>
     </row>
     <row r="7">
@@ -594,31 +594,31 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>103.111743829611</v>
+        <v>95.5890476190476</v>
       </c>
       <c r="D7" t="n">
-        <v>1.33095483463274</v>
+        <v>1.25212240064324</v>
       </c>
       <c r="E7" t="n">
-        <v>88.9056631866414</v>
+        <v>87.19</v>
       </c>
       <c r="F7" t="n">
-        <v>1.55123636041482</v>
+        <v>1.57933367843243</v>
       </c>
       <c r="G7" t="n">
-        <v>7.8713428494829</v>
+        <v>8.6375</v>
       </c>
       <c r="H7" t="n">
-        <v>348.696962356721</v>
+        <v>372.22662</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>396.504560080083</v>
+        <v>411.660120998571</v>
       </c>
       <c r="K7" t="n">
-        <v>0.137103568096055</v>
+        <v>0.105939497284131</v>
       </c>
     </row>
     <row r="8">
@@ -629,31 +629,31 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>94.7483903348989</v>
+        <v>103.140909090909</v>
       </c>
       <c r="D8" t="n">
-        <v>1.20178220605928</v>
+        <v>1.23035702971676</v>
       </c>
       <c r="E8" t="n">
-        <v>80.7015787023269</v>
+        <v>88.24</v>
       </c>
       <c r="F8" t="n">
-        <v>1.54848087970002</v>
+        <v>1.55752684787293</v>
       </c>
       <c r="G8" t="n">
-        <v>8.70999835627712</v>
+        <v>8.73</v>
       </c>
       <c r="H8" t="n">
-        <v>369.252506658475</v>
+        <v>351.068475</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>409.036252763207</v>
+        <v>419.560363513636</v>
       </c>
       <c r="K8" t="n">
-        <v>0.107741302732789</v>
+        <v>0.195095525206689</v>
       </c>
     </row>
     <row r="9">
@@ -664,31 +664,31 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>104.571437823052</v>
+        <v>113.34</v>
       </c>
       <c r="D9" t="n">
-        <v>1.21741554436037</v>
+        <v>1.23815485795614</v>
       </c>
       <c r="E9" t="n">
-        <v>89.9695677244104</v>
+        <v>91</v>
       </c>
       <c r="F9" t="n">
-        <v>1.40975611684775</v>
+        <v>1.53572001731344</v>
       </c>
       <c r="G9" t="n">
-        <v>8.33443062588572</v>
+        <v>8.85</v>
       </c>
       <c r="H9" t="n">
-        <v>345.666957670224</v>
+        <v>357.85056</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>410.734791704254</v>
+        <v>430.93917474</v>
       </c>
       <c r="K9" t="n">
-        <v>0.188238512794463</v>
+        <v>0.204243399088156</v>
       </c>
     </row>
     <row r="10">
@@ -699,31 +699,31 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>116.348233962812</v>
+        <v>113.3825</v>
       </c>
       <c r="D10" t="n">
-        <v>1.23725110578774</v>
+        <v>1.28417168834087</v>
       </c>
       <c r="E10" t="n">
-        <v>89.3274700337052</v>
+        <v>88.96</v>
       </c>
       <c r="F10" t="n">
-        <v>1.53938665220507</v>
+        <v>1.51391318675394</v>
       </c>
       <c r="G10" t="n">
-        <v>8.94076798828412</v>
+        <v>9.58</v>
       </c>
       <c r="H10" t="n">
-        <v>371.521726563412</v>
+        <v>382.12528125</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>434.244557625432</v>
+        <v>449.6246142575</v>
       </c>
       <c r="K10" t="n">
-        <v>0.16882681839958</v>
+        <v>0.176641892906687</v>
       </c>
     </row>
     <row r="11">
@@ -734,31 +734,31 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>111.015691746014</v>
+        <v>111.97347826087</v>
       </c>
       <c r="D11" t="n">
-        <v>1.26709233384617</v>
+        <v>1.29644086060586</v>
       </c>
       <c r="E11" t="n">
-        <v>87.6665758427815</v>
+        <v>81.85</v>
       </c>
       <c r="F11" t="n">
-        <v>1.51182125115636</v>
+        <v>1.38704508985128</v>
       </c>
       <c r="G11" t="n">
-        <v>9.44357603481039</v>
+        <v>10.1125</v>
       </c>
       <c r="H11" t="n">
-        <v>389.724295284869</v>
+        <v>410.8926625</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>443.607483619368</v>
+        <v>458.82117499087</v>
       </c>
       <c r="K11" t="n">
-        <v>0.13825976205849</v>
+        <v>0.116644848801285</v>
       </c>
     </row>
     <row r="12">
@@ -769,31 +769,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>106.041745612469</v>
+        <v>109.711818181818</v>
       </c>
       <c r="D12" t="n">
-        <v>1.35479657928551</v>
+        <v>1.28342852071292</v>
       </c>
       <c r="E12" t="n">
-        <v>89.978491292357</v>
+        <v>85.89</v>
       </c>
       <c r="F12" t="n">
-        <v>1.17914113190113</v>
+        <v>1.26017699294861</v>
       </c>
       <c r="G12" t="n">
-        <v>9.6599282190674</v>
+        <v>10.29</v>
       </c>
       <c r="H12" t="n">
-        <v>454.856786950607</v>
+        <v>427.02757</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>447.866973623963</v>
+        <v>464.798648557273</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0153670639356719</v>
+        <v>0.0884511474452869</v>
       </c>
     </row>
     <row r="13">
@@ -804,31 +804,31 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>113.694805145724</v>
+        <v>109.6765</v>
       </c>
       <c r="D13" t="n">
-        <v>1.34237385324434</v>
+        <v>1.3110953849636</v>
       </c>
       <c r="E13" t="n">
-        <v>91.449509160284</v>
+        <v>92.88</v>
       </c>
       <c r="F13" t="n">
-        <v>1.0225951976864</v>
+        <v>1.13330889604595</v>
       </c>
       <c r="G13" t="n">
-        <v>10.2143610463623</v>
+        <v>10.5625</v>
       </c>
       <c r="H13" t="n">
-        <v>406.157130153769</v>
+        <v>431.716616666667</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>468.713824064053</v>
+        <v>476.6155863915</v>
       </c>
       <c r="K13" t="n">
-        <v>0.154020917684248</v>
+        <v>0.10400102287353</v>
       </c>
     </row>
     <row r="14">
@@ -839,31 +839,31 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>116.220838361996</v>
+        <v>112.973636363636</v>
       </c>
       <c r="D14" t="n">
-        <v>1.37215041853538</v>
+        <v>1.33242974109691</v>
       </c>
       <c r="E14" t="n">
-        <v>96.3418589343033</v>
+        <v>92.77</v>
       </c>
       <c r="F14" t="n">
-        <v>1.21117368309197</v>
+        <v>1.14321460248121</v>
       </c>
       <c r="G14" t="n">
-        <v>9.41894401018321</v>
+        <v>10.36</v>
       </c>
       <c r="H14" t="n">
-        <v>419.094909761481</v>
+        <v>423.9896875</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>451.637864947213</v>
+        <v>473.072460764545</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0776505617886258</v>
+        <v>0.115764073305545</v>
       </c>
     </row>
     <row r="15">
@@ -874,31 +874,31 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>124.281899567633</v>
+        <v>116.5195</v>
       </c>
       <c r="D15" t="n">
-        <v>1.25092995770731</v>
+        <v>1.33865507742874</v>
       </c>
       <c r="E15" t="n">
-        <v>104.075591012143</v>
+        <v>94.94</v>
       </c>
       <c r="F15" t="n">
-        <v>1.19156442260057</v>
+        <v>1.15312030891647</v>
       </c>
       <c r="G15" t="n">
-        <v>10.2085712968558</v>
+        <v>10.08</v>
       </c>
       <c r="H15" t="n">
-        <v>434.135552723485</v>
+        <v>446.5117625</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>483.101961399171</v>
+        <v>469.0010552645</v>
       </c>
       <c r="K15" t="n">
-        <v>0.112790598163414</v>
+        <v>0.0503666300716994</v>
       </c>
     </row>
     <row r="16">
@@ -909,31 +909,31 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>118.529676671486</v>
+        <v>109.24</v>
       </c>
       <c r="D16" t="n">
-        <v>1.17969748882147</v>
+        <v>1.2965747351266</v>
       </c>
       <c r="E16" t="n">
-        <v>86.7127679638471</v>
+        <v>90.98</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0741066274455</v>
+        <v>1.16302601535173</v>
       </c>
       <c r="G16" t="n">
-        <v>9.45417537085991</v>
+        <v>10.1725</v>
       </c>
       <c r="H16" t="n">
-        <v>402.048937614277</v>
+        <v>441.01218</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>447.986872629935</v>
+        <v>464.49479434</v>
       </c>
       <c r="K16" t="n">
-        <v>0.114259560759568</v>
+        <v>0.0532470879602465</v>
       </c>
     </row>
     <row r="17">
@@ -944,31 +944,31 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>107.037615480886</v>
+        <v>102.875454545455</v>
       </c>
       <c r="D17" t="n">
-        <v>1.33014506310706</v>
+        <v>1.30080003462069</v>
       </c>
       <c r="E17" t="n">
-        <v>92.0904179349989</v>
+        <v>87.76</v>
       </c>
       <c r="F17" t="n">
-        <v>1.28417040849347</v>
+        <v>1.26114546310179</v>
       </c>
       <c r="G17" t="n">
-        <v>9.74977300747111</v>
+        <v>10.345</v>
       </c>
       <c r="H17" t="n">
-        <v>499.18809497616</v>
+        <v>458.29545</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>452.270713606811</v>
+        <v>463.210228211819</v>
       </c>
       <c r="K17" t="n">
-        <v>0.093987380391332</v>
+        <v>0.0107240388527063</v>
       </c>
     </row>
     <row r="18">
@@ -979,31 +979,31 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>93.3559608814247</v>
+        <v>103.026956521739</v>
       </c>
       <c r="D18" t="n">
-        <v>1.27507403429307</v>
+        <v>1.29599812388292</v>
       </c>
       <c r="E18" t="n">
-        <v>85.259365287614</v>
+        <v>87.71</v>
       </c>
       <c r="F18" t="n">
-        <v>1.43796124716444</v>
+        <v>1.35926491085185</v>
       </c>
       <c r="G18" t="n">
-        <v>10.9912576424653</v>
+        <v>10.036</v>
       </c>
       <c r="H18" t="n">
-        <v>478.667950910275</v>
+        <v>454.97385</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>473.350683540966</v>
+        <v>454.832317101739</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0111084674860672</v>
+        <v>0.000311079193366814</v>
       </c>
     </row>
     <row r="19">
@@ -1014,31 +1014,31 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>95.2042173520261</v>
+        <v>103.11</v>
       </c>
       <c r="D19" t="n">
-        <v>1.32262921569386</v>
+        <v>1.3193602052329</v>
       </c>
       <c r="E19" t="n">
-        <v>90.1478279335203</v>
+        <v>82.7543194620071</v>
       </c>
       <c r="F19" t="n">
-        <v>1.58578929028086</v>
+        <v>1.45738435860191</v>
       </c>
       <c r="G19" t="n">
-        <v>9.97632119217562</v>
+        <v>10.07</v>
       </c>
       <c r="H19" t="n">
-        <v>430.061626976912</v>
+        <v>452.44875</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>449.852607911018</v>
+        <v>452.696997914932</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0460189416880215</v>
+        <v>0.000548676319542585</v>
       </c>
     </row>
     <row r="20">
@@ -1049,31 +1049,31 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>100.707484305537</v>
+        <v>107.716086956522</v>
       </c>
       <c r="D20" t="n">
-        <v>1.30402678192316</v>
+        <v>1.30772257149181</v>
       </c>
       <c r="E20" t="n">
-        <v>75.7372286908652</v>
+        <v>77.2592108288309</v>
       </c>
       <c r="F20" t="n">
-        <v>1.66511578795511</v>
+        <v>1.59183744744634</v>
       </c>
       <c r="G20" t="n">
-        <v>10.0718301793165</v>
+        <v>9.985</v>
       </c>
       <c r="H20" t="n">
-        <v>440.488109604262</v>
+        <v>478.17549375</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>446.835490896713</v>
+        <v>449.794637547258</v>
       </c>
       <c r="K20" t="n">
-        <v>0.014409881116096</v>
+        <v>0.0593523854185227</v>
       </c>
     </row>
     <row r="21">
@@ -1084,31 +1084,31 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>117.087931608069</v>
+        <v>110.964545454545</v>
       </c>
       <c r="D21" t="n">
-        <v>1.41627839527551</v>
+        <v>1.33140411733142</v>
       </c>
       <c r="E21" t="n">
-        <v>80.2846986846775</v>
+        <v>76.96</v>
       </c>
       <c r="F21" t="n">
-        <v>1.69373796781152</v>
+        <v>1.72629053629078</v>
       </c>
       <c r="G21" t="n">
-        <v>9.98871042247955</v>
+        <v>10.044</v>
       </c>
       <c r="H21" t="n">
-        <v>462.52391548571</v>
+        <v>485.5538</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>457.647373130197</v>
+        <v>453.245621588182</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0105433301765431</v>
+        <v>0.0665388231166525</v>
       </c>
     </row>
     <row r="22">
@@ -1119,31 +1119,31 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>107.131214829431</v>
+        <v>111.621428571429</v>
       </c>
       <c r="D22" t="n">
-        <v>1.40801094987813</v>
+        <v>1.33403484674122</v>
       </c>
       <c r="E22" t="n">
-        <v>71.7031714751414</v>
+        <v>77.6125</v>
       </c>
       <c r="F22" t="n">
-        <v>1.68870169603023</v>
+        <v>1.86074362513521</v>
       </c>
       <c r="G22" t="n">
-        <v>10.6841016711979</v>
+        <v>10.3275</v>
       </c>
       <c r="H22" t="n">
-        <v>464.644431392019</v>
+        <v>495.4801875</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>465.033725251635</v>
+        <v>461.810293007143</v>
       </c>
       <c r="K22" t="n">
-        <v>0.000837831755456042</v>
+        <v>0.067954068280191</v>
       </c>
     </row>
     <row r="23">
@@ -1154,31 +1154,31 @@
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>106.684920360375</v>
+        <v>109.478695652174</v>
       </c>
       <c r="D23" t="n">
-        <v>1.32563792126991</v>
+        <v>1.36296071657827</v>
       </c>
       <c r="E23" t="n">
-        <v>82.5920667318261</v>
+        <v>79.4125</v>
       </c>
       <c r="F23" t="n">
-        <v>2.22606210740248</v>
+        <v>2.08044982554345</v>
       </c>
       <c r="G23" t="n">
-        <v>10.6523223561835</v>
+        <v>10.738</v>
       </c>
       <c r="H23" t="n">
-        <v>557.538147367645</v>
+        <v>518.0301125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>470.733566570567</v>
+        <v>472.818484842174</v>
       </c>
       <c r="K23" t="n">
-        <v>0.155692630552575</v>
+        <v>0.0872760609217017</v>
       </c>
     </row>
     <row r="24">
@@ -1189,31 +1189,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>111.30587207353</v>
+        <v>108.07619047619</v>
       </c>
       <c r="D24" t="n">
-        <v>1.41936134759957</v>
+        <v>1.35066091003443</v>
       </c>
       <c r="E24" t="n">
-        <v>78.9243327204487</v>
+        <v>82.25</v>
       </c>
       <c r="F24" t="n">
-        <v>2.20988844000371</v>
+        <v>2.30015602595169</v>
       </c>
       <c r="G24" t="n">
-        <v>11.6510116429203</v>
+        <v>10.91</v>
       </c>
       <c r="H24" t="n">
-        <v>520.901897414127</v>
+        <v>530.197715</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>498.59286385944</v>
+        <v>478.425837714285</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0428277064557331</v>
+        <v>0.0976463606330604</v>
       </c>
     </row>
     <row r="25">
@@ -1224,31 +1224,31 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>112.576742696324</v>
+        <v>110.674</v>
       </c>
       <c r="D25" t="n">
-        <v>1.24979793757064</v>
+        <v>1.36951377232217</v>
       </c>
       <c r="E25" t="n">
-        <v>75.9263861884904</v>
+        <v>84.3375</v>
       </c>
       <c r="F25" t="n">
-        <v>2.53835282094663</v>
+        <v>2.51986222635993</v>
       </c>
       <c r="G25" t="n">
-        <v>11.9027976013012</v>
+        <v>11.2866666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>492.982649492692</v>
+        <v>537.705316666667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>504.37913678699</v>
+        <v>491.649189447334</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0231174206760127</v>
+        <v>0.0856530999262626</v>
       </c>
     </row>
     <row r="26">
@@ -1259,31 +1259,31 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>114.184355004434</v>
+        <v>107.42</v>
       </c>
       <c r="D26" t="n">
-        <v>1.33852335158658</v>
+        <v>1.36332324021673</v>
       </c>
       <c r="E26" t="n">
-        <v>78.4315991644659</v>
+        <v>81.61</v>
       </c>
       <c r="F26" t="n">
-        <v>2.82369372427273</v>
+        <v>2.59157382160382</v>
       </c>
       <c r="G26" t="n">
-        <v>11.6036174321903</v>
+        <v>10.714</v>
       </c>
       <c r="H26" t="n">
-        <v>580.764021240732</v>
+        <v>532.24483</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>498.784866540148</v>
+        <v>472.25971658</v>
       </c>
       <c r="K26" t="n">
-        <v>0.141157426600645</v>
+        <v>0.11270210632201</v>
       </c>
     </row>
     <row r="27">
@@ -1294,31 +1294,31 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>111.47765318131</v>
+        <v>108.81</v>
       </c>
       <c r="D27" t="n">
-        <v>1.26173581544375</v>
+        <v>1.36301698520082</v>
       </c>
       <c r="E27" t="n">
-        <v>83.3005282362923</v>
+        <v>76.29</v>
       </c>
       <c r="F27" t="n">
-        <v>2.5514104617153</v>
+        <v>2.66328541684771</v>
       </c>
       <c r="G27" t="n">
-        <v>8.78179310372332</v>
+        <v>9.6975</v>
       </c>
       <c r="H27" t="n">
-        <v>580.713306057532</v>
+        <v>541.933384375</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>423.072519583247</v>
+        <v>442.01425321</v>
       </c>
       <c r="K27" t="n">
-        <v>0.271460606860398</v>
+        <v>0.184375301551563</v>
       </c>
     </row>
     <row r="28">
@@ -1329,31 +1329,31 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>110.541252662363</v>
+        <v>107.4</v>
       </c>
       <c r="D28" t="n">
-        <v>1.32086989692509</v>
+        <v>1.38211007087117</v>
       </c>
       <c r="E28" t="n">
-        <v>75.8582916510124</v>
+        <v>73.34</v>
       </c>
       <c r="F28" t="n">
-        <v>2.94190680009661</v>
+        <v>2.73499701209159</v>
       </c>
       <c r="G28" t="n">
-        <v>8.61076802340976</v>
+        <v>9.4575</v>
       </c>
       <c r="H28" t="n">
-        <v>542.213225305451</v>
+        <v>524.04735625</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>413.136787878661</v>
+        <v>432.7232771</v>
       </c>
       <c r="K28" t="n">
-        <v>0.238054756694797</v>
+        <v>0.174266844514779</v>
       </c>
     </row>
     <row r="29">
@@ -1364,31 +1364,31 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>101.226118124344</v>
+        <v>107.79</v>
       </c>
       <c r="D29" t="n">
-        <v>1.33310148185806</v>
+        <v>1.380527404527</v>
       </c>
       <c r="E29" t="n">
-        <v>73.1929500611983</v>
+        <v>72.82</v>
       </c>
       <c r="F29" t="n">
-        <v>2.59100045713935</v>
+        <v>2.78222737076019</v>
       </c>
       <c r="G29" t="n">
-        <v>9.04957533496211</v>
+        <v>8.5025</v>
       </c>
       <c r="H29" t="n">
-        <v>449.012086248905</v>
+        <v>469.051525</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>417.634254412422</v>
+        <v>406.55176099</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0698819314611704</v>
+        <v>0.133247118235038</v>
       </c>
     </row>
     <row r="30">
@@ -1399,31 +1399,31 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>120.195686869361</v>
+        <v>109.68</v>
       </c>
       <c r="D30" t="n">
-        <v>1.32915260317857</v>
+        <v>1.37171596763391</v>
       </c>
       <c r="E30" t="n">
-        <v>67.6778091547936</v>
+        <v>73.69</v>
       </c>
       <c r="F30" t="n">
-        <v>2.6769915984286</v>
+        <v>2.82945772942879</v>
       </c>
       <c r="G30" t="n">
-        <v>7.98490409018341</v>
+        <v>7.914</v>
       </c>
       <c r="H30" t="n">
-        <v>398.094709841987</v>
+        <v>402.2864</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>396.921791020414</v>
+        <v>392.20215624</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0029463310930179</v>
+        <v>0.0250673245727422</v>
       </c>
     </row>
     <row r="31">
@@ -1434,31 +1434,31 @@
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>106.130183344508</v>
+        <v>111.87</v>
       </c>
       <c r="D31" t="n">
-        <v>1.30845874203917</v>
+        <v>1.3603501180353</v>
       </c>
       <c r="E31" t="n">
-        <v>69.5623162000198</v>
+        <v>71.48</v>
       </c>
       <c r="F31" t="n">
-        <v>2.89467348003955</v>
+        <v>2.87668808809739</v>
       </c>
       <c r="G31" t="n">
-        <v>7.40745188685541</v>
+        <v>7.0625</v>
       </c>
       <c r="H31" t="n">
-        <v>335.173310126367</v>
+        <v>371.900175</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>373.553857772931</v>
+        <v>368.91876987</v>
       </c>
       <c r="K31" t="n">
-        <v>0.114509558150956</v>
+        <v>0.00801668116988652</v>
       </c>
     </row>
     <row r="32">
@@ -1469,31 +1469,31 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>107.968795742235</v>
+        <v>106.98</v>
       </c>
       <c r="D32" t="n">
-        <v>1.40446453981644</v>
+        <v>1.35586095956524</v>
       </c>
       <c r="E32" t="n">
-        <v>66.0739673298667</v>
+        <v>68.75</v>
       </c>
       <c r="F32" t="n">
-        <v>2.80483450006397</v>
+        <v>2.93572125913781</v>
       </c>
       <c r="G32" t="n">
-        <v>6.38824295206564</v>
+        <v>6.594</v>
       </c>
       <c r="H32" t="n">
-        <v>367.219216555255</v>
+        <v>365.4538375</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>344.666046677695</v>
+        <v>351.35222534</v>
       </c>
       <c r="K32" t="n">
-        <v>0.061416093877448</v>
+        <v>0.0385865756848155</v>
       </c>
     </row>
     <row r="33">
@@ -1504,31 +1504,31 @@
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>96.2223967651725</v>
+        <v>101.92</v>
       </c>
       <c r="D33" t="n">
-        <v>1.25320596347076</v>
+        <v>1.33248659575698</v>
       </c>
       <c r="E33" t="n">
-        <v>70.8030936834086</v>
+        <v>68.94</v>
       </c>
       <c r="F33" t="n">
-        <v>2.83817070467087</v>
+        <v>2.99475443017823</v>
       </c>
       <c r="G33" t="n">
-        <v>7.48802334453037</v>
+        <v>7.0125</v>
       </c>
       <c r="H33" t="n">
-        <v>347.788392437664</v>
+        <v>375.93203</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>370.351440280027</v>
+        <v>359.74595302</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0648757932495045</v>
+        <v>0.0430558603373061</v>
       </c>
     </row>
     <row r="34">
@@ -1539,31 +1539,31 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>90.2452426451016</v>
+        <v>97.34</v>
       </c>
       <c r="D34" t="n">
-        <v>1.27229757145856</v>
+        <v>1.29240465259052</v>
       </c>
       <c r="E34" t="n">
-        <v>72.3445792614687</v>
+        <v>65.94</v>
       </c>
       <c r="F34" t="n">
-        <v>3.2800294799695</v>
+        <v>3.05378760121864</v>
       </c>
       <c r="G34" t="n">
-        <v>8.6509841539585</v>
+        <v>8.205</v>
       </c>
       <c r="H34" t="n">
-        <v>396.492279550554</v>
+        <v>406.48823125</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>399.359136658799</v>
+        <v>387.57705334</v>
       </c>
       <c r="K34" t="n">
-        <v>0.00723054963767544</v>
+        <v>0.0465233097938552</v>
       </c>
     </row>
     <row r="35">
@@ -1574,31 +1574,31 @@
         <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>93.5124215825088</v>
+        <v>87.27</v>
       </c>
       <c r="D35" t="n">
-        <v>1.14561351694903</v>
+        <v>1.26853045960041</v>
       </c>
       <c r="E35" t="n">
-        <v>63.6024343082551</v>
+        <v>63.71</v>
       </c>
       <c r="F35" t="n">
-        <v>2.87344186272498</v>
+        <v>3.06789932798895</v>
       </c>
       <c r="G35" t="n">
-        <v>8.70218992535956</v>
+        <v>8.5</v>
       </c>
       <c r="H35" t="n">
-        <v>373.047890557975</v>
+        <v>411.50738</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>397.300308258569</v>
+        <v>387.94870657</v>
       </c>
       <c r="K35" t="n">
-        <v>0.065011539575573</v>
+        <v>0.0572496984865739</v>
       </c>
     </row>
     <row r="36">
@@ -1609,31 +1609,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>76.0557472702004</v>
+        <v>78.44</v>
       </c>
       <c r="D36" t="n">
-        <v>1.35917052099265</v>
+        <v>1.24813654669757</v>
       </c>
       <c r="E36" t="n">
-        <v>58.8726557369228</v>
+        <v>62.55</v>
       </c>
       <c r="F36" t="n">
-        <v>3.26804474644017</v>
+        <v>3.08201105475925</v>
       </c>
       <c r="G36" t="n">
-        <v>7.84983649956528</v>
+        <v>8.425</v>
       </c>
       <c r="H36" t="n">
-        <v>394.586367329821</v>
+        <v>387.9138375</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>360.147567125084</v>
+        <v>379.65965184</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0872782312216847</v>
+        <v>0.0212783996394559</v>
       </c>
     </row>
     <row r="37">
@@ -1644,31 +1644,31 @@
         <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>60.7702781271567</v>
+        <v>62.33</v>
       </c>
       <c r="D37" t="n">
-        <v>1.25009331968815</v>
+        <v>1.23279999081493</v>
       </c>
       <c r="E37" t="n">
-        <v>67.3586185220592</v>
+        <v>62.44</v>
       </c>
       <c r="F37" t="n">
-        <v>3.21027131943203</v>
+        <v>3.09612278152956</v>
       </c>
       <c r="G37" t="n">
-        <v>7.7017351335485</v>
+        <v>8.3625</v>
       </c>
       <c r="H37" t="n">
-        <v>369.930036949854</v>
+        <v>375.1706875</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>351.897651093724</v>
+        <v>367.82873253</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0487453952234058</v>
+        <v>0.0195696391392517</v>
       </c>
     </row>
     <row r="38">
@@ -1679,31 +1679,31 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>50.1761184792262</v>
+        <v>48.07</v>
       </c>
       <c r="D38" t="n">
-        <v>1.20672947142261</v>
+        <v>1.15716241302786</v>
       </c>
       <c r="E38" t="n">
-        <v>57.8891421150835</v>
+        <v>62.1</v>
       </c>
       <c r="F38" t="n">
-        <v>3.05224299236885</v>
+        <v>3.20483027333727</v>
       </c>
       <c r="G38" t="n">
-        <v>6.33948375178012</v>
+        <v>6.8075</v>
       </c>
       <c r="H38" t="n">
-        <v>294.525276055759</v>
+        <v>320.0692625</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>302.118743599946</v>
+        <v>316.23682307</v>
       </c>
       <c r="K38" t="n">
-        <v>0.025782057302103</v>
+        <v>0.0119737815498605</v>
       </c>
     </row>
     <row r="39">
@@ -1714,31 +1714,31 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>58.9301653079996</v>
+        <v>57.93</v>
       </c>
       <c r="D39" t="n">
-        <v>1.15603506353802</v>
+        <v>1.13603677322678</v>
       </c>
       <c r="E39" t="n">
-        <v>63.0466661153827</v>
+        <v>61.4</v>
       </c>
       <c r="F39" t="n">
-        <v>3.20354214531507</v>
+        <v>3.31353776514498</v>
       </c>
       <c r="G39" t="n">
-        <v>7.52357755467272</v>
+        <v>7.2775</v>
       </c>
       <c r="H39" t="n">
-        <v>300.37385841296</v>
+        <v>332.076975</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>343.171259906857</v>
+        <v>334.78952833</v>
       </c>
       <c r="K39" t="n">
-        <v>0.142480446600843</v>
+        <v>0.00816844748119006</v>
       </c>
     </row>
     <row r="40">
@@ -1749,31 +1749,31 @@
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>53.4566583761936</v>
+        <v>55.79</v>
       </c>
       <c r="D40" t="n">
-        <v>1.00128915828963</v>
+        <v>1.08116510558968</v>
       </c>
       <c r="E40" t="n">
-        <v>63.0520380038039</v>
+        <v>60.115</v>
       </c>
       <c r="F40" t="n">
-        <v>3.11885314889673</v>
+        <v>3.42224525695269</v>
       </c>
       <c r="G40" t="n">
-        <v>6.91350911979843</v>
+        <v>6.9075</v>
       </c>
       <c r="H40" t="n">
-        <v>351.094025308229</v>
+        <v>335.977275</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>323.093175798819</v>
+        <v>322.53859539</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0797531358866844</v>
+        <v>0.0399987755421851</v>
       </c>
     </row>
     <row r="41">
@@ -1784,31 +1784,31 @@
         <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>60.2410947331805</v>
+        <v>59.39</v>
       </c>
       <c r="D41" t="n">
-        <v>1.07033990666561</v>
+        <v>1.0775772178982</v>
       </c>
       <c r="E41" t="n">
-        <v>52.1118641924419</v>
+        <v>57.8142857142857</v>
       </c>
       <c r="F41" t="n">
-        <v>3.28511710830109</v>
+        <v>3.4125454996046</v>
       </c>
       <c r="G41" t="n">
-        <v>6.30110770662641</v>
+        <v>6.79</v>
       </c>
       <c r="H41" t="n">
-        <v>362.658404726578</v>
+        <v>343.3527375</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>303.719557092423</v>
+        <v>320.129022175714</v>
       </c>
       <c r="K41" t="n">
-        <v>0.162518907230597</v>
+        <v>0.067638066594083</v>
       </c>
     </row>
     <row r="42">
@@ -1819,31 +1819,31 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>67.1737257209569</v>
+        <v>64.56</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0869088753992</v>
+        <v>1.11585237283569</v>
       </c>
       <c r="E42" t="n">
-        <v>61.6926914008747</v>
+        <v>60.3973684210526</v>
       </c>
       <c r="F42" t="n">
-        <v>3.08975257702715</v>
+        <v>3.4028457422565</v>
       </c>
       <c r="G42" t="n">
-        <v>6.14805870410567</v>
+        <v>6.695</v>
       </c>
       <c r="H42" t="n">
-        <v>321.384779926098</v>
+        <v>356.2384025</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>309.88945293279</v>
+        <v>322.384677328421</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0357681125906201</v>
+        <v>0.0950310941605431</v>
       </c>
     </row>
     <row r="43">
@@ -1854,31 +1854,31 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>59.1972867734833</v>
+        <v>62.34</v>
       </c>
       <c r="D43" t="n">
-        <v>1.12888130534415</v>
+        <v>1.12218492742573</v>
       </c>
       <c r="E43" t="n">
-        <v>52.9976652765424</v>
+        <v>58.8409090909091</v>
       </c>
       <c r="F43" t="n">
-        <v>3.2391550396</v>
+        <v>3.39314598490841</v>
       </c>
       <c r="G43" t="n">
-        <v>7.07412545087305</v>
+        <v>6.655</v>
       </c>
       <c r="H43" t="n">
-        <v>371.834428377458</v>
+        <v>347.42600625</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>324.741772596372</v>
+        <v>318.92782194</v>
       </c>
       <c r="K43" t="n">
-        <v>0.126649530508997</v>
+        <v>0.0820266295479714</v>
       </c>
     </row>
     <row r="44">
@@ -1889,31 +1889,31 @@
         <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>53.5491868939116</v>
+        <v>55.87</v>
       </c>
       <c r="D44" t="n">
-        <v>1.02646430842088</v>
+        <v>1.10162166009412</v>
       </c>
       <c r="E44" t="n">
-        <v>60.4890209086563</v>
+        <v>59.1304347826087</v>
       </c>
       <c r="F44" t="n">
-        <v>3.31943245090617</v>
+        <v>3.31252350373562</v>
       </c>
       <c r="G44" t="n">
-        <v>6.21351379060158</v>
+        <v>6.698</v>
       </c>
       <c r="H44" t="n">
-        <v>341.70630112349</v>
+        <v>323.31087</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>302.417460829246</v>
+        <v>316.246507263913</v>
       </c>
       <c r="K44" t="n">
-        <v>0.114978389819172</v>
+        <v>0.021850062560801</v>
       </c>
     </row>
     <row r="45">
@@ -1924,31 +1924,31 @@
         <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>51.5608173541026</v>
+        <v>46.99</v>
       </c>
       <c r="D45" t="n">
-        <v>1.16522944228874</v>
+        <v>1.11267142857143</v>
       </c>
       <c r="E45" t="n">
-        <v>55.8717450698548</v>
+        <v>58.5725</v>
       </c>
       <c r="F45" t="n">
-        <v>3.16460215820541</v>
+        <v>3.23190102256283</v>
       </c>
       <c r="G45" t="n">
-        <v>6.93368893303443</v>
+        <v>6.455</v>
       </c>
       <c r="H45" t="n">
-        <v>307.540316692786</v>
+        <v>308.22225</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>317.946536378854</v>
+        <v>303.71550519</v>
       </c>
       <c r="K45" t="n">
-        <v>0.033836928432583</v>
+        <v>0.0146217374313501</v>
       </c>
     </row>
     <row r="46">
@@ -1959,31 +1959,31 @@
         <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>45.3546631662808</v>
+        <v>47.24</v>
       </c>
       <c r="D46" t="n">
-        <v>1.19963797540496</v>
+        <v>1.12366363636364</v>
       </c>
       <c r="E46" t="n">
-        <v>58.1168260125773</v>
+        <v>54.7454545454545</v>
       </c>
       <c r="F46" t="n">
-        <v>3.4232642995638</v>
+        <v>3.15127854139004</v>
       </c>
       <c r="G46" t="n">
-        <v>6.26872433199082</v>
+        <v>6.3</v>
       </c>
       <c r="H46" t="n">
-        <v>299.536942046434</v>
+        <v>285.14254375</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>297.319826777872</v>
+        <v>297.23106764</v>
       </c>
       <c r="K46" t="n">
-        <v>0.00740180911714916</v>
+        <v>0.0423946694555641</v>
       </c>
     </row>
     <row r="47">
@@ -1994,31 +1994,31 @@
         <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>48.3514836018495</v>
+        <v>48.12</v>
       </c>
       <c r="D47" t="n">
-        <v>1.04147464352519</v>
+        <v>1.1234347826087</v>
       </c>
       <c r="E47" t="n">
-        <v>55.5612019503377</v>
+        <v>52.3136363636364</v>
       </c>
       <c r="F47" t="n">
-        <v>3.30039091359426</v>
+        <v>3.10259243930964</v>
       </c>
       <c r="G47" t="n">
-        <v>5.90464670622796</v>
+        <v>6.052</v>
       </c>
       <c r="H47" t="n">
-        <v>280.789497195933</v>
+        <v>271.17467</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>287.637705309767</v>
+        <v>289.4765798</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0243891177633873</v>
+        <v>0.0674912218018002</v>
       </c>
     </row>
     <row r="48">
@@ -2029,31 +2029,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>42.7916662903009</v>
+        <v>44.42</v>
       </c>
       <c r="D48" t="n">
-        <v>1.05615479262235</v>
+        <v>1.076025</v>
       </c>
       <c r="E48" t="n">
-        <v>52.5558147039797</v>
+        <v>52.5714285714286</v>
       </c>
       <c r="F48" t="n">
-        <v>2.94467848861614</v>
+        <v>3.05390633722925</v>
       </c>
       <c r="G48" t="n">
-        <v>5.89102142975549</v>
+        <v>5.525</v>
       </c>
       <c r="H48" t="n">
-        <v>242.736392421372</v>
+        <v>243.513975</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>281.905889935154</v>
+        <v>272.933273048571</v>
       </c>
       <c r="K48" t="n">
-        <v>0.161366398845489</v>
+        <v>0.120811538839081</v>
       </c>
     </row>
     <row r="49">
@@ -2064,31 +2064,31 @@
         <v>12</v>
       </c>
       <c r="C49" t="n">
-        <v>34.9504866494183</v>
+        <v>37.72</v>
       </c>
       <c r="D49" t="n">
-        <v>1.00523459342575</v>
+        <v>1.08697826086957</v>
       </c>
       <c r="E49" t="n">
-        <v>51.1777756731156</v>
+        <v>52.1275</v>
       </c>
       <c r="F49" t="n">
-        <v>2.98350080743639</v>
+        <v>3.00522023514886</v>
       </c>
       <c r="G49" t="n">
-        <v>5.46895584646845</v>
+        <v>5.25</v>
       </c>
       <c r="H49" t="n">
-        <v>218.089095952221</v>
+        <v>236.62155</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>264.616000812865</v>
+        <v>260.96036382</v>
       </c>
       <c r="K49" t="n">
-        <v>0.213338978079111</v>
+        <v>0.102859666923828</v>
       </c>
     </row>
     <row r="50">
@@ -2099,31 +2099,31 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>27.7948773665912</v>
+        <v>30.8</v>
       </c>
       <c r="D50" t="n">
-        <v>1.09086653230613</v>
+        <v>1.08774375</v>
       </c>
       <c r="E50" t="n">
-        <v>49.9917347310115</v>
+        <v>49.815625</v>
       </c>
       <c r="F50" t="n">
-        <v>2.96800728540912</v>
+        <v>2.91231896905698</v>
       </c>
       <c r="G50" t="n">
-        <v>4.09100423798244</v>
+        <v>4.415</v>
       </c>
       <c r="H50" t="n">
-        <v>209.88233986988</v>
+        <v>198.1587125</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>221.762536447595</v>
+        <v>232.378005775</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0566040791477744</v>
+        <v>0.172686291928749</v>
       </c>
     </row>
     <row r="51">
@@ -2134,31 +2134,31 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>31.482672838252</v>
+        <v>33.2</v>
       </c>
       <c r="D51" t="n">
-        <v>1.03879688775974</v>
+        <v>1.11146315789474</v>
       </c>
       <c r="E51" t="n">
-        <v>52.0822784893925</v>
+        <v>50.7075</v>
       </c>
       <c r="F51" t="n">
-        <v>2.82395041691959</v>
+        <v>2.8194177029651</v>
       </c>
       <c r="G51" t="n">
-        <v>4.1894139706234</v>
+        <v>4.0175</v>
       </c>
       <c r="H51" t="n">
-        <v>158.723163971371</v>
+        <v>164.7498</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>228.066862745617</v>
+        <v>223.5780446</v>
       </c>
       <c r="K51" t="n">
-        <v>0.436884554460833</v>
+        <v>0.357076273233716</v>
       </c>
     </row>
     <row r="52">
@@ -2169,31 +2169,31 @@
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>35.891105809838</v>
+        <v>39.07</v>
       </c>
       <c r="D52" t="n">
-        <v>1.16948578939472</v>
+        <v>1.11022380952381</v>
       </c>
       <c r="E52" t="n">
-        <v>51.4514453602261</v>
+        <v>52.19</v>
       </c>
       <c r="F52" t="n">
-        <v>2.47086503282294</v>
+        <v>2.72651643687323</v>
       </c>
       <c r="G52" t="n">
-        <v>3.61745992614627</v>
+        <v>3.904</v>
       </c>
       <c r="H52" t="n">
-        <v>168.733017748838</v>
+        <v>181.8716625</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>214.7973657157</v>
+        <v>225.07320613</v>
       </c>
       <c r="K52" t="n">
-        <v>0.273001387525879</v>
+        <v>0.237538619464701</v>
       </c>
     </row>
     <row r="53">
@@ -2204,31 +2204,31 @@
         <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>42.3872372215148</v>
+        <v>42.25</v>
       </c>
       <c r="D53" t="n">
-        <v>1.11506156515128</v>
+        <v>1.13380909090909</v>
       </c>
       <c r="E53" t="n">
-        <v>49.3460971960123</v>
+        <v>50.91</v>
       </c>
       <c r="F53" t="n">
-        <v>2.842016832005</v>
+        <v>2.82657984635832</v>
       </c>
       <c r="G53" t="n">
-        <v>3.75308359955647</v>
+        <v>3.9425</v>
       </c>
       <c r="H53" t="n">
-        <v>207.051576478658</v>
+        <v>199.705155</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>221.232778511669</v>
+        <v>227.30478005</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0684911570063473</v>
+        <v>0.13820186589575</v>
       </c>
     </row>
     <row r="54">
@@ -2239,31 +2239,31 @@
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>51.2366841626465</v>
+        <v>47.13</v>
       </c>
       <c r="D54" t="n">
-        <v>1.20511587838196</v>
+        <v>1.12945</v>
       </c>
       <c r="E54" t="n">
-        <v>55.2201928159632</v>
+        <v>51.48</v>
       </c>
       <c r="F54" t="n">
-        <v>2.75352200605064</v>
+        <v>2.92664325584342</v>
       </c>
       <c r="G54" t="n">
-        <v>4.42846579699032</v>
+        <v>4.28</v>
       </c>
       <c r="H54" t="n">
-        <v>224.752264495298</v>
+        <v>227.51163125</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>248.898789632574</v>
+        <v>239.92840343</v>
       </c>
       <c r="K54" t="n">
-        <v>0.107436181751048</v>
+        <v>0.0545764280787733</v>
       </c>
     </row>
     <row r="55">
@@ -2274,31 +2274,31 @@
         <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>51.1862718372121</v>
+        <v>48.48</v>
       </c>
       <c r="D55" t="n">
-        <v>1.13711387631491</v>
+        <v>1.12375238095238</v>
       </c>
       <c r="E55" t="n">
-        <v>57.1602416382115</v>
+        <v>53.17</v>
       </c>
       <c r="F55" t="n">
-        <v>2.72521868226104</v>
+        <v>3.02670666532852</v>
       </c>
       <c r="G55" t="n">
-        <v>4.87510820174711</v>
+        <v>4.706</v>
       </c>
       <c r="H55" t="n">
-        <v>208.542452220878</v>
+        <v>228.0944125</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>262.28818960813</v>
+        <v>253.47070192</v>
       </c>
       <c r="K55" t="n">
-        <v>0.257720846834233</v>
+        <v>0.111253446070276</v>
       </c>
     </row>
     <row r="56">
@@ -2309,31 +2309,31 @@
         <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>46.424867977235</v>
+        <v>45.07</v>
       </c>
       <c r="D56" t="n">
-        <v>1.19115695076605</v>
+        <v>1.1066</v>
       </c>
       <c r="E56" t="n">
-        <v>66.4375399116627</v>
+        <v>62.29</v>
       </c>
       <c r="F56" t="n">
-        <v>2.66462598305366</v>
+        <v>2.93841155121377</v>
       </c>
       <c r="G56" t="n">
-        <v>4.23821874457318</v>
+        <v>4.665</v>
       </c>
       <c r="H56" t="n">
-        <v>203.279365082228</v>
+        <v>220.50038</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>247.751676991001</v>
+        <v>255.95676777</v>
       </c>
       <c r="K56" t="n">
-        <v>0.218774354646297</v>
+        <v>0.160799667420074</v>
       </c>
     </row>
     <row r="57">
@@ -2344,31 +2344,31 @@
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>44.6048139182953</v>
+        <v>46.14</v>
       </c>
       <c r="D57" t="n">
-        <v>1.09641842582332</v>
+        <v>1.12108181818182</v>
       </c>
       <c r="E57" t="n">
-        <v>60.9065308803709</v>
+        <v>67.3739130434783</v>
       </c>
       <c r="F57" t="n">
-        <v>2.61237176114273</v>
+        <v>2.85011643709902</v>
       </c>
       <c r="G57" t="n">
-        <v>4.54845016826643</v>
+        <v>4.165</v>
       </c>
       <c r="H57" t="n">
-        <v>228.037195738149</v>
+        <v>218.345125</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>251.612750250278</v>
+        <v>246.162507705217</v>
       </c>
       <c r="K57" t="n">
-        <v>0.103384688782088</v>
+        <v>0.127400979093156</v>
       </c>
     </row>
     <row r="58">
@@ -2379,31 +2379,31 @@
         <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>46.0046477265973</v>
+        <v>46.19</v>
       </c>
       <c r="D58" t="n">
-        <v>1.13034598821604</v>
+        <v>1.12092272727273</v>
       </c>
       <c r="E58" t="n">
-        <v>66.5433226484573</v>
+        <v>72.9</v>
       </c>
       <c r="F58" t="n">
-        <v>2.608855834177</v>
+        <v>2.76182132298427</v>
       </c>
       <c r="G58" t="n">
-        <v>4.2053621001821</v>
+        <v>4.11</v>
       </c>
       <c r="H58" t="n">
-        <v>233.045110933384</v>
+        <v>234.95507</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>246.658372023317</v>
+        <v>248.16584749</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0584147036400358</v>
+        <v>0.0562268245158533</v>
       </c>
     </row>
     <row r="59">
@@ -2414,31 +2414,31 @@
         <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>52.0294817635044</v>
+        <v>49.73</v>
       </c>
       <c r="D59" t="n">
-        <v>0.995798048048381</v>
+        <v>1.10388571428571</v>
       </c>
       <c r="E59" t="n">
-        <v>93.81398149624</v>
+        <v>93.17</v>
       </c>
       <c r="F59" t="n">
-        <v>2.6010676470985</v>
+        <v>2.84000203845094</v>
       </c>
       <c r="G59" t="n">
-        <v>5.57974305899325</v>
+        <v>5.2525</v>
       </c>
       <c r="H59" t="n">
-        <v>258.294879486284</v>
+        <v>235.83091875</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>305.109531179331</v>
+        <v>294.33011233</v>
       </c>
       <c r="K59" t="n">
-        <v>0.181244985522576</v>
+        <v>0.248055657375503</v>
       </c>
     </row>
     <row r="60">
@@ -2449,31 +2449,31 @@
         <v>11</v>
       </c>
       <c r="C60" t="n">
-        <v>43.9726989548374</v>
+        <v>46.44</v>
       </c>
       <c r="D60" t="n">
-        <v>1.08171172611141</v>
+        <v>1.08137619047619</v>
       </c>
       <c r="E60" t="n">
-        <v>98.8286167717218</v>
+        <v>100.01</v>
       </c>
       <c r="F60" t="n">
-        <v>2.72110480394643</v>
+        <v>2.9181827539176</v>
       </c>
       <c r="G60" t="n">
-        <v>5.17060054513835</v>
+        <v>5.655</v>
       </c>
       <c r="H60" t="n">
-        <v>283.508077765638</v>
+        <v>268.24530625</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>292.057562234465</v>
+        <v>307.57269464</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0301560524702047</v>
+        <v>0.146609791387543</v>
       </c>
     </row>
     <row r="61">
@@ -2484,31 +2484,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>58.6199245509873</v>
+        <v>54.07</v>
       </c>
       <c r="D61" t="n">
-        <v>1.0961773304037</v>
+        <v>1.05502608695652</v>
       </c>
       <c r="E61" t="n">
-        <v>92.5585444716029</v>
+        <v>86.32</v>
       </c>
       <c r="F61" t="n">
-        <v>2.96289815007277</v>
+        <v>2.99636346938427</v>
       </c>
       <c r="G61" t="n">
-        <v>5.80231812982704</v>
+        <v>5.3625</v>
       </c>
       <c r="H61" t="n">
-        <v>310.379694631009</v>
+        <v>316.81850625</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>314.513467062243</v>
+        <v>295.73664447</v>
       </c>
       <c r="K61" t="n">
-        <v>0.013318437071562</v>
+        <v>0.066542393717886</v>
       </c>
     </row>
     <row r="62">
@@ -2519,31 +2519,31 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>50.7776338823382</v>
+        <v>54.89</v>
       </c>
       <c r="D62" t="n">
-        <v>1.0912906179784</v>
+        <v>1.06598125</v>
       </c>
       <c r="E62" t="n">
-        <v>86.0252461062265</v>
+        <v>83.73</v>
       </c>
       <c r="F62" t="n">
-        <v>2.75248853407125</v>
+        <v>3.01905396279001</v>
       </c>
       <c r="G62" t="n">
-        <v>5.92943654558156</v>
+        <v>6.1125</v>
       </c>
       <c r="H62" t="n">
-        <v>320.779373172467</v>
+        <v>351.2602375</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>308.983654782113</v>
+        <v>315.10785709</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0367720601037886</v>
+        <v>0.102921926681212</v>
       </c>
     </row>
     <row r="63">
@@ -2554,31 +2554,31 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>53.324006136253</v>
+        <v>55.49</v>
       </c>
       <c r="D63" t="n">
-        <v>1.08828196939185</v>
+        <v>1.06586111111111</v>
       </c>
       <c r="E63" t="n">
-        <v>74.4793666116898</v>
+        <v>80.41</v>
       </c>
       <c r="F63" t="n">
-        <v>3.12664137042295</v>
+        <v>3.04174445619575</v>
       </c>
       <c r="G63" t="n">
-        <v>6.76693639129819</v>
+        <v>6.2475</v>
       </c>
       <c r="H63" t="n">
-        <v>379.569851041436</v>
+        <v>412.69965</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>326.191470810296</v>
+        <v>317.08266789</v>
       </c>
       <c r="K63" t="n">
-        <v>0.140628609160303</v>
+        <v>0.231686608190727</v>
       </c>
     </row>
     <row r="64">
@@ -2589,31 +2589,31 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>51.2663501171251</v>
+        <v>51.97</v>
       </c>
       <c r="D64" t="n">
-        <v>1.15525998692029</v>
+        <v>1.06896363636364</v>
       </c>
       <c r="E64" t="n">
-        <v>80.9091786169913</v>
+        <v>80.55</v>
       </c>
       <c r="F64" t="n">
-        <v>3.15773607809287</v>
+        <v>3.06443494960149</v>
       </c>
       <c r="G64" t="n">
-        <v>5.42805432211794</v>
+        <v>5.08</v>
       </c>
       <c r="H64" t="n">
-        <v>428.492133888839</v>
+        <v>401.897885</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>292.375510835502</v>
+        <v>283.08094587</v>
       </c>
       <c r="K64" t="n">
-        <v>0.317664228320815</v>
+        <v>0.295639622811152</v>
       </c>
     </row>
     <row r="65">
@@ -2624,31 +2624,31 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>55.2409463340947</v>
+        <v>52.98</v>
       </c>
       <c r="D65" t="n">
-        <v>1.04378503874453</v>
+        <v>1.0713380952381</v>
       </c>
       <c r="E65" t="n">
-        <v>78.3374950324872</v>
+        <v>84.6421052631579</v>
       </c>
       <c r="F65" t="n">
-        <v>2.83204024283003</v>
+        <v>3.01574387630643</v>
       </c>
       <c r="G65" t="n">
-        <v>4.63993922928674</v>
+        <v>4.99</v>
       </c>
       <c r="H65" t="n">
-        <v>322.965616970571</v>
+        <v>327.4513125</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>271.709999145986</v>
+        <v>283.825698485263</v>
       </c>
       <c r="K65" t="n">
-        <v>0.158703017074588</v>
+        <v>0.133227787916522</v>
       </c>
     </row>
     <row r="66">
@@ -2659,31 +2659,31 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>48.7216141597168</v>
+        <v>50.87</v>
       </c>
       <c r="D66" t="n">
-        <v>1.13393343468749</v>
+        <v>1.10552631578947</v>
       </c>
       <c r="E66" t="n">
-        <v>72.1666495964695</v>
+        <v>74.52</v>
       </c>
       <c r="F66" t="n">
-        <v>2.78596477703719</v>
+        <v>2.96705280301138</v>
       </c>
       <c r="G66" t="n">
-        <v>5.27011971288978</v>
+        <v>5.1925</v>
       </c>
       <c r="H66" t="n">
-        <v>322.85471277409</v>
+        <v>307.4268</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>280.976022960852</v>
+        <v>281.67619047</v>
       </c>
       <c r="K66" t="n">
-        <v>0.129713732388789</v>
+        <v>0.0837617589943362</v>
       </c>
     </row>
     <row r="67">
@@ -2694,31 +2694,31 @@
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>46.838127799626</v>
+        <v>46.89</v>
       </c>
       <c r="D67" t="n">
-        <v>1.21003910679679</v>
+        <v>1.12217619047619</v>
       </c>
       <c r="E67" t="n">
-        <v>82.1718972276918</v>
+        <v>80.9522727272727</v>
       </c>
       <c r="F67" t="n">
-        <v>3.0549115879135</v>
+        <v>2.91836172971633</v>
       </c>
       <c r="G67" t="n">
-        <v>4.92672306221891</v>
+        <v>4.918</v>
       </c>
       <c r="H67" t="n">
-        <v>329.346716824666</v>
+        <v>300.83554</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>276.710769184205</v>
+        <v>275.73800211</v>
       </c>
       <c r="K67" t="n">
-        <v>0.159819257188718</v>
+        <v>0.0834261068024076</v>
       </c>
     </row>
     <row r="68">
@@ -2729,31 +2729,31 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>47.2564372066394</v>
+        <v>48.69</v>
       </c>
       <c r="D68" t="n">
-        <v>1.10686428075839</v>
+        <v>1.1496</v>
       </c>
       <c r="E68" t="n">
-        <v>84.7717190372283</v>
+        <v>87.5309523809524</v>
       </c>
       <c r="F68" t="n">
-        <v>3.26014706728554</v>
+        <v>3.06588456875344</v>
       </c>
       <c r="G68" t="n">
-        <v>5.26312846536154</v>
+        <v>4.9825</v>
       </c>
       <c r="H68" t="n">
-        <v>322.600799656586</v>
+        <v>298.4081</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>287.796171782433</v>
+        <v>282.759774509048</v>
       </c>
       <c r="K68" t="n">
-        <v>0.107887605707124</v>
+        <v>0.0524393456174695</v>
       </c>
     </row>
     <row r="69">
@@ -2764,31 +2764,31 @@
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>47.008254436553</v>
+        <v>51.37</v>
       </c>
       <c r="D69" t="n">
-        <v>1.18587741027581</v>
+        <v>1.18050869565217</v>
       </c>
       <c r="E69" t="n">
-        <v>93.1835466277837</v>
+        <v>95.89</v>
       </c>
       <c r="F69" t="n">
-        <v>2.98745051723486</v>
+        <v>3.21340740779054</v>
       </c>
       <c r="G69" t="n">
-        <v>5.30977865133136</v>
+        <v>5.544</v>
       </c>
       <c r="H69" t="n">
-        <v>308.028606051936</v>
+        <v>305.06503125</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>294.204653227632</v>
+        <v>305.02685703</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0448787955167167</v>
+        <v>0.000125134696178142</v>
       </c>
     </row>
     <row r="70">
@@ -2799,31 +2799,31 @@
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>57.4255633399039</v>
+        <v>55.16</v>
       </c>
       <c r="D70" t="n">
-        <v>1.23690575274889</v>
+        <v>1.19133636363636</v>
       </c>
       <c r="E70" t="n">
-        <v>92.6540540891633</v>
+        <v>96.8690476190476</v>
       </c>
       <c r="F70" t="n">
-        <v>3.22117989792373</v>
+        <v>3.36093024682764</v>
       </c>
       <c r="G70" t="n">
-        <v>5.35801946328604</v>
+        <v>5.935</v>
       </c>
       <c r="H70" t="n">
-        <v>328.992959156169</v>
+        <v>318.439145</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>301.691092413989</v>
+        <v>318.688864540952</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0829861733582574</v>
+        <v>0.000784198629073751</v>
       </c>
     </row>
     <row r="71">
@@ -2834,31 +2834,31 @@
         <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>58.5945432061022</v>
+        <v>57.62</v>
       </c>
       <c r="D71" t="n">
-        <v>1.19516431314448</v>
+        <v>1.17605238095238</v>
       </c>
       <c r="E71" t="n">
-        <v>93.6486126083005</v>
+        <v>97.1409090909091</v>
       </c>
       <c r="F71" t="n">
-        <v>3.5074025980663</v>
+        <v>3.36131575384284</v>
       </c>
       <c r="G71" t="n">
-        <v>5.95346835363307</v>
+        <v>6.175</v>
       </c>
       <c r="H71" t="n">
-        <v>273.271991563444</v>
+        <v>296.457925</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>319.312024467098</v>
+        <v>326.95125082</v>
       </c>
       <c r="K71" t="n">
-        <v>0.168476954554508</v>
+        <v>0.10285886545283</v>
       </c>
     </row>
     <row r="72">
@@ -2869,31 +2869,31 @@
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>60.4819708168539</v>
+        <v>62.57</v>
       </c>
       <c r="D72" t="n">
-        <v>1.18776461182112</v>
+        <v>1.17319047619048</v>
       </c>
       <c r="E72" t="n">
-        <v>104.52002361094</v>
+        <v>96.6272727272727</v>
       </c>
       <c r="F72" t="n">
-        <v>3.42369890587663</v>
+        <v>3.36170126085804</v>
       </c>
       <c r="G72" t="n">
-        <v>6.06955562412739</v>
+        <v>6.56</v>
       </c>
       <c r="H72" t="n">
-        <v>347.746700273023</v>
+        <v>326.98085</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>330.49668101173</v>
+        <v>340.23478367</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0496051270874744</v>
+        <v>0.0405342810442875</v>
       </c>
     </row>
     <row r="73">
@@ -2904,31 +2904,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>64.3689077621843</v>
+        <v>64.21</v>
       </c>
       <c r="D73" t="n">
-        <v>1.29312124870263</v>
+        <v>1.18380909090909</v>
       </c>
       <c r="E73" t="n">
-        <v>100.876382954359</v>
+        <v>102.155</v>
       </c>
       <c r="F73" t="n">
-        <v>3.1860259840624</v>
+        <v>3.36208676787324</v>
       </c>
       <c r="G73" t="n">
-        <v>7.00903347667586</v>
+        <v>7.46333333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>359.01313341012</v>
+        <v>367.56368125</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>356.295527589136</v>
+        <v>369.410512976667</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0075696557258792</v>
+        <v>0.00502452179275692</v>
       </c>
     </row>
     <row r="74">
@@ -2939,31 +2939,31 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>72.5333802026096</v>
+        <v>68.99</v>
       </c>
       <c r="D74" t="n">
-        <v>1.18919136543819</v>
+        <v>1.22171875</v>
       </c>
       <c r="E74" t="n">
-        <v>112.740151621966</v>
+        <v>106.776086956522</v>
       </c>
       <c r="F74" t="n">
-        <v>3.19443602667359</v>
+        <v>3.35272444524883</v>
       </c>
       <c r="G74" t="n">
-        <v>7.24532767633849</v>
+        <v>6.7625</v>
       </c>
       <c r="H74" t="n">
-        <v>426.148754222649</v>
+        <v>431.8401</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>375.305433198639</v>
+        <v>356.154485824783</v>
       </c>
       <c r="K74" t="n">
-        <v>0.119308857576634</v>
+        <v>0.175263052632716</v>
       </c>
     </row>
     <row r="75">
@@ -2974,31 +2974,31 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>63.8556863333629</v>
+        <v>65.42</v>
       </c>
       <c r="D75" t="n">
-        <v>1.31797049288671</v>
+        <v>1.23760526315789</v>
       </c>
       <c r="E75" t="n">
-        <v>99.9372619650443</v>
+        <v>104.705</v>
       </c>
       <c r="F75" t="n">
-        <v>3.6733775011357</v>
+        <v>3.34336212262442</v>
       </c>
       <c r="G75" t="n">
-        <v>7.23967604961013</v>
+        <v>6.5925</v>
       </c>
       <c r="H75" t="n">
-        <v>424.554849501109</v>
+        <v>412.355775</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>361.685257255795</v>
+        <v>347.98026212</v>
       </c>
       <c r="K75" t="n">
-        <v>0.148083556975482</v>
+        <v>0.156116433388134</v>
       </c>
     </row>
     <row r="76">
@@ -3009,31 +3009,31 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>65.373471398293</v>
+        <v>66.45</v>
       </c>
       <c r="D76" t="n">
-        <v>1.15424208784958</v>
+        <v>1.23292857142857</v>
       </c>
       <c r="E76" t="n">
-        <v>93.3764931200235</v>
+        <v>95.85</v>
       </c>
       <c r="F76" t="n">
-        <v>3.47241411996926</v>
+        <v>3.33399980000001</v>
       </c>
       <c r="G76" t="n">
-        <v>7.08662975150943</v>
+        <v>6.784</v>
       </c>
       <c r="H76" t="n">
-        <v>412.674896671851</v>
+        <v>389.85887</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>354.326572135129</v>
+        <v>348.28667811</v>
       </c>
       <c r="K76" t="n">
-        <v>0.1413905352792</v>
+        <v>0.106633951639987</v>
       </c>
     </row>
     <row r="77">
@@ -3044,31 +3044,31 @@
         <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>67.2779141358836</v>
+        <v>71.63</v>
       </c>
       <c r="D77" t="n">
-        <v>1.14578707043536</v>
+        <v>1.2284</v>
       </c>
       <c r="E77" t="n">
-        <v>92.3099650921348</v>
+        <v>94.2075</v>
       </c>
       <c r="F77" t="n">
-        <v>3.20364603381958</v>
+        <v>3.28533936666667</v>
       </c>
       <c r="G77" t="n">
-        <v>6.46477575362858</v>
+        <v>6.8425</v>
       </c>
       <c r="H77" t="n">
-        <v>374.190632104746</v>
+        <v>388.99829375</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>337.857230728644</v>
+        <v>352.08489333</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0970986397273873</v>
+        <v>0.0948934764318616</v>
       </c>
     </row>
     <row r="78">
@@ -3079,31 +3079,31 @@
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>82.2792452439736</v>
+        <v>76.65</v>
       </c>
       <c r="D78" t="n">
-        <v>1.16988294403314</v>
+        <v>1.18135263157895</v>
       </c>
       <c r="E78" t="n">
-        <v>105.247598625089</v>
+        <v>105.445454545455</v>
       </c>
       <c r="F78" t="n">
-        <v>3.44739571359912</v>
+        <v>3.23667893333334</v>
       </c>
       <c r="G78" t="n">
-        <v>6.72908922933843</v>
+        <v>7.414</v>
       </c>
       <c r="H78" t="n">
-        <v>415.701674959321</v>
+        <v>387.2764875</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>362.574707599226</v>
+        <v>377.89570951</v>
       </c>
       <c r="K78" t="n">
-        <v>0.127800705554757</v>
+        <v>0.0242224309834964</v>
       </c>
     </row>
     <row r="79">
@@ -3114,31 +3114,31 @@
         <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>77.1239900071029</v>
+        <v>75.19</v>
       </c>
       <c r="D79" t="n">
-        <v>1.07983374161137</v>
+        <v>1.16736666666667</v>
       </c>
       <c r="E79" t="n">
-        <v>116.998452922585</v>
+        <v>114.75</v>
       </c>
       <c r="F79" t="n">
-        <v>2.94118688518302</v>
+        <v>3.1880185</v>
       </c>
       <c r="G79" t="n">
-        <v>6.87856452923908</v>
+        <v>7.4725</v>
       </c>
       <c r="H79" t="n">
-        <v>476.722019844141</v>
+        <v>433.77583</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>370.828975887639</v>
+        <v>384.43289199</v>
       </c>
       <c r="K79" t="n">
-        <v>0.222127444398568</v>
+        <v>0.113752160903017</v>
       </c>
     </row>
     <row r="80">
@@ -3149,31 +3149,31 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>69.7856498772036</v>
+        <v>74.44</v>
       </c>
       <c r="D80" t="n">
-        <v>1.10292075336079</v>
+        <v>1.16839047619048</v>
       </c>
       <c r="E80" t="n">
-        <v>128.978417284873</v>
+        <v>119.57</v>
       </c>
       <c r="F80" t="n">
-        <v>3.27240218329084</v>
+        <v>3.101458</v>
       </c>
       <c r="G80" t="n">
-        <v>8.25926126809313</v>
+        <v>7.6075</v>
       </c>
       <c r="H80" t="n">
-        <v>424.866984502597</v>
+        <v>408.3903125</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>411.498383665753</v>
+        <v>390.68325934</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0314653793410081</v>
+        <v>0.0433581615871459</v>
       </c>
     </row>
     <row r="81">
@@ -3184,31 +3184,31 @@
         <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>74.0856755586872</v>
+        <v>73.13</v>
       </c>
       <c r="D81" t="n">
-        <v>1.21975711824709</v>
+        <v>1.15482173913043</v>
       </c>
       <c r="E81" t="n">
-        <v>125.928468557118</v>
+        <v>117.34</v>
       </c>
       <c r="F81" t="n">
-        <v>3.21314313303534</v>
+        <v>3.0148975</v>
       </c>
       <c r="G81" t="n">
-        <v>8.16513148011593</v>
+        <v>7.91</v>
       </c>
       <c r="H81" t="n">
-        <v>369.261200638779</v>
+        <v>408.34485</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>409.693025222463</v>
+        <v>396.72700423</v>
       </c>
       <c r="K81" t="n">
-        <v>0.109493833941238</v>
+        <v>0.0284510647556838</v>
       </c>
     </row>
     <row r="82">
@@ -3219,31 +3219,31 @@
         <v>9</v>
       </c>
       <c r="C82" t="n">
-        <v>81.3062870516153</v>
+        <v>78.86</v>
       </c>
       <c r="D82" t="n">
-        <v>1.26566894641208</v>
+        <v>1.16611428571429</v>
       </c>
       <c r="E82" t="n">
-        <v>115.230512838457</v>
+        <v>114.16</v>
       </c>
       <c r="F82" t="n">
-        <v>3.03241388175666</v>
+        <v>2.928337</v>
       </c>
       <c r="G82" t="n">
-        <v>8.56438874974148</v>
+        <v>9.475</v>
       </c>
       <c r="H82" t="n">
-        <v>395.749952632202</v>
+        <v>430.7602375</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>418.379648300367</v>
+        <v>441.05518406</v>
       </c>
       <c r="K82" t="n">
-        <v>0.057181802594418</v>
+        <v>0.023899482040749</v>
       </c>
     </row>
     <row r="83">
@@ -3254,31 +3254,31 @@
         <v>10</v>
       </c>
       <c r="C83" t="n">
-        <v>74.8192236289354</v>
+        <v>80.47</v>
       </c>
       <c r="D83" t="n">
-        <v>1.09625778127134</v>
+        <v>1.14980454545455</v>
       </c>
       <c r="E83" t="n">
-        <v>112.55801784057</v>
+        <v>108.73</v>
       </c>
       <c r="F83" t="n">
-        <v>2.64386123981133</v>
+        <v>2.8434903</v>
       </c>
       <c r="G83" t="n">
-        <v>8.70786034717143</v>
+        <v>9.0525</v>
       </c>
       <c r="H83" t="n">
-        <v>397.595883162489</v>
+        <v>418.818425</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>416.569890765881</v>
+        <v>427.10430207</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0477218412134246</v>
+        <v>0.0197839363681291</v>
       </c>
     </row>
     <row r="84">
@@ -3289,31 +3289,31 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>65.6587031786232</v>
+        <v>65.17</v>
       </c>
       <c r="D84" t="n">
-        <v>1.07598167980487</v>
+        <v>1.13665238095238</v>
       </c>
       <c r="E84" t="n">
-        <v>101.477471195458</v>
+        <v>100.73</v>
       </c>
       <c r="F84" t="n">
-        <v>2.89936744555654</v>
+        <v>2.7586436</v>
       </c>
       <c r="G84" t="n">
-        <v>7.67810724662868</v>
+        <v>8.214</v>
       </c>
       <c r="H84" t="n">
-        <v>407.100295454123</v>
+        <v>382.87915</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>375.755692090265</v>
+        <v>389.61981803</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0769947939460305</v>
+        <v>0.01760521049527</v>
       </c>
     </row>
     <row r="85">
@@ -3324,31 +3324,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="n">
-        <v>61.4123403983396</v>
+        <v>56.46</v>
       </c>
       <c r="D85" t="n">
-        <v>1.18561667196894</v>
+        <v>1.13835909090909</v>
       </c>
       <c r="E85" t="n">
-        <v>99.3940983375195</v>
+        <v>101.37</v>
       </c>
       <c r="F85" t="n">
-        <v>2.79419575944114</v>
+        <v>2.6737969</v>
       </c>
       <c r="G85" t="n">
-        <v>7.2590217075528</v>
+        <v>8.01666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>317.277646887728</v>
+        <v>326.58625</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>360.347288599477</v>
+        <v>379.195615593333</v>
       </c>
       <c r="K85" t="n">
-        <v>0.135747482163435</v>
+        <v>0.161088734119496</v>
       </c>
     </row>
     <row r="86">
@@ -3359,31 +3359,31 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>64.1660495270183</v>
+        <v>59.27</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22097444173925</v>
+        <v>1.14274166666667</v>
       </c>
       <c r="E86" t="n">
-        <v>91.5993996567726</v>
+        <v>98.56</v>
       </c>
       <c r="F86" t="n">
-        <v>2.69646259753338</v>
+        <v>2.65741756666667</v>
       </c>
       <c r="G86" t="n">
-        <v>7.65649928380232</v>
+        <v>7.426</v>
       </c>
       <c r="H86" t="n">
-        <v>329.473230750766</v>
+        <v>314.21551875</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>368.022904360005</v>
+        <v>363.04716881</v>
       </c>
       <c r="K86" t="n">
-        <v>0.11700396272376</v>
+        <v>0.15540814232938</v>
       </c>
     </row>
     <row r="87">
@@ -3394,31 +3394,31 @@
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>67.2781029804055</v>
+        <v>64.13</v>
       </c>
       <c r="D87" t="n">
-        <v>1.13232481962183</v>
+        <v>1.135505</v>
       </c>
       <c r="E87" t="n">
-        <v>90.7459114849195</v>
+        <v>95.42</v>
       </c>
       <c r="F87" t="n">
-        <v>2.77019822325471</v>
+        <v>2.64103823333333</v>
       </c>
       <c r="G87" t="n">
-        <v>5.79934547124908</v>
+        <v>5.9925</v>
       </c>
       <c r="H87" t="n">
-        <v>327.695308857986</v>
+        <v>315.5239</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>318.696215515486</v>
+        <v>324.94677833</v>
       </c>
       <c r="K87" t="n">
-        <v>0.027461770428944</v>
+        <v>0.0298642300313858</v>
       </c>
     </row>
     <row r="88">
@@ -3429,31 +3429,31 @@
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>72.896336543947</v>
+        <v>66.41</v>
       </c>
       <c r="D88" t="n">
-        <v>1.04693488500867</v>
+        <v>1.13176666666667</v>
       </c>
       <c r="E88" t="n">
-        <v>97.7682083355188</v>
+        <v>93.12</v>
       </c>
       <c r="F88" t="n">
-        <v>2.72746438529561</v>
+        <v>2.6246589</v>
       </c>
       <c r="G88" t="n">
-        <v>5.01956995643955</v>
+        <v>5.2675</v>
       </c>
       <c r="H88" t="n">
-        <v>302.393893010965</v>
+        <v>318.64856</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>305.316641366669</v>
+        <v>305.11860441</v>
       </c>
       <c r="K88" t="n">
-        <v>0.00966536832672693</v>
+        <v>0.0424604322392041</v>
       </c>
     </row>
     <row r="89">
@@ -3464,31 +3464,31 @@
         <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>70.6328697813302</v>
+        <v>71.2</v>
       </c>
       <c r="D89" t="n">
-        <v>1.07301728225268</v>
+        <v>1.12415714285714</v>
       </c>
       <c r="E89" t="n">
-        <v>85.3426795423753</v>
+        <v>86.77</v>
       </c>
       <c r="F89" t="n">
-        <v>2.52642407757816</v>
+        <v>2.60485196666667</v>
       </c>
       <c r="G89" t="n">
-        <v>5.24628489649482</v>
+        <v>4.935</v>
       </c>
       <c r="H89" t="n">
-        <v>285.612848212375</v>
+        <v>305.3556625</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>302.284537807084</v>
+        <v>295.0324878</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0583716373372396</v>
+        <v>0.0338070518014382</v>
       </c>
     </row>
     <row r="90">
@@ -3499,31 +3499,31 @@
         <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>75.917902377611</v>
+        <v>70.53</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17790371938399</v>
+        <v>1.11841111111111</v>
       </c>
       <c r="E90" t="n">
-        <v>90.0587376790568</v>
+        <v>82.32</v>
       </c>
       <c r="F90" t="n">
-        <v>2.53216834780135</v>
+        <v>2.58504503333333</v>
       </c>
       <c r="G90" t="n">
-        <v>4.49263863413483</v>
+        <v>4.464</v>
       </c>
       <c r="H90" t="n">
-        <v>320.092753704257</v>
+        <v>295.96278</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>287.96071767581</v>
+        <v>278.94993139</v>
       </c>
       <c r="K90" t="n">
-        <v>0.100383515892192</v>
+        <v>0.0574830680060513</v>
       </c>
     </row>
     <row r="91">
@@ -3534,31 +3534,31 @@
         <v>6</v>
       </c>
       <c r="C91" t="n">
-        <v>60.3081637138221</v>
+        <v>63.3</v>
       </c>
       <c r="D91" t="n">
-        <v>1.20383170085926</v>
+        <v>1.12829</v>
       </c>
       <c r="E91" t="n">
-        <v>72.8499368026904</v>
+        <v>72.49</v>
       </c>
       <c r="F91" t="n">
-        <v>2.58402462911389</v>
+        <v>2.5652381</v>
       </c>
       <c r="G91" t="n">
-        <v>3.6304364211699</v>
+        <v>3.6325</v>
       </c>
       <c r="H91" t="n">
-        <v>287.630922650644</v>
+        <v>279.560475</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>243.845317649496</v>
+        <v>245.542613</v>
       </c>
       <c r="K91" t="n">
-        <v>0.152228434264454</v>
+        <v>0.12168337459006</v>
       </c>
     </row>
     <row r="92">
@@ -3569,31 +3569,31 @@
         <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>62.7046469062567</v>
+        <v>64</v>
       </c>
       <c r="D92" t="n">
-        <v>1.0771419672523</v>
+        <v>1.12252272727273</v>
       </c>
       <c r="E92" t="n">
-        <v>74.7743100126646</v>
+        <v>72.08</v>
       </c>
       <c r="F92" t="n">
-        <v>2.63292189583239</v>
+        <v>2.5109587</v>
       </c>
       <c r="G92" t="n">
-        <v>3.4542306636367</v>
+        <v>3.65</v>
       </c>
       <c r="H92" t="n">
-        <v>263.969421605509</v>
+        <v>246.6103875</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>241.737503102797</v>
+        <v>246.1997508</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0842215676630034</v>
+        <v>0.00166512329088331</v>
       </c>
     </row>
     <row r="93">
@@ -3604,31 +3604,31 @@
         <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>57.450229835452</v>
+        <v>59.25</v>
       </c>
       <c r="D93" t="n">
-        <v>1.18893714519188</v>
+        <v>1.11258695652174</v>
       </c>
       <c r="E93" t="n">
-        <v>65.107541951146</v>
+        <v>65.55</v>
       </c>
       <c r="F93" t="n">
-        <v>2.60660993234001</v>
+        <v>2.4566793</v>
       </c>
       <c r="G93" t="n">
-        <v>3.44290038224794</v>
+        <v>3.634</v>
       </c>
       <c r="H93" t="n">
-        <v>229.028010794479</v>
+        <v>234.160145</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>232.070574507995</v>
+        <v>238.69234491</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0132846794720072</v>
+        <v>0.0193551294136753</v>
       </c>
     </row>
     <row r="94">
@@ -3639,31 +3639,31 @@
         <v>9</v>
       </c>
       <c r="C94" t="n">
-        <v>63.8993306314182</v>
+        <v>62.33</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14889547048461</v>
+        <v>1.10152</v>
       </c>
       <c r="E94" t="n">
-        <v>63.1187734377361</v>
+        <v>65.95</v>
       </c>
       <c r="F94" t="n">
-        <v>2.6392296831611</v>
+        <v>2.4023999</v>
       </c>
       <c r="G94" t="n">
-        <v>3.7912614487682</v>
+        <v>4.1125</v>
       </c>
       <c r="H94" t="n">
-        <v>221.956026653186</v>
+        <v>235.53129375</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>244.361334025165</v>
+        <v>253.93741013</v>
       </c>
       <c r="K94" t="n">
-        <v>0.100944802940574</v>
+        <v>0.0781472223369892</v>
       </c>
     </row>
     <row r="95">
@@ -3674,31 +3674,31 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>65.0371867492888</v>
+        <v>59.37</v>
       </c>
       <c r="D95" t="n">
-        <v>1.16951791453445</v>
+        <v>1.10387826086957</v>
       </c>
       <c r="E95" t="n">
-        <v>70.2338976825587</v>
+        <v>69.2</v>
       </c>
       <c r="F95" t="n">
-        <v>2.43897581676617</v>
+        <v>2.42049303333333</v>
       </c>
       <c r="G95" t="n">
-        <v>4.64308930469677</v>
+        <v>4.912</v>
       </c>
       <c r="H95" t="n">
-        <v>247.499372821374</v>
+        <v>226.25415</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>272.814774044006</v>
+        <v>275.97364495</v>
       </c>
       <c r="K95" t="n">
-        <v>0.102284708579454</v>
+        <v>0.219750643026879</v>
       </c>
     </row>
     <row r="96">
@@ -3709,31 +3709,31 @@
         <v>11</v>
       </c>
       <c r="C96" t="n">
-        <v>59.0449453943912</v>
+        <v>62.74</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08260011858957</v>
+        <v>1.10502</v>
       </c>
       <c r="E96" t="n">
-        <v>62.8190672783735</v>
+        <v>66.99</v>
       </c>
       <c r="F96" t="n">
-        <v>2.24115163331267</v>
+        <v>2.43858616666667</v>
       </c>
       <c r="G96" t="n">
-        <v>5.15105426699901</v>
+        <v>5.11</v>
       </c>
       <c r="H96" t="n">
-        <v>209.202111617016</v>
+        <v>229.890105</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>278.289002321625</v>
+        <v>282.09615294</v>
       </c>
       <c r="K96" t="n">
-        <v>0.33023993003993</v>
+        <v>0.227091322351608</v>
       </c>
     </row>
     <row r="97">
@@ -3744,31 +3744,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>70.3967566039762</v>
+        <v>65.85</v>
       </c>
       <c r="D97" t="n">
-        <v>1.03313739674672</v>
+        <v>1.11061428571429</v>
       </c>
       <c r="E97" t="n">
-        <v>67.7623729150761</v>
+        <v>66.18</v>
       </c>
       <c r="F97" t="n">
-        <v>2.48832867890211</v>
+        <v>2.4566793</v>
       </c>
       <c r="G97" t="n">
-        <v>4.72935742692836</v>
+        <v>4.86</v>
       </c>
       <c r="H97" t="n">
-        <v>208.600731570235</v>
+        <v>224.708083333333</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>276.962351632132</v>
+        <v>276.69853255</v>
       </c>
       <c r="K97" t="n">
-        <v>0.327715150121033</v>
+        <v>0.231368842835725</v>
       </c>
     </row>
     <row r="98">
@@ -3779,31 +3779,31 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>68.6980096399784</v>
+        <v>63.6</v>
       </c>
       <c r="D98" t="n">
-        <v>1.21450731541067</v>
+        <v>1.11056842105263</v>
       </c>
       <c r="E98" t="n">
-        <v>74.4207408072464</v>
+        <v>69.66</v>
       </c>
       <c r="F98" t="n">
-        <v>1.18851241556498</v>
+        <v>1.29954037702048</v>
       </c>
       <c r="G98" t="n">
-        <v>3.92203652253142</v>
+        <v>3.762</v>
       </c>
       <c r="H98" t="n">
-        <v>246.79149297848</v>
+        <v>256.9306</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>258.034881459137</v>
+        <v>247.48803808</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0455582497798555</v>
+        <v>0.0367514103808577</v>
       </c>
     </row>
     <row r="99">
@@ -3814,31 +3814,31 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>49.944587924052</v>
+        <v>55</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09377688471144</v>
+        <v>1.09178947368421</v>
       </c>
       <c r="E99" t="n">
-        <v>66.6676132727936</v>
+        <v>67.64</v>
       </c>
       <c r="F99" t="n">
-        <v>0.153778161372486</v>
+        <v>0.14240145404096</v>
       </c>
       <c r="G99" t="n">
-        <v>2.95095248481794</v>
+        <v>2.9275</v>
       </c>
       <c r="H99" t="n">
-        <v>285.298982275948</v>
+        <v>266.43094375</v>
       </c>
       <c r="I99" t="n">
-        <v>0.153778161372486</v>
+        <v>0.14240145404096</v>
       </c>
       <c r="J99" t="n">
-        <v>214.928472491638</v>
+        <v>218.0543515</v>
       </c>
       <c r="K99" t="n">
-        <v>0.246655313043655</v>
+        <v>0.181572724132949</v>
       </c>
     </row>
     <row r="100">
@@ -3849,31 +3849,31 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>35.8204161269637</v>
+        <v>32.98</v>
       </c>
       <c r="D100" t="n">
-        <v>1.18928785527261</v>
+        <v>1.10631</v>
       </c>
       <c r="E100" t="n">
-        <v>70.2645528646177</v>
+        <v>66.74</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.98093070687356</v>
+        <v>-1.01473746893856</v>
       </c>
       <c r="G100" t="n">
-        <v>2.63467661722004</v>
+        <v>2.82</v>
       </c>
       <c r="H100" t="n">
-        <v>239.221057831732</v>
+        <v>218.870075</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.98093070687356</v>
+        <v>-1.01473746893856</v>
       </c>
       <c r="J100" t="n">
-        <v>199.73524946356</v>
+        <v>200.80893998</v>
       </c>
       <c r="K100" t="n">
-        <v>0.165059918746559</v>
+        <v>0.0825198923151099</v>
       </c>
     </row>
     <row r="101">
@@ -3884,31 +3884,31 @@
         <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>25.5757164418632</v>
+        <v>23.34</v>
       </c>
       <c r="D101" t="n">
-        <v>0.987887656123235</v>
+        <v>1.08867142857143</v>
       </c>
       <c r="E101" t="n">
-        <v>60.447715083214</v>
+        <v>58.55</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.68366897757253</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="G101" t="n">
-        <v>2.37134135396816</v>
+        <v>2.216</v>
       </c>
       <c r="H101" t="n">
-        <v>176.761493615955</v>
+        <v>165.01195</v>
       </c>
       <c r="I101" t="n">
-        <v>-3.68366897757253</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="J101" t="n">
-        <v>179.975392188242</v>
+        <v>173.14335258</v>
       </c>
       <c r="K101" t="n">
-        <v>0.018182119343652</v>
+        <v>0.0492776588604642</v>
       </c>
     </row>
     <row r="102">
@@ -3919,31 +3919,31 @@
         <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>28.6606166342441</v>
+        <v>31.02</v>
       </c>
       <c r="D102" t="n">
-        <v>1.07888230868088</v>
+        <v>1.08883181818182</v>
       </c>
       <c r="E102" t="n">
-        <v>57.3373941212641</v>
+        <v>52.49</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.12064038635344</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="G102" t="n">
-        <v>1.44276073642145</v>
+        <v>1.6025</v>
       </c>
       <c r="H102" t="n">
-        <v>148.819927323294</v>
+        <v>161.55253</v>
       </c>
       <c r="I102" t="n">
-        <v>-7.12064038635344</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="J102" t="n">
-        <v>154.578807335302</v>
+        <v>157.36711272</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0386969683132403</v>
+        <v>0.0259074697251723</v>
       </c>
     </row>
     <row r="103">
@@ -3954,31 +3954,31 @@
         <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>41.3548821754209</v>
+        <v>39.93</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05087643907143</v>
+        <v>1.12609047619048</v>
       </c>
       <c r="E103" t="n">
-        <v>53.2878981742756</v>
+        <v>52.21</v>
       </c>
       <c r="F103" t="n">
-        <v>-8.91924180192224</v>
+        <v>-9.64701857291505</v>
       </c>
       <c r="G103" t="n">
-        <v>1.66435530511464</v>
+        <v>1.6725</v>
       </c>
       <c r="H103" t="n">
-        <v>170.745321845679</v>
+        <v>173.4710625</v>
       </c>
       <c r="I103" t="n">
-        <v>-8.91924180192224</v>
+        <v>-9.64701857291505</v>
       </c>
       <c r="J103" t="n">
-        <v>166.008629040531</v>
+        <v>164.66409573</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0277412742788268</v>
+        <v>0.0507690829990736</v>
       </c>
     </row>
     <row r="104">
@@ -3989,31 +3989,31 @@
         <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>38.5511582200457</v>
+        <v>42.81</v>
       </c>
       <c r="D104" t="n">
-        <v>1.13573674703457</v>
+        <v>1.14287826086957</v>
       </c>
       <c r="E104" t="n">
-        <v>50.4213852595352</v>
+        <v>51.56</v>
       </c>
       <c r="F104" t="n">
-        <v>-6.32022548974088</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="G104" t="n">
-        <v>1.95956169957407</v>
+        <v>1.796</v>
       </c>
       <c r="H104" t="n">
-        <v>181.38980780365</v>
+        <v>191.14311</v>
       </c>
       <c r="I104" t="n">
-        <v>-6.32022548974088</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="J104" t="n">
-        <v>170.520669345729</v>
+        <v>169.42652055</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0599214398511658</v>
+        <v>0.11361429376136</v>
       </c>
     </row>
     <row r="105">
@@ -4024,31 +4024,31 @@
         <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>41.9518028020039</v>
+        <v>44.26</v>
       </c>
       <c r="D105" t="n">
-        <v>1.24063263366411</v>
+        <v>1.18269047619048</v>
       </c>
       <c r="E105" t="n">
-        <v>50.9588300813716</v>
+        <v>50.14</v>
       </c>
       <c r="F105" t="n">
-        <v>-3.6492306852301</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="G105" t="n">
-        <v>2.57713883810118</v>
+        <v>2.64</v>
       </c>
       <c r="H105" t="n">
-        <v>225.575739357192</v>
+        <v>223.1313625</v>
       </c>
       <c r="I105" t="n">
-        <v>-3.6492306852301</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="J105" t="n">
-        <v>189.851475754256</v>
+        <v>192.49439286</v>
       </c>
       <c r="K105" t="n">
-        <v>0.158369263045473</v>
+        <v>0.13730463210881</v>
       </c>
     </row>
     <row r="106">
@@ -4059,31 +4059,31 @@
         <v>9</v>
       </c>
       <c r="C106" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D106" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E106" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F106" t="n">
         <v>-3</v>
       </c>
       <c r="G106" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>238.1854048711</v>
+        <v>241.47715</v>
       </c>
       <c r="I106" t="n">
         <v>-3</v>
       </c>
       <c r="J106" t="n">
-        <v>211.862085990192</v>
+        <v>223.460252056667</v>
       </c>
       <c r="K106" t="n">
-        <v>0.110516086807056</v>
+        <v>0.0746111917559629</v>
       </c>
     </row>
     <row r="107">
@@ -4094,26 +4094,26 @@
         <v>10</v>
       </c>
       <c r="C107" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D107" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E107" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F107" t="n">
         <v>-2</v>
       </c>
       <c r="G107" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H107"/>
       <c r="I107" t="n">
         <v>-2</v>
       </c>
       <c r="J107" t="n">
-        <v>211.862085990192</v>
+        <v>223.460252056667</v>
       </c>
       <c r="K107"/>
     </row>
@@ -4125,26 +4125,26 @@
         <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D108" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E108" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F108" t="n">
         <v>-2</v>
       </c>
       <c r="G108" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H108"/>
       <c r="I108" t="n">
         <v>-2</v>
       </c>
       <c r="J108" t="n">
-        <v>211.862085990192</v>
+        <v>223.460252056667</v>
       </c>
       <c r="K108"/>
     </row>
@@ -4156,26 +4156,26 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D109" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E109" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F109" t="n">
         <v>-2</v>
       </c>
       <c r="G109" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H109"/>
       <c r="I109" t="n">
         <v>-2</v>
       </c>
       <c r="J109" t="n">
-        <v>211.862085990192</v>
+        <v>223.460252056667</v>
       </c>
       <c r="K109"/>
     </row>

--- a/1.Data/tempdata2.xlsx
+++ b/1.Data/tempdata2.xlsx
@@ -419,31 +419,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>111.15619047619</v>
+        <v>111.370873235031</v>
       </c>
       <c r="D2" t="n">
-        <v>1.28945340920919</v>
+        <v>1.37644289076506</v>
       </c>
       <c r="E2" t="n">
-        <v>116.46</v>
+        <v>123.069767808923</v>
       </c>
       <c r="F2" t="n">
-        <v>1.94361731025613</v>
+        <v>2.05403644639639</v>
       </c>
       <c r="G2" t="n">
-        <v>8.2425</v>
+        <v>8.21656081887824</v>
       </c>
       <c r="H2" t="n">
-        <v>359.6271375</v>
+        <v>376.745437902663</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>428.989241494285</v>
+        <v>432.57059813702</v>
       </c>
       <c r="K2" t="n">
-        <v>0.192872274535415</v>
+        <v>0.148177402081191</v>
       </c>
     </row>
     <row r="3">
@@ -454,31 +454,31 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>119.702380952381</v>
+        <v>125.668559254674</v>
       </c>
       <c r="D3" t="n">
-        <v>1.32124992060122</v>
+        <v>1.28186950310027</v>
       </c>
       <c r="E3" t="n">
-        <v>117.02</v>
+        <v>122.864472490235</v>
       </c>
       <c r="F3" t="n">
-        <v>1.88481087516663</v>
+        <v>1.96257446540429</v>
       </c>
       <c r="G3" t="n">
-        <v>9.1</v>
+        <v>8.83052816250362</v>
       </c>
       <c r="H3" t="n">
-        <v>376.22136875</v>
+        <v>376.827087698649</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>458.099651878571</v>
+        <v>458.136753049824</v>
       </c>
       <c r="K3" t="n">
-        <v>0.217633260440822</v>
+        <v>0.21577447058742</v>
       </c>
     </row>
     <row r="4">
@@ -489,31 +489,31 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>124.928636363636</v>
+        <v>118.398860087051</v>
       </c>
       <c r="D4" t="n">
-        <v>1.32179594236881</v>
+        <v>1.22039718368561</v>
       </c>
       <c r="E4" t="n">
-        <v>107.46</v>
+        <v>106.008016270199</v>
       </c>
       <c r="F4" t="n">
-        <v>1.82600444007713</v>
+        <v>1.89709927354809</v>
       </c>
       <c r="G4" t="n">
-        <v>9.48</v>
+        <v>9.46182370198891</v>
       </c>
       <c r="H4" t="n">
-        <v>386.14925</v>
+        <v>378.901320691738</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>465.731020969545</v>
+        <v>460.246240182759</v>
       </c>
       <c r="K4" t="n">
-        <v>0.206090704486789</v>
+        <v>0.214686291783081</v>
       </c>
     </row>
     <row r="5">
@@ -524,31 +524,31 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>120.4635</v>
+        <v>121.322217430153</v>
       </c>
       <c r="D5" t="n">
-        <v>1.31618096674676</v>
+        <v>1.23622503909414</v>
       </c>
       <c r="E5" t="n">
-        <v>103.59</v>
+        <v>97.0997106329282</v>
       </c>
       <c r="F5" t="n">
-        <v>1.74378085286223</v>
+        <v>1.81673791471238</v>
       </c>
       <c r="G5" t="n">
-        <v>9.4775</v>
+        <v>10.3952170906577</v>
       </c>
       <c r="H5" t="n">
-        <v>403.1772375</v>
+        <v>405.961700639677</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>460.4426859485</v>
+        <v>481.967284617708</v>
       </c>
       <c r="K5" t="n">
-        <v>0.14203542046071</v>
+        <v>0.187223533299493</v>
       </c>
     </row>
     <row r="6">
@@ -559,31 +559,31 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>110.521739130435</v>
+        <v>119.544369436967</v>
       </c>
       <c r="D6" t="n">
-        <v>1.28042617397904</v>
+        <v>1.39543544893587</v>
       </c>
       <c r="E6" t="n">
-        <v>95.83</v>
+        <v>93.9650173833598</v>
       </c>
       <c r="F6" t="n">
-        <v>1.66155726564733</v>
+        <v>1.63110889144954</v>
       </c>
       <c r="G6" t="n">
-        <v>9.246</v>
+        <v>8.80687358103544</v>
       </c>
       <c r="H6" t="n">
-        <v>403.75115625</v>
+        <v>440.62942093395</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>443.034804970435</v>
+        <v>435.497579546441</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0972966841390561</v>
+        <v>0.0116466153726908</v>
       </c>
     </row>
     <row r="7">
@@ -594,31 +594,31 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>95.5890476190476</v>
+        <v>103.111743829611</v>
       </c>
       <c r="D7" t="n">
-        <v>1.25212240064324</v>
+        <v>1.33095483463274</v>
       </c>
       <c r="E7" t="n">
-        <v>87.19</v>
+        <v>88.9056631866414</v>
       </c>
       <c r="F7" t="n">
-        <v>1.57933367843243</v>
+        <v>1.55123636041482</v>
       </c>
       <c r="G7" t="n">
-        <v>8.6375</v>
+        <v>7.8713428494829</v>
       </c>
       <c r="H7" t="n">
-        <v>372.22662</v>
+        <v>348.696962356721</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>411.660120998571</v>
+        <v>396.504560080083</v>
       </c>
       <c r="K7" t="n">
-        <v>0.105939497284131</v>
+        <v>0.137103568096055</v>
       </c>
     </row>
     <row r="8">
@@ -629,31 +629,31 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>103.140909090909</v>
+        <v>94.7483903348989</v>
       </c>
       <c r="D8" t="n">
-        <v>1.23035702971676</v>
+        <v>1.20178220605928</v>
       </c>
       <c r="E8" t="n">
-        <v>88.24</v>
+        <v>80.7015787023269</v>
       </c>
       <c r="F8" t="n">
-        <v>1.55752684787293</v>
+        <v>1.54848087970002</v>
       </c>
       <c r="G8" t="n">
-        <v>8.73</v>
+        <v>8.70999835627712</v>
       </c>
       <c r="H8" t="n">
-        <v>351.068475</v>
+        <v>369.252506658475</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>419.560363513636</v>
+        <v>409.036252763207</v>
       </c>
       <c r="K8" t="n">
-        <v>0.195095525206689</v>
+        <v>0.107741302732789</v>
       </c>
     </row>
     <row r="9">
@@ -664,31 +664,31 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>113.34</v>
+        <v>104.571437823052</v>
       </c>
       <c r="D9" t="n">
-        <v>1.23815485795614</v>
+        <v>1.21741554436037</v>
       </c>
       <c r="E9" t="n">
-        <v>91</v>
+        <v>89.9695677244104</v>
       </c>
       <c r="F9" t="n">
-        <v>1.53572001731344</v>
+        <v>1.40975611684775</v>
       </c>
       <c r="G9" t="n">
-        <v>8.85</v>
+        <v>8.33443062588572</v>
       </c>
       <c r="H9" t="n">
-        <v>357.85056</v>
+        <v>345.666957670224</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>430.93917474</v>
+        <v>410.734791704254</v>
       </c>
       <c r="K9" t="n">
-        <v>0.204243399088156</v>
+        <v>0.188238512794463</v>
       </c>
     </row>
     <row r="10">
@@ -699,31 +699,31 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>113.3825</v>
+        <v>116.348233962812</v>
       </c>
       <c r="D10" t="n">
-        <v>1.28417168834087</v>
+        <v>1.23725110578774</v>
       </c>
       <c r="E10" t="n">
-        <v>88.96</v>
+        <v>89.3274700337052</v>
       </c>
       <c r="F10" t="n">
-        <v>1.51391318675394</v>
+        <v>1.53938665220507</v>
       </c>
       <c r="G10" t="n">
-        <v>9.58</v>
+        <v>8.94076798828412</v>
       </c>
       <c r="H10" t="n">
-        <v>382.12528125</v>
+        <v>371.521726563412</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>449.6246142575</v>
+        <v>434.244557625432</v>
       </c>
       <c r="K10" t="n">
-        <v>0.176641892906687</v>
+        <v>0.16882681839958</v>
       </c>
     </row>
     <row r="11">
@@ -734,31 +734,31 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>111.97347826087</v>
+        <v>111.015691746014</v>
       </c>
       <c r="D11" t="n">
-        <v>1.29644086060586</v>
+        <v>1.26709233384617</v>
       </c>
       <c r="E11" t="n">
-        <v>81.85</v>
+        <v>87.6665758427815</v>
       </c>
       <c r="F11" t="n">
-        <v>1.38704508985128</v>
+        <v>1.51182125115636</v>
       </c>
       <c r="G11" t="n">
-        <v>10.1125</v>
+        <v>9.44357603481039</v>
       </c>
       <c r="H11" t="n">
-        <v>410.8926625</v>
+        <v>389.724295284869</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>458.82117499087</v>
+        <v>443.607483619368</v>
       </c>
       <c r="K11" t="n">
-        <v>0.116644848801285</v>
+        <v>0.13825976205849</v>
       </c>
     </row>
     <row r="12">
@@ -769,31 +769,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>109.711818181818</v>
+        <v>106.041745612469</v>
       </c>
       <c r="D12" t="n">
-        <v>1.28342852071292</v>
+        <v>1.35479657928551</v>
       </c>
       <c r="E12" t="n">
-        <v>85.89</v>
+        <v>89.978491292357</v>
       </c>
       <c r="F12" t="n">
-        <v>1.26017699294861</v>
+        <v>1.17914113190113</v>
       </c>
       <c r="G12" t="n">
-        <v>10.29</v>
+        <v>9.6599282190674</v>
       </c>
       <c r="H12" t="n">
-        <v>427.02757</v>
+        <v>454.856786950607</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>464.798648557273</v>
+        <v>447.866973623963</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0884511474452869</v>
+        <v>0.0153670639356719</v>
       </c>
     </row>
     <row r="13">
@@ -804,31 +804,31 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>109.6765</v>
+        <v>113.694805145724</v>
       </c>
       <c r="D13" t="n">
-        <v>1.3110953849636</v>
+        <v>1.34237385324434</v>
       </c>
       <c r="E13" t="n">
-        <v>92.88</v>
+        <v>91.449509160284</v>
       </c>
       <c r="F13" t="n">
-        <v>1.13330889604595</v>
+        <v>1.0225951976864</v>
       </c>
       <c r="G13" t="n">
-        <v>10.5625</v>
+        <v>10.2143610463623</v>
       </c>
       <c r="H13" t="n">
-        <v>431.716616666667</v>
+        <v>406.157130153769</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>476.6155863915</v>
+        <v>468.713824064053</v>
       </c>
       <c r="K13" t="n">
-        <v>0.10400102287353</v>
+        <v>0.154020917684248</v>
       </c>
     </row>
     <row r="14">
@@ -839,31 +839,31 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>112.973636363636</v>
+        <v>116.220838361996</v>
       </c>
       <c r="D14" t="n">
-        <v>1.33242974109691</v>
+        <v>1.37215041853538</v>
       </c>
       <c r="E14" t="n">
-        <v>92.77</v>
+        <v>96.3418589343033</v>
       </c>
       <c r="F14" t="n">
-        <v>1.14321460248121</v>
+        <v>1.21117368309197</v>
       </c>
       <c r="G14" t="n">
-        <v>10.36</v>
+        <v>9.41894401018321</v>
       </c>
       <c r="H14" t="n">
-        <v>423.9896875</v>
+        <v>419.094909761481</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>473.072460764545</v>
+        <v>451.637864947213</v>
       </c>
       <c r="K14" t="n">
-        <v>0.115764073305545</v>
+        <v>0.0776505617886258</v>
       </c>
     </row>
     <row r="15">
@@ -874,31 +874,31 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>116.5195</v>
+        <v>124.281899567633</v>
       </c>
       <c r="D15" t="n">
-        <v>1.33865507742874</v>
+        <v>1.25092995770731</v>
       </c>
       <c r="E15" t="n">
-        <v>94.94</v>
+        <v>104.075591012143</v>
       </c>
       <c r="F15" t="n">
-        <v>1.15312030891647</v>
+        <v>1.19156442260057</v>
       </c>
       <c r="G15" t="n">
-        <v>10.08</v>
+        <v>10.2085712968558</v>
       </c>
       <c r="H15" t="n">
-        <v>446.5117625</v>
+        <v>434.135552723485</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>469.0010552645</v>
+        <v>483.101961399171</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0503666300716994</v>
+        <v>0.112790598163414</v>
       </c>
     </row>
     <row r="16">
@@ -909,31 +909,31 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>109.24</v>
+        <v>118.529676671486</v>
       </c>
       <c r="D16" t="n">
-        <v>1.2965747351266</v>
+        <v>1.17969748882147</v>
       </c>
       <c r="E16" t="n">
-        <v>90.98</v>
+        <v>86.7127679638471</v>
       </c>
       <c r="F16" t="n">
-        <v>1.16302601535173</v>
+        <v>1.0741066274455</v>
       </c>
       <c r="G16" t="n">
-        <v>10.1725</v>
+        <v>9.45417537085991</v>
       </c>
       <c r="H16" t="n">
-        <v>441.01218</v>
+        <v>402.048937614277</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>464.49479434</v>
+        <v>447.986872629935</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0532470879602465</v>
+        <v>0.114259560759568</v>
       </c>
     </row>
     <row r="17">
@@ -944,31 +944,31 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>102.875454545455</v>
+        <v>107.037615480886</v>
       </c>
       <c r="D17" t="n">
-        <v>1.30080003462069</v>
+        <v>1.33014506310706</v>
       </c>
       <c r="E17" t="n">
-        <v>87.76</v>
+        <v>92.0904179349989</v>
       </c>
       <c r="F17" t="n">
-        <v>1.26114546310179</v>
+        <v>1.28417040849347</v>
       </c>
       <c r="G17" t="n">
-        <v>10.345</v>
+        <v>9.74977300747111</v>
       </c>
       <c r="H17" t="n">
-        <v>458.29545</v>
+        <v>499.18809497616</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>463.210228211819</v>
+        <v>452.270713606811</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0107240388527063</v>
+        <v>0.093987380391332</v>
       </c>
     </row>
     <row r="18">
@@ -979,31 +979,31 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>103.026956521739</v>
+        <v>93.3559608814247</v>
       </c>
       <c r="D18" t="n">
-        <v>1.29599812388292</v>
+        <v>1.27507403429307</v>
       </c>
       <c r="E18" t="n">
-        <v>87.71</v>
+        <v>115</v>
       </c>
       <c r="F18" t="n">
-        <v>1.35926491085185</v>
+        <v>1.43796124716444</v>
       </c>
       <c r="G18" t="n">
-        <v>10.036</v>
+        <v>10.9912576424653</v>
       </c>
       <c r="H18" t="n">
-        <v>454.97385</v>
+        <v>478.667950910275</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>454.832317101739</v>
+        <v>492.050405022726</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000311079193366814</v>
+        <v>0.027957698206035</v>
       </c>
     </row>
     <row r="19">
@@ -1014,31 +1014,31 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>103.11</v>
+        <v>95.2042173520261</v>
       </c>
       <c r="D19" t="n">
-        <v>1.3193602052329</v>
+        <v>1.32262921569386</v>
       </c>
       <c r="E19" t="n">
-        <v>82.7543194620071</v>
+        <v>90.1478279335203</v>
       </c>
       <c r="F19" t="n">
-        <v>1.45738435860191</v>
+        <v>1.58578929028086</v>
       </c>
       <c r="G19" t="n">
-        <v>10.07</v>
+        <v>9.97632119217562</v>
       </c>
       <c r="H19" t="n">
-        <v>452.44875</v>
+        <v>430.061626976912</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>452.696997914932</v>
+        <v>449.852607911018</v>
       </c>
       <c r="K19" t="n">
-        <v>0.000548676319542585</v>
+        <v>0.0460189416880215</v>
       </c>
     </row>
     <row r="20">
@@ -1049,31 +1049,31 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>107.716086956522</v>
+        <v>100.707484305537</v>
       </c>
       <c r="D20" t="n">
-        <v>1.30772257149181</v>
+        <v>1.30402678192316</v>
       </c>
       <c r="E20" t="n">
-        <v>77.2592108288309</v>
+        <v>75.7372286908652</v>
       </c>
       <c r="F20" t="n">
-        <v>1.59183744744634</v>
+        <v>1.66511578795511</v>
       </c>
       <c r="G20" t="n">
-        <v>9.985</v>
+        <v>10.0718301793165</v>
       </c>
       <c r="H20" t="n">
-        <v>478.17549375</v>
+        <v>440.488109604262</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>449.794637547258</v>
+        <v>446.835490896713</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0593523854185227</v>
+        <v>0.014409881116096</v>
       </c>
     </row>
     <row r="21">
@@ -1084,31 +1084,31 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>110.964545454545</v>
+        <v>117.087931608069</v>
       </c>
       <c r="D21" t="n">
-        <v>1.33140411733142</v>
+        <v>1.41627839527551</v>
       </c>
       <c r="E21" t="n">
-        <v>76.96</v>
+        <v>80.2846986846775</v>
       </c>
       <c r="F21" t="n">
-        <v>1.72629053629078</v>
+        <v>1.69373796781152</v>
       </c>
       <c r="G21" t="n">
-        <v>10.044</v>
+        <v>9.98871042247955</v>
       </c>
       <c r="H21" t="n">
-        <v>485.5538</v>
+        <v>462.52391548571</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>453.245621588182</v>
+        <v>457.647373130197</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0665388231166525</v>
+        <v>0.0105433301765431</v>
       </c>
     </row>
     <row r="22">
@@ -1119,31 +1119,31 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>111.621428571429</v>
+        <v>107.131214829431</v>
       </c>
       <c r="D22" t="n">
-        <v>1.33403484674122</v>
+        <v>1.40801094987813</v>
       </c>
       <c r="E22" t="n">
-        <v>77.6125</v>
+        <v>71.7031714751414</v>
       </c>
       <c r="F22" t="n">
-        <v>1.86074362513521</v>
+        <v>1.68870169603023</v>
       </c>
       <c r="G22" t="n">
-        <v>10.3275</v>
+        <v>10.6841016711979</v>
       </c>
       <c r="H22" t="n">
-        <v>495.4801875</v>
+        <v>464.644431392019</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>461.810293007143</v>
+        <v>465.033725251635</v>
       </c>
       <c r="K22" t="n">
-        <v>0.067954068280191</v>
+        <v>0.000837831755456042</v>
       </c>
     </row>
     <row r="23">
@@ -1154,31 +1154,31 @@
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>109.478695652174</v>
+        <v>106.684920360375</v>
       </c>
       <c r="D23" t="n">
-        <v>1.36296071657827</v>
+        <v>1.32563792126991</v>
       </c>
       <c r="E23" t="n">
-        <v>79.4125</v>
+        <v>115</v>
       </c>
       <c r="F23" t="n">
-        <v>2.08044982554345</v>
+        <v>2.22606210740248</v>
       </c>
       <c r="G23" t="n">
-        <v>10.738</v>
+        <v>10.6523223561835</v>
       </c>
       <c r="H23" t="n">
-        <v>518.0301125</v>
+        <v>557.538147367645</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>472.818484842174</v>
+        <v>491.110378692264</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0872760609217017</v>
+        <v>0.119144795722073</v>
       </c>
     </row>
     <row r="24">
@@ -1189,31 +1189,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>108.07619047619</v>
+        <v>111.30587207353</v>
       </c>
       <c r="D24" t="n">
-        <v>1.35066091003443</v>
+        <v>1.41936134759957</v>
       </c>
       <c r="E24" t="n">
-        <v>82.25</v>
+        <v>250</v>
       </c>
       <c r="F24" t="n">
-        <v>2.30015602595169</v>
+        <v>2.20988844000371</v>
       </c>
       <c r="G24" t="n">
-        <v>10.91</v>
+        <v>11.6510116429203</v>
       </c>
       <c r="H24" t="n">
-        <v>530.197715</v>
+        <v>520.901897414127</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>478.425837714285</v>
+        <v>606.158400418131</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0976463606330604</v>
+        <v>0.163670939628434</v>
       </c>
     </row>
     <row r="25">
@@ -1224,31 +1224,31 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>110.674</v>
+        <v>112.576742696324</v>
       </c>
       <c r="D25" t="n">
-        <v>1.36951377232217</v>
+        <v>1.24979793757064</v>
       </c>
       <c r="E25" t="n">
-        <v>84.3375</v>
+        <v>250</v>
       </c>
       <c r="F25" t="n">
-        <v>2.51986222635993</v>
+        <v>2.53835282094663</v>
       </c>
       <c r="G25" t="n">
-        <v>11.2866666666667</v>
+        <v>11.9027976013012</v>
       </c>
       <c r="H25" t="n">
-        <v>537.705316666667</v>
+        <v>492.982649492692</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>491.649189447334</v>
+        <v>613.829662207115</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0856530999262626</v>
+        <v>0.245134413632572</v>
       </c>
     </row>
     <row r="26">
@@ -1259,31 +1259,31 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>107.42</v>
+        <v>114.184355004434</v>
       </c>
       <c r="D26" t="n">
-        <v>1.36332324021673</v>
+        <v>1.33852335158658</v>
       </c>
       <c r="E26" t="n">
-        <v>81.61</v>
+        <v>250</v>
       </c>
       <c r="F26" t="n">
-        <v>2.59157382160382</v>
+        <v>2.82369372427273</v>
       </c>
       <c r="G26" t="n">
-        <v>10.714</v>
+        <v>11.6036174321903</v>
       </c>
       <c r="H26" t="n">
-        <v>532.24483</v>
+        <v>580.764021240732</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>472.25971658</v>
+        <v>606.660214249498</v>
       </c>
       <c r="K26" t="n">
-        <v>0.11270210632201</v>
+        <v>0.0445898713791575</v>
       </c>
     </row>
     <row r="27">
@@ -1294,31 +1294,31 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>108.81</v>
+        <v>111.47765318131</v>
       </c>
       <c r="D27" t="n">
-        <v>1.36301698520082</v>
+        <v>1.26173581544375</v>
       </c>
       <c r="E27" t="n">
-        <v>76.29</v>
+        <v>250</v>
       </c>
       <c r="F27" t="n">
-        <v>2.66328541684771</v>
+        <v>2.5514104617153</v>
       </c>
       <c r="G27" t="n">
-        <v>9.6975</v>
+        <v>8.78179310372332</v>
       </c>
       <c r="H27" t="n">
-        <v>541.933384375</v>
+        <v>580.713306057532</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>442.01425321</v>
+        <v>527.886479449395</v>
       </c>
       <c r="K27" t="n">
-        <v>0.184375301551563</v>
+        <v>0.0909688585694348</v>
       </c>
     </row>
     <row r="28">
@@ -1329,31 +1329,31 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>107.4</v>
+        <v>110.541252662363</v>
       </c>
       <c r="D28" t="n">
-        <v>1.38211007087117</v>
+        <v>1.32086989692509</v>
       </c>
       <c r="E28" t="n">
-        <v>73.34</v>
+        <v>250</v>
       </c>
       <c r="F28" t="n">
-        <v>2.73499701209159</v>
+        <v>2.94190680009661</v>
       </c>
       <c r="G28" t="n">
-        <v>9.4575</v>
+        <v>8.61076802340976</v>
       </c>
       <c r="H28" t="n">
-        <v>524.04735625</v>
+        <v>542.213225305451</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>432.7232771</v>
+        <v>522.63012842017</v>
       </c>
       <c r="K28" t="n">
-        <v>0.174266844514779</v>
+        <v>0.036116966483525</v>
       </c>
     </row>
     <row r="29">
@@ -1364,31 +1364,31 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>107.79</v>
+        <v>101.226118124344</v>
       </c>
       <c r="D29" t="n">
-        <v>1.380527404527</v>
+        <v>1.33310148185806</v>
       </c>
       <c r="E29" t="n">
-        <v>72.82</v>
+        <v>250</v>
       </c>
       <c r="F29" t="n">
-        <v>2.78222737076019</v>
+        <v>2.59100045713935</v>
       </c>
       <c r="G29" t="n">
-        <v>8.5025</v>
+        <v>9.04957533496211</v>
       </c>
       <c r="H29" t="n">
-        <v>469.051525</v>
+        <v>449.012086248905</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>406.55176099</v>
+        <v>528.803455131943</v>
       </c>
       <c r="K29" t="n">
-        <v>0.133247118235038</v>
+        <v>0.177704278630055</v>
       </c>
     </row>
     <row r="30">
@@ -1399,31 +1399,31 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>109.68</v>
+        <v>120.195686869361</v>
       </c>
       <c r="D30" t="n">
-        <v>1.37171596763391</v>
+        <v>1.32915260317857</v>
       </c>
       <c r="E30" t="n">
-        <v>73.69</v>
+        <v>67.6778091547936</v>
       </c>
       <c r="F30" t="n">
-        <v>2.82945772942879</v>
+        <v>2.6769915984286</v>
       </c>
       <c r="G30" t="n">
-        <v>7.914</v>
+        <v>7.98490409018341</v>
       </c>
       <c r="H30" t="n">
-        <v>402.2864</v>
+        <v>398.094709841987</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>392.20215624</v>
+        <v>396.921791020414</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0250673245727422</v>
+        <v>0.0029463310930179</v>
       </c>
     </row>
     <row r="31">
@@ -1434,31 +1434,31 @@
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>111.87</v>
+        <v>106.130183344508</v>
       </c>
       <c r="D31" t="n">
-        <v>1.3603501180353</v>
+        <v>1.30845874203917</v>
       </c>
       <c r="E31" t="n">
-        <v>71.48</v>
+        <v>69.5623162000198</v>
       </c>
       <c r="F31" t="n">
-        <v>2.87668808809739</v>
+        <v>2.89467348003955</v>
       </c>
       <c r="G31" t="n">
-        <v>7.0625</v>
+        <v>7.40745188685541</v>
       </c>
       <c r="H31" t="n">
-        <v>371.900175</v>
+        <v>335.173310126367</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>368.91876987</v>
+        <v>373.553857772931</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00801668116988652</v>
+        <v>0.114509558150956</v>
       </c>
     </row>
     <row r="32">
@@ -1469,31 +1469,31 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>106.98</v>
+        <v>107.968795742235</v>
       </c>
       <c r="D32" t="n">
-        <v>1.35586095956524</v>
+        <v>1.40446453981644</v>
       </c>
       <c r="E32" t="n">
-        <v>68.75</v>
+        <v>66.0739673298667</v>
       </c>
       <c r="F32" t="n">
-        <v>2.93572125913781</v>
+        <v>2.80483450006397</v>
       </c>
       <c r="G32" t="n">
-        <v>6.594</v>
+        <v>6.38824295206564</v>
       </c>
       <c r="H32" t="n">
-        <v>365.4538375</v>
+        <v>367.219216555255</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.35222534</v>
+        <v>344.666046677695</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0385865756848155</v>
+        <v>0.061416093877448</v>
       </c>
     </row>
     <row r="33">
@@ -1504,31 +1504,31 @@
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>101.92</v>
+        <v>96.2223967651725</v>
       </c>
       <c r="D33" t="n">
-        <v>1.33248659575698</v>
+        <v>1.25320596347076</v>
       </c>
       <c r="E33" t="n">
-        <v>68.94</v>
+        <v>70.8030936834086</v>
       </c>
       <c r="F33" t="n">
-        <v>2.99475443017823</v>
+        <v>2.83817070467087</v>
       </c>
       <c r="G33" t="n">
-        <v>7.0125</v>
+        <v>7.48802334453037</v>
       </c>
       <c r="H33" t="n">
-        <v>375.93203</v>
+        <v>347.788392437664</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>359.74595302</v>
+        <v>370.351440280027</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0430558603373061</v>
+        <v>0.0648757932495045</v>
       </c>
     </row>
     <row r="34">
@@ -1539,31 +1539,31 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>97.34</v>
+        <v>90.2452426451016</v>
       </c>
       <c r="D34" t="n">
-        <v>1.29240465259052</v>
+        <v>1.27229757145856</v>
       </c>
       <c r="E34" t="n">
-        <v>65.94</v>
+        <v>72.3445792614687</v>
       </c>
       <c r="F34" t="n">
-        <v>3.05378760121864</v>
+        <v>3.2800294799695</v>
       </c>
       <c r="G34" t="n">
-        <v>8.205</v>
+        <v>8.6509841539585</v>
       </c>
       <c r="H34" t="n">
-        <v>406.48823125</v>
+        <v>396.492279550554</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>387.57705334</v>
+        <v>399.359136658799</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0465233097938552</v>
+        <v>0.00723054963767544</v>
       </c>
     </row>
     <row r="35">
@@ -1574,31 +1574,31 @@
         <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>87.27</v>
+        <v>93.5124215825088</v>
       </c>
       <c r="D35" t="n">
-        <v>1.26853045960041</v>
+        <v>1.14561351694903</v>
       </c>
       <c r="E35" t="n">
-        <v>63.71</v>
+        <v>63.6024343082551</v>
       </c>
       <c r="F35" t="n">
-        <v>3.06789932798895</v>
+        <v>2.87344186272498</v>
       </c>
       <c r="G35" t="n">
-        <v>8.5</v>
+        <v>8.70218992535956</v>
       </c>
       <c r="H35" t="n">
-        <v>411.50738</v>
+        <v>373.047890557975</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>387.94870657</v>
+        <v>397.300308258569</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0572496984865739</v>
+        <v>0.065011539575573</v>
       </c>
     </row>
     <row r="36">
@@ -1609,31 +1609,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>78.44</v>
+        <v>76.0557472702004</v>
       </c>
       <c r="D36" t="n">
-        <v>1.24813654669757</v>
+        <v>1.35917052099265</v>
       </c>
       <c r="E36" t="n">
-        <v>62.55</v>
+        <v>58.8726557369228</v>
       </c>
       <c r="F36" t="n">
-        <v>3.08201105475925</v>
+        <v>3.26804474644017</v>
       </c>
       <c r="G36" t="n">
-        <v>8.425</v>
+        <v>7.84983649956528</v>
       </c>
       <c r="H36" t="n">
-        <v>387.9138375</v>
+        <v>394.586367329821</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>379.65965184</v>
+        <v>360.147567125084</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0212783996394559</v>
+        <v>0.0872782312216847</v>
       </c>
     </row>
     <row r="37">
@@ -1644,31 +1644,31 @@
         <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>62.33</v>
+        <v>60.7702781271567</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23279999081493</v>
+        <v>1.25009331968815</v>
       </c>
       <c r="E37" t="n">
-        <v>62.44</v>
+        <v>67.3586185220592</v>
       </c>
       <c r="F37" t="n">
-        <v>3.09612278152956</v>
+        <v>3.21027131943203</v>
       </c>
       <c r="G37" t="n">
-        <v>8.3625</v>
+        <v>7.7017351335485</v>
       </c>
       <c r="H37" t="n">
-        <v>375.1706875</v>
+        <v>369.930036949854</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>367.82873253</v>
+        <v>351.897651093724</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0195696391392517</v>
+        <v>0.0487453952234058</v>
       </c>
     </row>
     <row r="38">
@@ -1679,31 +1679,31 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>48.07</v>
+        <v>50.1761184792262</v>
       </c>
       <c r="D38" t="n">
-        <v>1.15716241302786</v>
+        <v>1.20672947142261</v>
       </c>
       <c r="E38" t="n">
-        <v>62.1</v>
+        <v>57.8891421150835</v>
       </c>
       <c r="F38" t="n">
-        <v>3.20483027333727</v>
+        <v>3.05224299236885</v>
       </c>
       <c r="G38" t="n">
-        <v>6.8075</v>
+        <v>6.33948375178012</v>
       </c>
       <c r="H38" t="n">
-        <v>320.0692625</v>
+        <v>294.525276055759</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>316.23682307</v>
+        <v>302.118743599946</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0119737815498605</v>
+        <v>0.025782057302103</v>
       </c>
     </row>
     <row r="39">
@@ -1714,31 +1714,31 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>57.93</v>
+        <v>58.9301653079996</v>
       </c>
       <c r="D39" t="n">
-        <v>1.13603677322678</v>
+        <v>1.15603506353802</v>
       </c>
       <c r="E39" t="n">
-        <v>61.4</v>
+        <v>63.0466661153827</v>
       </c>
       <c r="F39" t="n">
-        <v>3.31353776514498</v>
+        <v>3.20354214531507</v>
       </c>
       <c r="G39" t="n">
-        <v>7.2775</v>
+        <v>7.52357755467272</v>
       </c>
       <c r="H39" t="n">
-        <v>332.076975</v>
+        <v>300.37385841296</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>334.78952833</v>
+        <v>343.171259906857</v>
       </c>
       <c r="K39" t="n">
-        <v>0.00816844748119006</v>
+        <v>0.142480446600843</v>
       </c>
     </row>
     <row r="40">
@@ -1749,31 +1749,31 @@
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>55.79</v>
+        <v>53.4566583761936</v>
       </c>
       <c r="D40" t="n">
-        <v>1.08116510558968</v>
+        <v>1.00128915828963</v>
       </c>
       <c r="E40" t="n">
-        <v>60.115</v>
+        <v>63.0520380038039</v>
       </c>
       <c r="F40" t="n">
-        <v>3.42224525695269</v>
+        <v>3.11885314889673</v>
       </c>
       <c r="G40" t="n">
-        <v>6.9075</v>
+        <v>6.91350911979843</v>
       </c>
       <c r="H40" t="n">
-        <v>335.977275</v>
+        <v>351.094025308229</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>322.53859539</v>
+        <v>323.093175798819</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0399987755421851</v>
+        <v>0.0797531358866844</v>
       </c>
     </row>
     <row r="41">
@@ -1784,31 +1784,31 @@
         <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>59.39</v>
+        <v>60.2410947331805</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0775772178982</v>
+        <v>1.07033990666561</v>
       </c>
       <c r="E41" t="n">
-        <v>57.8142857142857</v>
+        <v>52.1118641924419</v>
       </c>
       <c r="F41" t="n">
-        <v>3.4125454996046</v>
+        <v>3.28511710830109</v>
       </c>
       <c r="G41" t="n">
-        <v>6.79</v>
+        <v>6.30110770662641</v>
       </c>
       <c r="H41" t="n">
-        <v>343.3527375</v>
+        <v>362.658404726578</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>320.129022175714</v>
+        <v>303.719557092423</v>
       </c>
       <c r="K41" t="n">
-        <v>0.067638066594083</v>
+        <v>0.162518907230597</v>
       </c>
     </row>
     <row r="42">
@@ -1819,31 +1819,31 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>64.56</v>
+        <v>67.1737257209569</v>
       </c>
       <c r="D42" t="n">
-        <v>1.11585237283569</v>
+        <v>1.0869088753992</v>
       </c>
       <c r="E42" t="n">
-        <v>60.3973684210526</v>
+        <v>61.6926914008747</v>
       </c>
       <c r="F42" t="n">
-        <v>3.4028457422565</v>
+        <v>3.08975257702715</v>
       </c>
       <c r="G42" t="n">
-        <v>6.695</v>
+        <v>6.14805870410567</v>
       </c>
       <c r="H42" t="n">
-        <v>356.2384025</v>
+        <v>321.384779926098</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>322.384677328421</v>
+        <v>309.88945293279</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0950310941605431</v>
+        <v>0.0357681125906201</v>
       </c>
     </row>
     <row r="43">
@@ -1854,31 +1854,31 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>62.34</v>
+        <v>59.1972867734833</v>
       </c>
       <c r="D43" t="n">
-        <v>1.12218492742573</v>
+        <v>1.12888130534415</v>
       </c>
       <c r="E43" t="n">
-        <v>58.8409090909091</v>
+        <v>52.9976652765424</v>
       </c>
       <c r="F43" t="n">
-        <v>3.39314598490841</v>
+        <v>3.2391550396</v>
       </c>
       <c r="G43" t="n">
-        <v>6.655</v>
+        <v>7.07412545087305</v>
       </c>
       <c r="H43" t="n">
-        <v>347.42600625</v>
+        <v>371.834428377458</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>318.92782194</v>
+        <v>324.741772596372</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0820266295479714</v>
+        <v>0.126649530508997</v>
       </c>
     </row>
     <row r="44">
@@ -1889,31 +1889,31 @@
         <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>55.87</v>
+        <v>53.5491868939116</v>
       </c>
       <c r="D44" t="n">
-        <v>1.10162166009412</v>
+        <v>1.02646430842088</v>
       </c>
       <c r="E44" t="n">
-        <v>59.1304347826087</v>
+        <v>60.4890209086563</v>
       </c>
       <c r="F44" t="n">
-        <v>3.31252350373562</v>
+        <v>3.31943245090617</v>
       </c>
       <c r="G44" t="n">
-        <v>6.698</v>
+        <v>6.21351379060158</v>
       </c>
       <c r="H44" t="n">
-        <v>323.31087</v>
+        <v>341.70630112349</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>316.246507263913</v>
+        <v>302.417460829246</v>
       </c>
       <c r="K44" t="n">
-        <v>0.021850062560801</v>
+        <v>0.114978389819172</v>
       </c>
     </row>
     <row r="45">
@@ -1924,31 +1924,31 @@
         <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>46.99</v>
+        <v>51.5608173541026</v>
       </c>
       <c r="D45" t="n">
-        <v>1.11267142857143</v>
+        <v>1.16522944228874</v>
       </c>
       <c r="E45" t="n">
-        <v>58.5725</v>
+        <v>55.8717450698548</v>
       </c>
       <c r="F45" t="n">
-        <v>3.23190102256283</v>
+        <v>3.16460215820541</v>
       </c>
       <c r="G45" t="n">
-        <v>6.455</v>
+        <v>6.93368893303443</v>
       </c>
       <c r="H45" t="n">
-        <v>308.22225</v>
+        <v>307.540316692786</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>303.71550519</v>
+        <v>317.946536378854</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0146217374313501</v>
+        <v>0.033836928432583</v>
       </c>
     </row>
     <row r="46">
@@ -1959,31 +1959,31 @@
         <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>47.24</v>
+        <v>45.3546631662808</v>
       </c>
       <c r="D46" t="n">
-        <v>1.12366363636364</v>
+        <v>1.19963797540496</v>
       </c>
       <c r="E46" t="n">
-        <v>54.7454545454545</v>
+        <v>58.1168260125773</v>
       </c>
       <c r="F46" t="n">
-        <v>3.15127854139004</v>
+        <v>3.4232642995638</v>
       </c>
       <c r="G46" t="n">
-        <v>6.3</v>
+        <v>6.26872433199082</v>
       </c>
       <c r="H46" t="n">
-        <v>285.14254375</v>
+        <v>299.536942046434</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>297.23106764</v>
+        <v>297.319826777872</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0423946694555641</v>
+        <v>0.00740180911714916</v>
       </c>
     </row>
     <row r="47">
@@ -1994,31 +1994,31 @@
         <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>48.12</v>
+        <v>48.3514836018495</v>
       </c>
       <c r="D47" t="n">
-        <v>1.1234347826087</v>
+        <v>1.04147464352519</v>
       </c>
       <c r="E47" t="n">
-        <v>52.3136363636364</v>
+        <v>55.5612019503377</v>
       </c>
       <c r="F47" t="n">
-        <v>3.10259243930964</v>
+        <v>3.30039091359426</v>
       </c>
       <c r="G47" t="n">
-        <v>6.052</v>
+        <v>5.90464670622796</v>
       </c>
       <c r="H47" t="n">
-        <v>271.17467</v>
+        <v>280.789497195933</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>289.4765798</v>
+        <v>287.637705309767</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0674912218018002</v>
+        <v>0.0243891177633873</v>
       </c>
     </row>
     <row r="48">
@@ -2029,31 +2029,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>44.42</v>
+        <v>42.7916662903009</v>
       </c>
       <c r="D48" t="n">
-        <v>1.076025</v>
+        <v>1.05615479262235</v>
       </c>
       <c r="E48" t="n">
-        <v>52.5714285714286</v>
+        <v>52.5558147039797</v>
       </c>
       <c r="F48" t="n">
-        <v>3.05390633722925</v>
+        <v>2.94467848861614</v>
       </c>
       <c r="G48" t="n">
-        <v>5.525</v>
+        <v>5.89102142975549</v>
       </c>
       <c r="H48" t="n">
-        <v>243.513975</v>
+        <v>242.736392421372</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>272.933273048571</v>
+        <v>281.905889935154</v>
       </c>
       <c r="K48" t="n">
-        <v>0.120811538839081</v>
+        <v>0.161366398845489</v>
       </c>
     </row>
     <row r="49">
@@ -2064,31 +2064,31 @@
         <v>12</v>
       </c>
       <c r="C49" t="n">
-        <v>37.72</v>
+        <v>34.9504866494183</v>
       </c>
       <c r="D49" t="n">
-        <v>1.08697826086957</v>
+        <v>1.00523459342575</v>
       </c>
       <c r="E49" t="n">
-        <v>52.1275</v>
+        <v>51.1777756731156</v>
       </c>
       <c r="F49" t="n">
-        <v>3.00522023514886</v>
+        <v>2.98350080743639</v>
       </c>
       <c r="G49" t="n">
-        <v>5.25</v>
+        <v>5.46895584646845</v>
       </c>
       <c r="H49" t="n">
-        <v>236.62155</v>
+        <v>218.089095952221</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>260.96036382</v>
+        <v>264.616000812865</v>
       </c>
       <c r="K49" t="n">
-        <v>0.102859666923828</v>
+        <v>0.213338978079111</v>
       </c>
     </row>
     <row r="50">
@@ -2099,31 +2099,31 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>30.8</v>
+        <v>27.7948773665912</v>
       </c>
       <c r="D50" t="n">
-        <v>1.08774375</v>
+        <v>1.09086653230613</v>
       </c>
       <c r="E50" t="n">
-        <v>49.815625</v>
+        <v>49.9917347310115</v>
       </c>
       <c r="F50" t="n">
-        <v>2.91231896905698</v>
+        <v>2.96800728540912</v>
       </c>
       <c r="G50" t="n">
-        <v>4.415</v>
+        <v>4.09100423798244</v>
       </c>
       <c r="H50" t="n">
-        <v>198.1587125</v>
+        <v>209.88233986988</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>232.378005775</v>
+        <v>221.762536447595</v>
       </c>
       <c r="K50" t="n">
-        <v>0.172686291928749</v>
+        <v>0.0566040791477744</v>
       </c>
     </row>
     <row r="51">
@@ -2134,31 +2134,31 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>33.2</v>
+        <v>31.482672838252</v>
       </c>
       <c r="D51" t="n">
-        <v>1.11146315789474</v>
+        <v>1.03879688775974</v>
       </c>
       <c r="E51" t="n">
-        <v>50.7075</v>
+        <v>52.0822784893925</v>
       </c>
       <c r="F51" t="n">
-        <v>2.8194177029651</v>
+        <v>2.82395041691959</v>
       </c>
       <c r="G51" t="n">
-        <v>4.0175</v>
+        <v>4.1894139706234</v>
       </c>
       <c r="H51" t="n">
-        <v>164.7498</v>
+        <v>158.723163971371</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>223.5780446</v>
+        <v>228.066862745617</v>
       </c>
       <c r="K51" t="n">
-        <v>0.357076273233716</v>
+        <v>0.436884554460833</v>
       </c>
     </row>
     <row r="52">
@@ -2169,31 +2169,31 @@
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>39.07</v>
+        <v>35.891105809838</v>
       </c>
       <c r="D52" t="n">
-        <v>1.11022380952381</v>
+        <v>1.16948578939472</v>
       </c>
       <c r="E52" t="n">
-        <v>52.19</v>
+        <v>51.4514453602261</v>
       </c>
       <c r="F52" t="n">
-        <v>2.72651643687323</v>
+        <v>2.47086503282294</v>
       </c>
       <c r="G52" t="n">
-        <v>3.904</v>
+        <v>3.61745992614627</v>
       </c>
       <c r="H52" t="n">
-        <v>181.8716625</v>
+        <v>168.733017748838</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>225.07320613</v>
+        <v>214.7973657157</v>
       </c>
       <c r="K52" t="n">
-        <v>0.237538619464701</v>
+        <v>0.273001387525879</v>
       </c>
     </row>
     <row r="53">
@@ -2204,31 +2204,31 @@
         <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>42.25</v>
+        <v>42.3872372215148</v>
       </c>
       <c r="D53" t="n">
-        <v>1.13380909090909</v>
+        <v>1.11506156515128</v>
       </c>
       <c r="E53" t="n">
-        <v>50.91</v>
+        <v>49.3460971960123</v>
       </c>
       <c r="F53" t="n">
-        <v>2.82657984635832</v>
+        <v>2.842016832005</v>
       </c>
       <c r="G53" t="n">
-        <v>3.9425</v>
+        <v>3.75308359955647</v>
       </c>
       <c r="H53" t="n">
-        <v>199.705155</v>
+        <v>207.051576478658</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>227.30478005</v>
+        <v>221.232778511669</v>
       </c>
       <c r="K53" t="n">
-        <v>0.13820186589575</v>
+        <v>0.0684911570063473</v>
       </c>
     </row>
     <row r="54">
@@ -2239,31 +2239,31 @@
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>47.13</v>
+        <v>51.2366841626465</v>
       </c>
       <c r="D54" t="n">
-        <v>1.12945</v>
+        <v>1.20511587838196</v>
       </c>
       <c r="E54" t="n">
-        <v>51.48</v>
+        <v>55.2201928159632</v>
       </c>
       <c r="F54" t="n">
-        <v>2.92664325584342</v>
+        <v>2.75352200605064</v>
       </c>
       <c r="G54" t="n">
-        <v>4.28</v>
+        <v>4.42846579699032</v>
       </c>
       <c r="H54" t="n">
-        <v>227.51163125</v>
+        <v>224.752264495298</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>239.92840343</v>
+        <v>248.898789632574</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0545764280787733</v>
+        <v>0.107436181751048</v>
       </c>
     </row>
     <row r="55">
@@ -2274,31 +2274,31 @@
         <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>48.48</v>
+        <v>51.1862718372121</v>
       </c>
       <c r="D55" t="n">
-        <v>1.12375238095238</v>
+        <v>1.13711387631491</v>
       </c>
       <c r="E55" t="n">
-        <v>53.17</v>
+        <v>57.1602416382115</v>
       </c>
       <c r="F55" t="n">
-        <v>3.02670666532852</v>
+        <v>2.72521868226104</v>
       </c>
       <c r="G55" t="n">
-        <v>4.706</v>
+        <v>4.87510820174711</v>
       </c>
       <c r="H55" t="n">
-        <v>228.0944125</v>
+        <v>208.542452220878</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>253.47070192</v>
+        <v>262.28818960813</v>
       </c>
       <c r="K55" t="n">
-        <v>0.111253446070276</v>
+        <v>0.257720846834233</v>
       </c>
     </row>
     <row r="56">
@@ -2309,31 +2309,31 @@
         <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>45.07</v>
+        <v>46.424867977235</v>
       </c>
       <c r="D56" t="n">
-        <v>1.1066</v>
+        <v>1.19115695076605</v>
       </c>
       <c r="E56" t="n">
-        <v>62.29</v>
+        <v>66.4375399116627</v>
       </c>
       <c r="F56" t="n">
-        <v>2.93841155121377</v>
+        <v>2.66462598305366</v>
       </c>
       <c r="G56" t="n">
-        <v>4.665</v>
+        <v>4.23821874457318</v>
       </c>
       <c r="H56" t="n">
-        <v>220.50038</v>
+        <v>203.279365082228</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>255.95676777</v>
+        <v>247.751676991001</v>
       </c>
       <c r="K56" t="n">
-        <v>0.160799667420074</v>
+        <v>0.218774354646297</v>
       </c>
     </row>
     <row r="57">
@@ -2344,31 +2344,31 @@
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>46.14</v>
+        <v>44.6048139182953</v>
       </c>
       <c r="D57" t="n">
-        <v>1.12108181818182</v>
+        <v>1.09641842582332</v>
       </c>
       <c r="E57" t="n">
-        <v>67.3739130434783</v>
+        <v>60.9065308803709</v>
       </c>
       <c r="F57" t="n">
-        <v>2.85011643709902</v>
+        <v>2.61237176114273</v>
       </c>
       <c r="G57" t="n">
-        <v>4.165</v>
+        <v>4.54845016826643</v>
       </c>
       <c r="H57" t="n">
-        <v>218.345125</v>
+        <v>228.037195738149</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>246.162507705217</v>
+        <v>251.612750250278</v>
       </c>
       <c r="K57" t="n">
-        <v>0.127400979093156</v>
+        <v>0.103384688782088</v>
       </c>
     </row>
     <row r="58">
@@ -2379,31 +2379,31 @@
         <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>46.19</v>
+        <v>46.0046477265973</v>
       </c>
       <c r="D58" t="n">
-        <v>1.12092272727273</v>
+        <v>1.13034598821604</v>
       </c>
       <c r="E58" t="n">
-        <v>72.9</v>
+        <v>66.5433226484573</v>
       </c>
       <c r="F58" t="n">
-        <v>2.76182132298427</v>
+        <v>2.608855834177</v>
       </c>
       <c r="G58" t="n">
-        <v>4.11</v>
+        <v>4.2053621001821</v>
       </c>
       <c r="H58" t="n">
-        <v>234.95507</v>
+        <v>233.045110933384</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>248.16584749</v>
+        <v>246.658372023317</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0562268245158533</v>
+        <v>0.0584147036400358</v>
       </c>
     </row>
     <row r="59">
@@ -2414,31 +2414,31 @@
         <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>49.73</v>
+        <v>52.0294817635044</v>
       </c>
       <c r="D59" t="n">
-        <v>1.10388571428571</v>
+        <v>0.995798048048381</v>
       </c>
       <c r="E59" t="n">
-        <v>93.17</v>
+        <v>93.81398149624</v>
       </c>
       <c r="F59" t="n">
-        <v>2.84000203845094</v>
+        <v>2.6010676470985</v>
       </c>
       <c r="G59" t="n">
-        <v>5.2525</v>
+        <v>5.57974305899325</v>
       </c>
       <c r="H59" t="n">
-        <v>235.83091875</v>
+        <v>258.294879486284</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>294.33011233</v>
+        <v>305.109531179331</v>
       </c>
       <c r="K59" t="n">
-        <v>0.248055657375503</v>
+        <v>0.181244985522576</v>
       </c>
     </row>
     <row r="60">
@@ -2449,31 +2449,31 @@
         <v>11</v>
       </c>
       <c r="C60" t="n">
-        <v>46.44</v>
+        <v>43.9726989548374</v>
       </c>
       <c r="D60" t="n">
-        <v>1.08137619047619</v>
+        <v>1.08171172611141</v>
       </c>
       <c r="E60" t="n">
-        <v>100.01</v>
+        <v>98.8286167717218</v>
       </c>
       <c r="F60" t="n">
-        <v>2.9181827539176</v>
+        <v>2.72110480394643</v>
       </c>
       <c r="G60" t="n">
-        <v>5.655</v>
+        <v>5.17060054513835</v>
       </c>
       <c r="H60" t="n">
-        <v>268.24530625</v>
+        <v>283.508077765638</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>307.57269464</v>
+        <v>292.057562234465</v>
       </c>
       <c r="K60" t="n">
-        <v>0.146609791387543</v>
+        <v>0.0301560524702047</v>
       </c>
     </row>
     <row r="61">
@@ -2484,31 +2484,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>54.07</v>
+        <v>58.6199245509873</v>
       </c>
       <c r="D61" t="n">
-        <v>1.05502608695652</v>
+        <v>1.0961773304037</v>
       </c>
       <c r="E61" t="n">
-        <v>86.32</v>
+        <v>92.5585444716029</v>
       </c>
       <c r="F61" t="n">
-        <v>2.99636346938427</v>
+        <v>2.96289815007277</v>
       </c>
       <c r="G61" t="n">
-        <v>5.3625</v>
+        <v>5.80231812982704</v>
       </c>
       <c r="H61" t="n">
-        <v>316.81850625</v>
+        <v>310.379694631009</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>295.73664447</v>
+        <v>314.513467062243</v>
       </c>
       <c r="K61" t="n">
-        <v>0.066542393717886</v>
+        <v>0.013318437071562</v>
       </c>
     </row>
     <row r="62">
@@ -2519,31 +2519,31 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>54.89</v>
+        <v>50.7776338823382</v>
       </c>
       <c r="D62" t="n">
-        <v>1.06598125</v>
+        <v>1.0912906179784</v>
       </c>
       <c r="E62" t="n">
-        <v>83.73</v>
+        <v>86.0252461062265</v>
       </c>
       <c r="F62" t="n">
-        <v>3.01905396279001</v>
+        <v>2.75248853407125</v>
       </c>
       <c r="G62" t="n">
-        <v>6.1125</v>
+        <v>5.92943654558156</v>
       </c>
       <c r="H62" t="n">
-        <v>351.2602375</v>
+        <v>320.779373172467</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>315.10785709</v>
+        <v>308.983654782113</v>
       </c>
       <c r="K62" t="n">
-        <v>0.102921926681212</v>
+        <v>0.0367720601037886</v>
       </c>
     </row>
     <row r="63">
@@ -2554,31 +2554,31 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>55.49</v>
+        <v>53.324006136253</v>
       </c>
       <c r="D63" t="n">
-        <v>1.06586111111111</v>
+        <v>1.08828196939185</v>
       </c>
       <c r="E63" t="n">
-        <v>80.41</v>
+        <v>74.4793666116898</v>
       </c>
       <c r="F63" t="n">
-        <v>3.04174445619575</v>
+        <v>3.12664137042295</v>
       </c>
       <c r="G63" t="n">
-        <v>6.2475</v>
+        <v>6.76693639129819</v>
       </c>
       <c r="H63" t="n">
-        <v>412.69965</v>
+        <v>379.569851041436</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>317.08266789</v>
+        <v>326.191470810296</v>
       </c>
       <c r="K63" t="n">
-        <v>0.231686608190727</v>
+        <v>0.140628609160303</v>
       </c>
     </row>
     <row r="64">
@@ -2589,31 +2589,31 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>51.97</v>
+        <v>51.2663501171251</v>
       </c>
       <c r="D64" t="n">
-        <v>1.06896363636364</v>
+        <v>1.15525998692029</v>
       </c>
       <c r="E64" t="n">
-        <v>80.55</v>
+        <v>80.9091786169913</v>
       </c>
       <c r="F64" t="n">
-        <v>3.06443494960149</v>
+        <v>3.15773607809287</v>
       </c>
       <c r="G64" t="n">
-        <v>5.08</v>
+        <v>5.42805432211794</v>
       </c>
       <c r="H64" t="n">
-        <v>401.897885</v>
+        <v>428.492133888839</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>283.08094587</v>
+        <v>292.375510835502</v>
       </c>
       <c r="K64" t="n">
-        <v>0.295639622811152</v>
+        <v>0.317664228320815</v>
       </c>
     </row>
     <row r="65">
@@ -2624,31 +2624,31 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>52.98</v>
+        <v>55.2409463340947</v>
       </c>
       <c r="D65" t="n">
-        <v>1.0713380952381</v>
+        <v>1.04378503874453</v>
       </c>
       <c r="E65" t="n">
-        <v>84.6421052631579</v>
+        <v>78.3374950324872</v>
       </c>
       <c r="F65" t="n">
-        <v>3.01574387630643</v>
+        <v>2.83204024283003</v>
       </c>
       <c r="G65" t="n">
-        <v>4.99</v>
+        <v>4.63993922928674</v>
       </c>
       <c r="H65" t="n">
-        <v>327.4513125</v>
+        <v>322.965616970571</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>283.825698485263</v>
+        <v>271.709999145986</v>
       </c>
       <c r="K65" t="n">
-        <v>0.133227787916522</v>
+        <v>0.158703017074588</v>
       </c>
     </row>
     <row r="66">
@@ -2659,31 +2659,31 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>50.87</v>
+        <v>48.7216141597168</v>
       </c>
       <c r="D66" t="n">
-        <v>1.10552631578947</v>
+        <v>1.13393343468749</v>
       </c>
       <c r="E66" t="n">
-        <v>74.52</v>
+        <v>72.1666495964695</v>
       </c>
       <c r="F66" t="n">
-        <v>2.96705280301138</v>
+        <v>2.78596477703719</v>
       </c>
       <c r="G66" t="n">
-        <v>5.1925</v>
+        <v>5.27011971288978</v>
       </c>
       <c r="H66" t="n">
-        <v>307.4268</v>
+        <v>322.85471277409</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>281.67619047</v>
+        <v>280.976022960852</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0837617589943362</v>
+        <v>0.129713732388789</v>
       </c>
     </row>
     <row r="67">
@@ -2694,31 +2694,31 @@
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>46.89</v>
+        <v>46.838127799626</v>
       </c>
       <c r="D67" t="n">
-        <v>1.12217619047619</v>
+        <v>1.21003910679679</v>
       </c>
       <c r="E67" t="n">
-        <v>80.9522727272727</v>
+        <v>82.1718972276918</v>
       </c>
       <c r="F67" t="n">
-        <v>2.91836172971633</v>
+        <v>3.0549115879135</v>
       </c>
       <c r="G67" t="n">
-        <v>4.918</v>
+        <v>4.92672306221891</v>
       </c>
       <c r="H67" t="n">
-        <v>300.83554</v>
+        <v>329.346716824666</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>275.73800211</v>
+        <v>276.710769184205</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0834261068024076</v>
+        <v>0.159819257188718</v>
       </c>
     </row>
     <row r="68">
@@ -2729,31 +2729,31 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>48.69</v>
+        <v>47.2564372066394</v>
       </c>
       <c r="D68" t="n">
-        <v>1.1496</v>
+        <v>1.10686428075839</v>
       </c>
       <c r="E68" t="n">
-        <v>87.5309523809524</v>
+        <v>84.7717190372283</v>
       </c>
       <c r="F68" t="n">
-        <v>3.06588456875344</v>
+        <v>3.26014706728554</v>
       </c>
       <c r="G68" t="n">
-        <v>4.9825</v>
+        <v>5.26312846536154</v>
       </c>
       <c r="H68" t="n">
-        <v>298.4081</v>
+        <v>322.600799656586</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>282.759774509048</v>
+        <v>287.796171782433</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0524393456174695</v>
+        <v>0.107887605707124</v>
       </c>
     </row>
     <row r="69">
@@ -2764,31 +2764,31 @@
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>51.37</v>
+        <v>47.008254436553</v>
       </c>
       <c r="D69" t="n">
-        <v>1.18050869565217</v>
+        <v>1.18587741027581</v>
       </c>
       <c r="E69" t="n">
-        <v>95.89</v>
+        <v>93.1835466277837</v>
       </c>
       <c r="F69" t="n">
-        <v>3.21340740779054</v>
+        <v>2.98745051723486</v>
       </c>
       <c r="G69" t="n">
-        <v>5.544</v>
+        <v>5.30977865133136</v>
       </c>
       <c r="H69" t="n">
-        <v>305.06503125</v>
+        <v>308.028606051936</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>305.02685703</v>
+        <v>294.204653227632</v>
       </c>
       <c r="K69" t="n">
-        <v>0.000125134696178142</v>
+        <v>0.0448787955167167</v>
       </c>
     </row>
     <row r="70">
@@ -2799,31 +2799,31 @@
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>55.16</v>
+        <v>57.4255633399039</v>
       </c>
       <c r="D70" t="n">
-        <v>1.19133636363636</v>
+        <v>1.23690575274889</v>
       </c>
       <c r="E70" t="n">
-        <v>96.8690476190476</v>
+        <v>92.6540540891633</v>
       </c>
       <c r="F70" t="n">
-        <v>3.36093024682764</v>
+        <v>3.22117989792373</v>
       </c>
       <c r="G70" t="n">
-        <v>5.935</v>
+        <v>5.35801946328604</v>
       </c>
       <c r="H70" t="n">
-        <v>318.439145</v>
+        <v>328.992959156169</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>318.688864540952</v>
+        <v>301.691092413989</v>
       </c>
       <c r="K70" t="n">
-        <v>0.000784198629073751</v>
+        <v>0.0829861733582574</v>
       </c>
     </row>
     <row r="71">
@@ -2834,31 +2834,31 @@
         <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>57.62</v>
+        <v>58.5945432061022</v>
       </c>
       <c r="D71" t="n">
-        <v>1.17605238095238</v>
+        <v>1.19516431314448</v>
       </c>
       <c r="E71" t="n">
-        <v>97.1409090909091</v>
+        <v>93.6486126083005</v>
       </c>
       <c r="F71" t="n">
-        <v>3.36131575384284</v>
+        <v>3.5074025980663</v>
       </c>
       <c r="G71" t="n">
-        <v>6.175</v>
+        <v>5.95346835363307</v>
       </c>
       <c r="H71" t="n">
-        <v>296.457925</v>
+        <v>273.271991563444</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>326.95125082</v>
+        <v>319.312024467098</v>
       </c>
       <c r="K71" t="n">
-        <v>0.10285886545283</v>
+        <v>0.168476954554508</v>
       </c>
     </row>
     <row r="72">
@@ -2869,31 +2869,31 @@
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>62.57</v>
+        <v>60.4819708168539</v>
       </c>
       <c r="D72" t="n">
-        <v>1.17319047619048</v>
+        <v>1.18776461182112</v>
       </c>
       <c r="E72" t="n">
-        <v>96.6272727272727</v>
+        <v>104.52002361094</v>
       </c>
       <c r="F72" t="n">
-        <v>3.36170126085804</v>
+        <v>3.42369890587663</v>
       </c>
       <c r="G72" t="n">
-        <v>6.56</v>
+        <v>6.06955562412739</v>
       </c>
       <c r="H72" t="n">
-        <v>326.98085</v>
+        <v>347.746700273023</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>340.23478367</v>
+        <v>330.49668101173</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0405342810442875</v>
+        <v>0.0496051270874744</v>
       </c>
     </row>
     <row r="73">
@@ -2904,31 +2904,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>64.21</v>
+        <v>64.3689077621843</v>
       </c>
       <c r="D73" t="n">
-        <v>1.18380909090909</v>
+        <v>1.29312124870263</v>
       </c>
       <c r="E73" t="n">
-        <v>102.155</v>
+        <v>100.876382954359</v>
       </c>
       <c r="F73" t="n">
-        <v>3.36208676787324</v>
+        <v>3.1860259840624</v>
       </c>
       <c r="G73" t="n">
-        <v>7.46333333333333</v>
+        <v>7.00903347667586</v>
       </c>
       <c r="H73" t="n">
-        <v>367.56368125</v>
+        <v>359.01313341012</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>369.410512976667</v>
+        <v>356.295527589136</v>
       </c>
       <c r="K73" t="n">
-        <v>0.00502452179275692</v>
+        <v>0.0075696557258792</v>
       </c>
     </row>
     <row r="74">
@@ -2939,31 +2939,31 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>68.99</v>
+        <v>72.5333802026096</v>
       </c>
       <c r="D74" t="n">
-        <v>1.22171875</v>
+        <v>1.18919136543819</v>
       </c>
       <c r="E74" t="n">
-        <v>106.776086956522</v>
+        <v>112.740151621966</v>
       </c>
       <c r="F74" t="n">
-        <v>3.35272444524883</v>
+        <v>3.19443602667359</v>
       </c>
       <c r="G74" t="n">
-        <v>6.7625</v>
+        <v>7.24532767633849</v>
       </c>
       <c r="H74" t="n">
-        <v>431.8401</v>
+        <v>426.148754222649</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>356.154485824783</v>
+        <v>375.305433198639</v>
       </c>
       <c r="K74" t="n">
-        <v>0.175263052632716</v>
+        <v>0.119308857576634</v>
       </c>
     </row>
     <row r="75">
@@ -2974,31 +2974,31 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>65.42</v>
+        <v>63.8556863333629</v>
       </c>
       <c r="D75" t="n">
-        <v>1.23760526315789</v>
+        <v>1.31797049288671</v>
       </c>
       <c r="E75" t="n">
-        <v>104.705</v>
+        <v>99.9372619650443</v>
       </c>
       <c r="F75" t="n">
-        <v>3.34336212262442</v>
+        <v>3.6733775011357</v>
       </c>
       <c r="G75" t="n">
-        <v>6.5925</v>
+        <v>7.23967604961013</v>
       </c>
       <c r="H75" t="n">
-        <v>412.355775</v>
+        <v>424.554849501109</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>347.98026212</v>
+        <v>361.685257255795</v>
       </c>
       <c r="K75" t="n">
-        <v>0.156116433388134</v>
+        <v>0.148083556975482</v>
       </c>
     </row>
     <row r="76">
@@ -3009,31 +3009,31 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>66.45</v>
+        <v>65.373471398293</v>
       </c>
       <c r="D76" t="n">
-        <v>1.23292857142857</v>
+        <v>1.15424208784958</v>
       </c>
       <c r="E76" t="n">
-        <v>95.85</v>
+        <v>93.3764931200235</v>
       </c>
       <c r="F76" t="n">
-        <v>3.33399980000001</v>
+        <v>3.47241411996926</v>
       </c>
       <c r="G76" t="n">
-        <v>6.784</v>
+        <v>7.08662975150943</v>
       </c>
       <c r="H76" t="n">
-        <v>389.85887</v>
+        <v>412.674896671851</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>348.28667811</v>
+        <v>354.326572135129</v>
       </c>
       <c r="K76" t="n">
-        <v>0.106633951639987</v>
+        <v>0.1413905352792</v>
       </c>
     </row>
     <row r="77">
@@ -3044,31 +3044,31 @@
         <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>71.63</v>
+        <v>67.2779141358836</v>
       </c>
       <c r="D77" t="n">
-        <v>1.2284</v>
+        <v>1.14578707043536</v>
       </c>
       <c r="E77" t="n">
-        <v>94.2075</v>
+        <v>92.3099650921348</v>
       </c>
       <c r="F77" t="n">
-        <v>3.28533936666667</v>
+        <v>3.20364603381958</v>
       </c>
       <c r="G77" t="n">
-        <v>6.8425</v>
+        <v>6.46477575362858</v>
       </c>
       <c r="H77" t="n">
-        <v>388.99829375</v>
+        <v>374.190632104746</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>352.08489333</v>
+        <v>337.857230728644</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0948934764318616</v>
+        <v>0.0970986397273873</v>
       </c>
     </row>
     <row r="78">
@@ -3079,31 +3079,31 @@
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>76.65</v>
+        <v>82.2792452439736</v>
       </c>
       <c r="D78" t="n">
-        <v>1.18135263157895</v>
+        <v>1.16988294403314</v>
       </c>
       <c r="E78" t="n">
-        <v>105.445454545455</v>
+        <v>105.247598625089</v>
       </c>
       <c r="F78" t="n">
-        <v>3.23667893333334</v>
+        <v>3.44739571359912</v>
       </c>
       <c r="G78" t="n">
-        <v>7.414</v>
+        <v>6.72908922933843</v>
       </c>
       <c r="H78" t="n">
-        <v>387.2764875</v>
+        <v>415.701674959321</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>377.89570951</v>
+        <v>362.574707599226</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0242224309834964</v>
+        <v>0.127800705554757</v>
       </c>
     </row>
     <row r="79">
@@ -3114,31 +3114,31 @@
         <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>75.19</v>
+        <v>77.1239900071029</v>
       </c>
       <c r="D79" t="n">
-        <v>1.16736666666667</v>
+        <v>1.07983374161137</v>
       </c>
       <c r="E79" t="n">
-        <v>114.75</v>
+        <v>116.998452922585</v>
       </c>
       <c r="F79" t="n">
-        <v>3.1880185</v>
+        <v>2.94118688518302</v>
       </c>
       <c r="G79" t="n">
-        <v>7.4725</v>
+        <v>6.87856452923908</v>
       </c>
       <c r="H79" t="n">
-        <v>433.77583</v>
+        <v>476.722019844141</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>384.43289199</v>
+        <v>370.828975887639</v>
       </c>
       <c r="K79" t="n">
-        <v>0.113752160903017</v>
+        <v>0.222127444398568</v>
       </c>
     </row>
     <row r="80">
@@ -3149,31 +3149,31 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>74.44</v>
+        <v>69.7856498772036</v>
       </c>
       <c r="D80" t="n">
-        <v>1.16839047619048</v>
+        <v>1.10292075336079</v>
       </c>
       <c r="E80" t="n">
-        <v>119.57</v>
+        <v>128.978417284873</v>
       </c>
       <c r="F80" t="n">
-        <v>3.101458</v>
+        <v>3.27240218329084</v>
       </c>
       <c r="G80" t="n">
-        <v>7.6075</v>
+        <v>8.25926126809313</v>
       </c>
       <c r="H80" t="n">
-        <v>408.3903125</v>
+        <v>424.866984502597</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>390.68325934</v>
+        <v>411.498383665753</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0433581615871459</v>
+        <v>0.0314653793410081</v>
       </c>
     </row>
     <row r="81">
@@ -3184,31 +3184,31 @@
         <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>73.13</v>
+        <v>74.0856755586872</v>
       </c>
       <c r="D81" t="n">
-        <v>1.15482173913043</v>
+        <v>1.21975711824709</v>
       </c>
       <c r="E81" t="n">
-        <v>117.34</v>
+        <v>125.928468557118</v>
       </c>
       <c r="F81" t="n">
-        <v>3.0148975</v>
+        <v>3.21314313303534</v>
       </c>
       <c r="G81" t="n">
-        <v>7.91</v>
+        <v>8.16513148011593</v>
       </c>
       <c r="H81" t="n">
-        <v>408.34485</v>
+        <v>369.261200638779</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>396.72700423</v>
+        <v>409.693025222463</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0284510647556838</v>
+        <v>0.109493833941238</v>
       </c>
     </row>
     <row r="82">
@@ -3219,31 +3219,31 @@
         <v>9</v>
       </c>
       <c r="C82" t="n">
-        <v>78.86</v>
+        <v>81.3062870516153</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16611428571429</v>
+        <v>1.26566894641208</v>
       </c>
       <c r="E82" t="n">
-        <v>114.16</v>
+        <v>115.230512838457</v>
       </c>
       <c r="F82" t="n">
-        <v>2.928337</v>
+        <v>3.03241388175666</v>
       </c>
       <c r="G82" t="n">
-        <v>9.475</v>
+        <v>8.56438874974148</v>
       </c>
       <c r="H82" t="n">
-        <v>430.7602375</v>
+        <v>395.749952632202</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>441.05518406</v>
+        <v>418.379648300367</v>
       </c>
       <c r="K82" t="n">
-        <v>0.023899482040749</v>
+        <v>0.057181802594418</v>
       </c>
     </row>
     <row r="83">
@@ -3254,31 +3254,31 @@
         <v>10</v>
       </c>
       <c r="C83" t="n">
-        <v>80.47</v>
+        <v>74.8192236289354</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14980454545455</v>
+        <v>1.09625778127134</v>
       </c>
       <c r="E83" t="n">
-        <v>108.73</v>
+        <v>112.55801784057</v>
       </c>
       <c r="F83" t="n">
-        <v>2.8434903</v>
+        <v>2.64386123981133</v>
       </c>
       <c r="G83" t="n">
-        <v>9.0525</v>
+        <v>8.70786034717143</v>
       </c>
       <c r="H83" t="n">
-        <v>418.818425</v>
+        <v>397.595883162489</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>427.10430207</v>
+        <v>416.569890765881</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0197839363681291</v>
+        <v>0.0477218412134246</v>
       </c>
     </row>
     <row r="84">
@@ -3289,31 +3289,31 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>65.17</v>
+        <v>65.6587031786232</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13665238095238</v>
+        <v>1.07598167980487</v>
       </c>
       <c r="E84" t="n">
-        <v>100.73</v>
+        <v>101.477471195458</v>
       </c>
       <c r="F84" t="n">
-        <v>2.7586436</v>
+        <v>2.89936744555654</v>
       </c>
       <c r="G84" t="n">
-        <v>8.214</v>
+        <v>7.67810724662868</v>
       </c>
       <c r="H84" t="n">
-        <v>382.87915</v>
+        <v>407.100295454123</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>389.61981803</v>
+        <v>375.755692090265</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01760521049527</v>
+        <v>0.0769947939460305</v>
       </c>
     </row>
     <row r="85">
@@ -3324,31 +3324,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="n">
-        <v>56.46</v>
+        <v>61.4123403983396</v>
       </c>
       <c r="D85" t="n">
-        <v>1.13835909090909</v>
+        <v>1.18561667196894</v>
       </c>
       <c r="E85" t="n">
-        <v>101.37</v>
+        <v>99.3940983375195</v>
       </c>
       <c r="F85" t="n">
-        <v>2.6737969</v>
+        <v>2.79419575944114</v>
       </c>
       <c r="G85" t="n">
-        <v>8.01666666666667</v>
+        <v>7.2590217075528</v>
       </c>
       <c r="H85" t="n">
-        <v>326.58625</v>
+        <v>317.277646887728</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>379.195615593333</v>
+        <v>360.347288599477</v>
       </c>
       <c r="K85" t="n">
-        <v>0.161088734119496</v>
+        <v>0.135747482163435</v>
       </c>
     </row>
     <row r="86">
@@ -3359,31 +3359,31 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>59.27</v>
+        <v>64.1660495270183</v>
       </c>
       <c r="D86" t="n">
-        <v>1.14274166666667</v>
+        <v>1.22097444173925</v>
       </c>
       <c r="E86" t="n">
-        <v>98.56</v>
+        <v>91.5993996567726</v>
       </c>
       <c r="F86" t="n">
-        <v>2.65741756666667</v>
+        <v>2.69646259753338</v>
       </c>
       <c r="G86" t="n">
-        <v>7.426</v>
+        <v>7.65649928380232</v>
       </c>
       <c r="H86" t="n">
-        <v>314.21551875</v>
+        <v>329.473230750766</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>363.04716881</v>
+        <v>368.022904360005</v>
       </c>
       <c r="K86" t="n">
-        <v>0.15540814232938</v>
+        <v>0.11700396272376</v>
       </c>
     </row>
     <row r="87">
@@ -3394,31 +3394,31 @@
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>64.13</v>
+        <v>67.2781029804055</v>
       </c>
       <c r="D87" t="n">
-        <v>1.135505</v>
+        <v>1.13232481962183</v>
       </c>
       <c r="E87" t="n">
-        <v>95.42</v>
+        <v>90.7459114849195</v>
       </c>
       <c r="F87" t="n">
-        <v>2.64103823333333</v>
+        <v>2.77019822325471</v>
       </c>
       <c r="G87" t="n">
-        <v>5.9925</v>
+        <v>5.79934547124908</v>
       </c>
       <c r="H87" t="n">
-        <v>315.5239</v>
+        <v>327.695308857986</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>324.94677833</v>
+        <v>318.696215515486</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0298642300313858</v>
+        <v>0.027461770428944</v>
       </c>
     </row>
     <row r="88">
@@ -3429,31 +3429,31 @@
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>66.41</v>
+        <v>72.896336543947</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13176666666667</v>
+        <v>1.04693488500867</v>
       </c>
       <c r="E88" t="n">
-        <v>93.12</v>
+        <v>97.7682083355188</v>
       </c>
       <c r="F88" t="n">
-        <v>2.6246589</v>
+        <v>2.72746438529561</v>
       </c>
       <c r="G88" t="n">
-        <v>5.2675</v>
+        <v>5.01956995643955</v>
       </c>
       <c r="H88" t="n">
-        <v>318.64856</v>
+        <v>302.393893010965</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>305.11860441</v>
+        <v>305.316641366669</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0424604322392041</v>
+        <v>0.00966536832672693</v>
       </c>
     </row>
     <row r="89">
@@ -3464,31 +3464,31 @@
         <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>71.2</v>
+        <v>70.6328697813302</v>
       </c>
       <c r="D89" t="n">
-        <v>1.12415714285714</v>
+        <v>1.07301728225268</v>
       </c>
       <c r="E89" t="n">
-        <v>86.77</v>
+        <v>85.3426795423753</v>
       </c>
       <c r="F89" t="n">
-        <v>2.60485196666667</v>
+        <v>2.52642407757816</v>
       </c>
       <c r="G89" t="n">
-        <v>4.935</v>
+        <v>5.24628489649482</v>
       </c>
       <c r="H89" t="n">
-        <v>305.3556625</v>
+        <v>285.612848212375</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>295.0324878</v>
+        <v>302.284537807084</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0338070518014382</v>
+        <v>0.0583716373372396</v>
       </c>
     </row>
     <row r="90">
@@ -3499,31 +3499,31 @@
         <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>70.53</v>
+        <v>75.917902377611</v>
       </c>
       <c r="D90" t="n">
-        <v>1.11841111111111</v>
+        <v>1.17790371938399</v>
       </c>
       <c r="E90" t="n">
-        <v>82.32</v>
+        <v>90.0587376790568</v>
       </c>
       <c r="F90" t="n">
-        <v>2.58504503333333</v>
+        <v>2.53216834780135</v>
       </c>
       <c r="G90" t="n">
-        <v>4.464</v>
+        <v>4.49263863413483</v>
       </c>
       <c r="H90" t="n">
-        <v>295.96278</v>
+        <v>320.092753704257</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>278.94993139</v>
+        <v>287.96071767581</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0574830680060513</v>
+        <v>0.100383515892192</v>
       </c>
     </row>
     <row r="91">
@@ -3534,31 +3534,31 @@
         <v>6</v>
       </c>
       <c r="C91" t="n">
-        <v>63.3</v>
+        <v>60.3081637138221</v>
       </c>
       <c r="D91" t="n">
-        <v>1.12829</v>
+        <v>1.20383170085926</v>
       </c>
       <c r="E91" t="n">
-        <v>72.49</v>
+        <v>72.8499368026904</v>
       </c>
       <c r="F91" t="n">
-        <v>2.5652381</v>
+        <v>2.58402462911389</v>
       </c>
       <c r="G91" t="n">
-        <v>3.6325</v>
+        <v>3.6304364211699</v>
       </c>
       <c r="H91" t="n">
-        <v>279.560475</v>
+        <v>287.630922650644</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>245.542613</v>
+        <v>243.845317649496</v>
       </c>
       <c r="K91" t="n">
-        <v>0.12168337459006</v>
+        <v>0.152228434264454</v>
       </c>
     </row>
     <row r="92">
@@ -3569,31 +3569,31 @@
         <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>64</v>
+        <v>62.7046469062567</v>
       </c>
       <c r="D92" t="n">
-        <v>1.12252272727273</v>
+        <v>1.0771419672523</v>
       </c>
       <c r="E92" t="n">
-        <v>72.08</v>
+        <v>74.7743100126646</v>
       </c>
       <c r="F92" t="n">
-        <v>2.5109587</v>
+        <v>2.63292189583239</v>
       </c>
       <c r="G92" t="n">
-        <v>3.65</v>
+        <v>3.4542306636367</v>
       </c>
       <c r="H92" t="n">
-        <v>246.6103875</v>
+        <v>263.969421605509</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>246.1997508</v>
+        <v>241.737503102797</v>
       </c>
       <c r="K92" t="n">
-        <v>0.00166512329088331</v>
+        <v>0.0842215676630034</v>
       </c>
     </row>
     <row r="93">
@@ -3604,31 +3604,31 @@
         <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>59.25</v>
+        <v>57.450229835452</v>
       </c>
       <c r="D93" t="n">
-        <v>1.11258695652174</v>
+        <v>1.18893714519188</v>
       </c>
       <c r="E93" t="n">
-        <v>65.55</v>
+        <v>65.107541951146</v>
       </c>
       <c r="F93" t="n">
-        <v>2.4566793</v>
+        <v>2.60660993234001</v>
       </c>
       <c r="G93" t="n">
-        <v>3.634</v>
+        <v>3.44290038224794</v>
       </c>
       <c r="H93" t="n">
-        <v>234.160145</v>
+        <v>229.028010794479</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>238.69234491</v>
+        <v>232.070574507995</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0193551294136753</v>
+        <v>0.0132846794720072</v>
       </c>
     </row>
     <row r="94">
@@ -3639,31 +3639,31 @@
         <v>9</v>
       </c>
       <c r="C94" t="n">
-        <v>62.33</v>
+        <v>63.8993306314182</v>
       </c>
       <c r="D94" t="n">
-        <v>1.10152</v>
+        <v>1.14889547048461</v>
       </c>
       <c r="E94" t="n">
-        <v>65.95</v>
+        <v>63.1187734377361</v>
       </c>
       <c r="F94" t="n">
-        <v>2.4023999</v>
+        <v>2.6392296831611</v>
       </c>
       <c r="G94" t="n">
-        <v>4.1125</v>
+        <v>3.7912614487682</v>
       </c>
       <c r="H94" t="n">
-        <v>235.53129375</v>
+        <v>221.956026653186</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>253.93741013</v>
+        <v>244.361334025165</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0781472223369892</v>
+        <v>0.100944802940574</v>
       </c>
     </row>
     <row r="95">
@@ -3674,31 +3674,31 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>59.37</v>
+        <v>65.0371867492888</v>
       </c>
       <c r="D95" t="n">
-        <v>1.10387826086957</v>
+        <v>1.16951791453445</v>
       </c>
       <c r="E95" t="n">
-        <v>69.2</v>
+        <v>70.2338976825587</v>
       </c>
       <c r="F95" t="n">
-        <v>2.42049303333333</v>
+        <v>2.43897581676617</v>
       </c>
       <c r="G95" t="n">
-        <v>4.912</v>
+        <v>4.64308930469677</v>
       </c>
       <c r="H95" t="n">
-        <v>226.25415</v>
+        <v>247.499372821374</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>275.97364495</v>
+        <v>272.814774044006</v>
       </c>
       <c r="K95" t="n">
-        <v>0.219750643026879</v>
+        <v>0.102284708579454</v>
       </c>
     </row>
     <row r="96">
@@ -3709,31 +3709,31 @@
         <v>11</v>
       </c>
       <c r="C96" t="n">
-        <v>62.74</v>
+        <v>59.0449453943912</v>
       </c>
       <c r="D96" t="n">
-        <v>1.10502</v>
+        <v>1.08260011858957</v>
       </c>
       <c r="E96" t="n">
-        <v>66.99</v>
+        <v>62.8190672783735</v>
       </c>
       <c r="F96" t="n">
-        <v>2.43858616666667</v>
+        <v>2.24115163331267</v>
       </c>
       <c r="G96" t="n">
-        <v>5.11</v>
+        <v>5.15105426699901</v>
       </c>
       <c r="H96" t="n">
-        <v>229.890105</v>
+        <v>209.202111617016</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>282.09615294</v>
+        <v>278.289002321625</v>
       </c>
       <c r="K96" t="n">
-        <v>0.227091322351608</v>
+        <v>0.33023993003993</v>
       </c>
     </row>
     <row r="97">
@@ -3744,31 +3744,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>65.85</v>
+        <v>70.3967566039762</v>
       </c>
       <c r="D97" t="n">
-        <v>1.11061428571429</v>
+        <v>1.03313739674672</v>
       </c>
       <c r="E97" t="n">
-        <v>66.18</v>
+        <v>67.7623729150761</v>
       </c>
       <c r="F97" t="n">
-        <v>2.4566793</v>
+        <v>2.48832867890211</v>
       </c>
       <c r="G97" t="n">
-        <v>4.86</v>
+        <v>4.72935742692836</v>
       </c>
       <c r="H97" t="n">
-        <v>224.708083333333</v>
+        <v>208.600731570235</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>276.69853255</v>
+        <v>276.962351632132</v>
       </c>
       <c r="K97" t="n">
-        <v>0.231368842835725</v>
+        <v>0.327715150121033</v>
       </c>
     </row>
     <row r="98">
@@ -3779,31 +3779,31 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>63.6</v>
+        <v>68.6980096399784</v>
       </c>
       <c r="D98" t="n">
-        <v>1.11056842105263</v>
+        <v>1.21450731541067</v>
       </c>
       <c r="E98" t="n">
-        <v>69.66</v>
+        <v>74.4207408072464</v>
       </c>
       <c r="F98" t="n">
-        <v>1.29954037702048</v>
+        <v>1.18851241556498</v>
       </c>
       <c r="G98" t="n">
-        <v>3.762</v>
+        <v>3.92203652253142</v>
       </c>
       <c r="H98" t="n">
-        <v>256.9306</v>
+        <v>246.79149297848</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>247.48803808</v>
+        <v>258.034881459137</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0367514103808577</v>
+        <v>0.0455582497798555</v>
       </c>
     </row>
     <row r="99">
@@ -3814,31 +3814,31 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>55</v>
+        <v>49.944587924052</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09178947368421</v>
+        <v>1.09377688471144</v>
       </c>
       <c r="E99" t="n">
-        <v>67.64</v>
+        <v>66.6676132727936</v>
       </c>
       <c r="F99" t="n">
-        <v>0.14240145404096</v>
+        <v>0.153778161372486</v>
       </c>
       <c r="G99" t="n">
-        <v>2.9275</v>
+        <v>2.95095248481794</v>
       </c>
       <c r="H99" t="n">
-        <v>266.43094375</v>
+        <v>285.298982275948</v>
       </c>
       <c r="I99" t="n">
-        <v>0.14240145404096</v>
+        <v>0.153778161372486</v>
       </c>
       <c r="J99" t="n">
-        <v>218.0543515</v>
+        <v>214.928472491638</v>
       </c>
       <c r="K99" t="n">
-        <v>0.181572724132949</v>
+        <v>0.246655313043655</v>
       </c>
     </row>
     <row r="100">
@@ -3849,31 +3849,31 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>32.98</v>
+        <v>35.8204161269637</v>
       </c>
       <c r="D100" t="n">
-        <v>1.10631</v>
+        <v>1.18928785527261</v>
       </c>
       <c r="E100" t="n">
-        <v>66.74</v>
+        <v>70.2645528646177</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.01473746893856</v>
+        <v>-0.98093070687356</v>
       </c>
       <c r="G100" t="n">
-        <v>2.82</v>
+        <v>2.63467661722004</v>
       </c>
       <c r="H100" t="n">
-        <v>218.870075</v>
+        <v>239.221057831732</v>
       </c>
       <c r="I100" t="n">
-        <v>-1.01473746893856</v>
+        <v>-0.98093070687356</v>
       </c>
       <c r="J100" t="n">
-        <v>200.80893998</v>
+        <v>199.73524946356</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0825198923151099</v>
+        <v>0.165059918746559</v>
       </c>
     </row>
     <row r="101">
@@ -3884,31 +3884,31 @@
         <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>23.34</v>
+        <v>25.5757164418632</v>
       </c>
       <c r="D101" t="n">
-        <v>1.08867142857143</v>
+        <v>0.987887656123235</v>
       </c>
       <c r="E101" t="n">
-        <v>58.55</v>
+        <v>60.447715083214</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.68366897757253</v>
       </c>
       <c r="G101" t="n">
-        <v>2.216</v>
+        <v>2.37134135396816</v>
       </c>
       <c r="H101" t="n">
-        <v>165.01195</v>
+        <v>176.761493615955</v>
       </c>
       <c r="I101" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.68366897757253</v>
       </c>
       <c r="J101" t="n">
-        <v>173.14335258</v>
+        <v>179.975392188242</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0492776588604642</v>
+        <v>0.018182119343652</v>
       </c>
     </row>
     <row r="102">
@@ -3919,31 +3919,31 @@
         <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>31.02</v>
+        <v>28.6606166342441</v>
       </c>
       <c r="D102" t="n">
-        <v>1.08883181818182</v>
+        <v>1.07888230868088</v>
       </c>
       <c r="E102" t="n">
-        <v>52.49</v>
+        <v>57.3373941212641</v>
       </c>
       <c r="F102" t="n">
-        <v>-6.76959153825622</v>
+        <v>-7.12064038635344</v>
       </c>
       <c r="G102" t="n">
-        <v>1.6025</v>
+        <v>1.44276073642145</v>
       </c>
       <c r="H102" t="n">
-        <v>161.55253</v>
+        <v>148.819927323294</v>
       </c>
       <c r="I102" t="n">
-        <v>-6.76959153825622</v>
+        <v>-7.12064038635344</v>
       </c>
       <c r="J102" t="n">
-        <v>157.36711272</v>
+        <v>154.578807335302</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0259074697251723</v>
+        <v>0.0386969683132403</v>
       </c>
     </row>
     <row r="103">
@@ -3954,31 +3954,31 @@
         <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>39.93</v>
+        <v>41.3548821754209</v>
       </c>
       <c r="D103" t="n">
-        <v>1.12609047619048</v>
+        <v>1.05087643907143</v>
       </c>
       <c r="E103" t="n">
-        <v>52.21</v>
+        <v>53.2878981742756</v>
       </c>
       <c r="F103" t="n">
-        <v>-9.64701857291505</v>
+        <v>-8.91924180192224</v>
       </c>
       <c r="G103" t="n">
-        <v>1.6725</v>
+        <v>1.66435530511464</v>
       </c>
       <c r="H103" t="n">
-        <v>173.4710625</v>
+        <v>170.745321845679</v>
       </c>
       <c r="I103" t="n">
-        <v>-9.64701857291505</v>
+        <v>-8.91924180192224</v>
       </c>
       <c r="J103" t="n">
-        <v>164.66409573</v>
+        <v>166.008629040531</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0507690829990736</v>
+        <v>0.0277412742788268</v>
       </c>
     </row>
     <row r="104">
@@ -3989,31 +3989,31 @@
         <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>42.81</v>
+        <v>38.5511582200457</v>
       </c>
       <c r="D104" t="n">
-        <v>1.14287826086957</v>
+        <v>1.13573674703457</v>
       </c>
       <c r="E104" t="n">
-        <v>51.56</v>
+        <v>50.4213852595352</v>
       </c>
       <c r="F104" t="n">
-        <v>-6.76959153825622</v>
+        <v>-6.32022548974088</v>
       </c>
       <c r="G104" t="n">
-        <v>1.796</v>
+        <v>1.95956169957407</v>
       </c>
       <c r="H104" t="n">
-        <v>191.14311</v>
+        <v>181.38980780365</v>
       </c>
       <c r="I104" t="n">
-        <v>-6.76959153825622</v>
+        <v>-6.32022548974088</v>
       </c>
       <c r="J104" t="n">
-        <v>169.42652055</v>
+        <v>170.520669345729</v>
       </c>
       <c r="K104" t="n">
-        <v>0.11361429376136</v>
+        <v>0.0599214398511658</v>
       </c>
     </row>
     <row r="105">
@@ -4024,31 +4024,31 @@
         <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>44.26</v>
+        <v>41.9518028020039</v>
       </c>
       <c r="D105" t="n">
-        <v>1.18269047619048</v>
+        <v>1.24063263366411</v>
       </c>
       <c r="E105" t="n">
-        <v>50.14</v>
+        <v>50.9588300813716</v>
       </c>
       <c r="F105" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.6492306852301</v>
       </c>
       <c r="G105" t="n">
-        <v>2.64</v>
+        <v>2.57713883810118</v>
       </c>
       <c r="H105" t="n">
-        <v>223.1313625</v>
+        <v>225.575739357192</v>
       </c>
       <c r="I105" t="n">
-        <v>-3.89216450359739</v>
+        <v>-3.6492306852301</v>
       </c>
       <c r="J105" t="n">
-        <v>192.49439286</v>
+        <v>189.851475754256</v>
       </c>
       <c r="K105" t="n">
-        <v>0.13730463210881</v>
+        <v>0.158369263045473</v>
       </c>
     </row>
     <row r="106">
@@ -4059,31 +4059,31 @@
         <v>9</v>
       </c>
       <c r="C106" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D106" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E106" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F106" t="n">
         <v>-3</v>
       </c>
       <c r="G106" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H106" t="n">
-        <v>241.47715</v>
+        <v>238.1854048711</v>
       </c>
       <c r="I106" t="n">
         <v>-3</v>
       </c>
       <c r="J106" t="n">
-        <v>223.460252056667</v>
+        <v>211.862085990192</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0746111917559629</v>
+        <v>0.110516086807056</v>
       </c>
     </row>
     <row r="107">
@@ -4094,26 +4094,26 @@
         <v>10</v>
       </c>
       <c r="C107" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D107" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E107" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F107" t="n">
         <v>-2</v>
       </c>
       <c r="G107" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H107"/>
       <c r="I107" t="n">
         <v>-2</v>
       </c>
       <c r="J107" t="n">
-        <v>223.460252056667</v>
+        <v>211.862085990192</v>
       </c>
       <c r="K107"/>
     </row>
@@ -4125,26 +4125,26 @@
         <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E108" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F108" t="n">
         <v>-2</v>
       </c>
       <c r="G108" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H108"/>
       <c r="I108" t="n">
         <v>-2</v>
       </c>
       <c r="J108" t="n">
-        <v>223.460252056667</v>
+        <v>211.862085990192</v>
       </c>
       <c r="K108"/>
     </row>
@@ -4156,26 +4156,26 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>41.09</v>
+        <v>41.24238683978</v>
       </c>
       <c r="D109" t="n">
-        <v>1.18105652173913</v>
+        <v>1.24222622327331</v>
       </c>
       <c r="E109" t="n">
-        <v>54.6</v>
+        <v>51.083232963765</v>
       </c>
       <c r="F109" t="n">
         <v>-2</v>
       </c>
       <c r="G109" t="n">
-        <v>3.74333333333333</v>
+        <v>3.39622396475387</v>
       </c>
       <c r="H109"/>
       <c r="I109" t="n">
         <v>-2</v>
       </c>
       <c r="J109" t="n">
-        <v>223.460252056667</v>
+        <v>211.862085990192</v>
       </c>
       <c r="K109"/>
     </row>

--- a/1.Data/tempdata2.xlsx
+++ b/1.Data/tempdata2.xlsx
@@ -419,31 +419,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>111.370873235031</v>
+        <v>111.15619047619</v>
       </c>
       <c r="D2" t="n">
-        <v>1.37644289076506</v>
+        <v>1.28945340920919</v>
       </c>
       <c r="E2" t="n">
-        <v>123.069767808923</v>
+        <v>116.46</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05403644639639</v>
+        <v>1.94361731025613</v>
       </c>
       <c r="G2" t="n">
-        <v>8.21656081887824</v>
+        <v>8.2425</v>
       </c>
       <c r="H2" t="n">
-        <v>376.745437902663</v>
+        <v>359.6271375</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>432.57059813702</v>
+        <v>428.989241494285</v>
       </c>
       <c r="K2" t="n">
-        <v>0.148177402081191</v>
+        <v>0.192872274535415</v>
       </c>
     </row>
     <row r="3">
@@ -454,31 +454,31 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>125.668559254674</v>
+        <v>119.702380952381</v>
       </c>
       <c r="D3" t="n">
-        <v>1.28186950310027</v>
+        <v>1.32124992060122</v>
       </c>
       <c r="E3" t="n">
-        <v>122.864472490235</v>
+        <v>117.02</v>
       </c>
       <c r="F3" t="n">
-        <v>1.96257446540429</v>
+        <v>1.88481087516663</v>
       </c>
       <c r="G3" t="n">
-        <v>8.83052816250362</v>
+        <v>9.1</v>
       </c>
       <c r="H3" t="n">
-        <v>376.827087698649</v>
+        <v>376.22136875</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>458.136753049824</v>
+        <v>458.099651878571</v>
       </c>
       <c r="K3" t="n">
-        <v>0.21577447058742</v>
+        <v>0.217633260440822</v>
       </c>
     </row>
     <row r="4">
@@ -489,31 +489,31 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>118.398860087051</v>
+        <v>124.928636363636</v>
       </c>
       <c r="D4" t="n">
-        <v>1.22039718368561</v>
+        <v>1.32179594236881</v>
       </c>
       <c r="E4" t="n">
-        <v>106.008016270199</v>
+        <v>107.46</v>
       </c>
       <c r="F4" t="n">
-        <v>1.89709927354809</v>
+        <v>1.82600444007713</v>
       </c>
       <c r="G4" t="n">
-        <v>9.46182370198891</v>
+        <v>9.48</v>
       </c>
       <c r="H4" t="n">
-        <v>378.901320691738</v>
+        <v>386.14925</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>460.246240182759</v>
+        <v>465.731020969545</v>
       </c>
       <c r="K4" t="n">
-        <v>0.214686291783081</v>
+        <v>0.206090704486789</v>
       </c>
     </row>
     <row r="5">
@@ -524,31 +524,31 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>121.322217430153</v>
+        <v>120.4635</v>
       </c>
       <c r="D5" t="n">
-        <v>1.23622503909414</v>
+        <v>1.31618096674676</v>
       </c>
       <c r="E5" t="n">
-        <v>97.0997106329282</v>
+        <v>103.59</v>
       </c>
       <c r="F5" t="n">
-        <v>1.81673791471238</v>
+        <v>1.74378085286223</v>
       </c>
       <c r="G5" t="n">
-        <v>10.3952170906577</v>
+        <v>9.4775</v>
       </c>
       <c r="H5" t="n">
-        <v>405.961700639677</v>
+        <v>403.1772375</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>481.967284617708</v>
+        <v>460.4426859485</v>
       </c>
       <c r="K5" t="n">
-        <v>0.187223533299493</v>
+        <v>0.14203542046071</v>
       </c>
     </row>
     <row r="6">
@@ -559,31 +559,31 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>119.544369436967</v>
+        <v>110.521739130435</v>
       </c>
       <c r="D6" t="n">
-        <v>1.39543544893587</v>
+        <v>1.28042617397904</v>
       </c>
       <c r="E6" t="n">
-        <v>93.9650173833598</v>
+        <v>95.83</v>
       </c>
       <c r="F6" t="n">
-        <v>1.63110889144954</v>
+        <v>1.66155726564733</v>
       </c>
       <c r="G6" t="n">
-        <v>8.80687358103544</v>
+        <v>9.246</v>
       </c>
       <c r="H6" t="n">
-        <v>440.62942093395</v>
+        <v>403.75115625</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>435.497579546441</v>
+        <v>443.034804970435</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0116466153726908</v>
+        <v>0.0972966841390561</v>
       </c>
     </row>
     <row r="7">
@@ -594,31 +594,31 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>103.111743829611</v>
+        <v>95.5890476190476</v>
       </c>
       <c r="D7" t="n">
-        <v>1.33095483463274</v>
+        <v>1.25212240064324</v>
       </c>
       <c r="E7" t="n">
-        <v>88.9056631866414</v>
+        <v>87.19</v>
       </c>
       <c r="F7" t="n">
-        <v>1.55123636041482</v>
+        <v>1.57933367843243</v>
       </c>
       <c r="G7" t="n">
-        <v>7.8713428494829</v>
+        <v>8.6375</v>
       </c>
       <c r="H7" t="n">
-        <v>348.696962356721</v>
+        <v>372.22662</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>396.504560080083</v>
+        <v>411.660120998571</v>
       </c>
       <c r="K7" t="n">
-        <v>0.137103568096055</v>
+        <v>0.105939497284131</v>
       </c>
     </row>
     <row r="8">
@@ -629,31 +629,31 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>94.7483903348989</v>
+        <v>103.140909090909</v>
       </c>
       <c r="D8" t="n">
-        <v>1.20178220605928</v>
+        <v>1.23035702971676</v>
       </c>
       <c r="E8" t="n">
-        <v>80.7015787023269</v>
+        <v>88.24</v>
       </c>
       <c r="F8" t="n">
-        <v>1.54848087970002</v>
+        <v>1.55752684787293</v>
       </c>
       <c r="G8" t="n">
-        <v>8.70999835627712</v>
+        <v>8.73</v>
       </c>
       <c r="H8" t="n">
-        <v>369.252506658475</v>
+        <v>351.068475</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>409.036252763207</v>
+        <v>419.560363513636</v>
       </c>
       <c r="K8" t="n">
-        <v>0.107741302732789</v>
+        <v>0.195095525206689</v>
       </c>
     </row>
     <row r="9">
@@ -664,31 +664,31 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>104.571437823052</v>
+        <v>113.34</v>
       </c>
       <c r="D9" t="n">
-        <v>1.21741554436037</v>
+        <v>1.23815485795614</v>
       </c>
       <c r="E9" t="n">
-        <v>89.9695677244104</v>
+        <v>91</v>
       </c>
       <c r="F9" t="n">
-        <v>1.40975611684775</v>
+        <v>1.53572001731344</v>
       </c>
       <c r="G9" t="n">
-        <v>8.33443062588572</v>
+        <v>8.85</v>
       </c>
       <c r="H9" t="n">
-        <v>345.666957670224</v>
+        <v>357.85056</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>410.734791704254</v>
+        <v>430.93917474</v>
       </c>
       <c r="K9" t="n">
-        <v>0.188238512794463</v>
+        <v>0.204243399088156</v>
       </c>
     </row>
     <row r="10">
@@ -699,31 +699,31 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>116.348233962812</v>
+        <v>113.3825</v>
       </c>
       <c r="D10" t="n">
-        <v>1.23725110578774</v>
+        <v>1.28417168834087</v>
       </c>
       <c r="E10" t="n">
-        <v>89.3274700337052</v>
+        <v>88.96</v>
       </c>
       <c r="F10" t="n">
-        <v>1.53938665220507</v>
+        <v>1.51391318675394</v>
       </c>
       <c r="G10" t="n">
-        <v>8.94076798828412</v>
+        <v>9.58</v>
       </c>
       <c r="H10" t="n">
-        <v>371.521726563412</v>
+        <v>382.12528125</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>434.244557625432</v>
+        <v>449.6246142575</v>
       </c>
       <c r="K10" t="n">
-        <v>0.16882681839958</v>
+        <v>0.176641892906687</v>
       </c>
     </row>
     <row r="11">
@@ -734,31 +734,31 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>111.015691746014</v>
+        <v>111.97347826087</v>
       </c>
       <c r="D11" t="n">
-        <v>1.26709233384617</v>
+        <v>1.29644086060586</v>
       </c>
       <c r="E11" t="n">
-        <v>87.6665758427815</v>
+        <v>81.85</v>
       </c>
       <c r="F11" t="n">
-        <v>1.51182125115636</v>
+        <v>1.38704508985128</v>
       </c>
       <c r="G11" t="n">
-        <v>9.44357603481039</v>
+        <v>10.1125</v>
       </c>
       <c r="H11" t="n">
-        <v>389.724295284869</v>
+        <v>410.8926625</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>443.607483619368</v>
+        <v>458.82117499087</v>
       </c>
       <c r="K11" t="n">
-        <v>0.13825976205849</v>
+        <v>0.116644848801285</v>
       </c>
     </row>
     <row r="12">
@@ -769,31 +769,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>106.041745612469</v>
+        <v>109.711818181818</v>
       </c>
       <c r="D12" t="n">
-        <v>1.35479657928551</v>
+        <v>1.28342852071292</v>
       </c>
       <c r="E12" t="n">
-        <v>89.978491292357</v>
+        <v>85.89</v>
       </c>
       <c r="F12" t="n">
-        <v>1.17914113190113</v>
+        <v>1.26017699294861</v>
       </c>
       <c r="G12" t="n">
-        <v>9.6599282190674</v>
+        <v>10.29</v>
       </c>
       <c r="H12" t="n">
-        <v>454.856786950607</v>
+        <v>427.02757</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>447.866973623963</v>
+        <v>464.798648557273</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0153670639356719</v>
+        <v>0.0884511474452869</v>
       </c>
     </row>
     <row r="13">
@@ -804,31 +804,31 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>113.694805145724</v>
+        <v>109.6765</v>
       </c>
       <c r="D13" t="n">
-        <v>1.34237385324434</v>
+        <v>1.3110953849636</v>
       </c>
       <c r="E13" t="n">
-        <v>91.449509160284</v>
+        <v>92.88</v>
       </c>
       <c r="F13" t="n">
-        <v>1.0225951976864</v>
+        <v>1.13330889604595</v>
       </c>
       <c r="G13" t="n">
-        <v>10.2143610463623</v>
+        <v>10.5625</v>
       </c>
       <c r="H13" t="n">
-        <v>406.157130153769</v>
+        <v>431.716616666667</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>468.713824064053</v>
+        <v>476.6155863915</v>
       </c>
       <c r="K13" t="n">
-        <v>0.154020917684248</v>
+        <v>0.10400102287353</v>
       </c>
     </row>
     <row r="14">
@@ -839,31 +839,31 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>116.220838361996</v>
+        <v>112.973636363636</v>
       </c>
       <c r="D14" t="n">
-        <v>1.37215041853538</v>
+        <v>1.33242974109691</v>
       </c>
       <c r="E14" t="n">
-        <v>96.3418589343033</v>
+        <v>92.77</v>
       </c>
       <c r="F14" t="n">
-        <v>1.21117368309197</v>
+        <v>1.14321460248121</v>
       </c>
       <c r="G14" t="n">
-        <v>9.41894401018321</v>
+        <v>10.36</v>
       </c>
       <c r="H14" t="n">
-        <v>419.094909761481</v>
+        <v>423.9896875</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>451.637864947213</v>
+        <v>473.072460764545</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0776505617886258</v>
+        <v>0.115764073305545</v>
       </c>
     </row>
     <row r="15">
@@ -874,31 +874,31 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>124.281899567633</v>
+        <v>116.5195</v>
       </c>
       <c r="D15" t="n">
-        <v>1.25092995770731</v>
+        <v>1.33865507742874</v>
       </c>
       <c r="E15" t="n">
-        <v>104.075591012143</v>
+        <v>94.94</v>
       </c>
       <c r="F15" t="n">
-        <v>1.19156442260057</v>
+        <v>1.15312030891647</v>
       </c>
       <c r="G15" t="n">
-        <v>10.2085712968558</v>
+        <v>10.08</v>
       </c>
       <c r="H15" t="n">
-        <v>434.135552723485</v>
+        <v>446.5117625</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>483.101961399171</v>
+        <v>469.0010552645</v>
       </c>
       <c r="K15" t="n">
-        <v>0.112790598163414</v>
+        <v>0.0503666300716994</v>
       </c>
     </row>
     <row r="16">
@@ -909,31 +909,31 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>118.529676671486</v>
+        <v>109.24</v>
       </c>
       <c r="D16" t="n">
-        <v>1.17969748882147</v>
+        <v>1.2965747351266</v>
       </c>
       <c r="E16" t="n">
-        <v>86.7127679638471</v>
+        <v>90.98</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0741066274455</v>
+        <v>1.16302601535173</v>
       </c>
       <c r="G16" t="n">
-        <v>9.45417537085991</v>
+        <v>10.1725</v>
       </c>
       <c r="H16" t="n">
-        <v>402.048937614277</v>
+        <v>441.01218</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>447.986872629935</v>
+        <v>464.49479434</v>
       </c>
       <c r="K16" t="n">
-        <v>0.114259560759568</v>
+        <v>0.0532470879602465</v>
       </c>
     </row>
     <row r="17">
@@ -944,31 +944,31 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>107.037615480886</v>
+        <v>102.875454545455</v>
       </c>
       <c r="D17" t="n">
-        <v>1.33014506310706</v>
+        <v>1.30080003462069</v>
       </c>
       <c r="E17" t="n">
-        <v>92.0904179349989</v>
+        <v>87.76</v>
       </c>
       <c r="F17" t="n">
-        <v>1.28417040849347</v>
+        <v>1.26114546310179</v>
       </c>
       <c r="G17" t="n">
-        <v>9.74977300747111</v>
+        <v>10.345</v>
       </c>
       <c r="H17" t="n">
-        <v>499.18809497616</v>
+        <v>458.29545</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>452.270713606811</v>
+        <v>463.210228211819</v>
       </c>
       <c r="K17" t="n">
-        <v>0.093987380391332</v>
+        <v>0.0107240388527063</v>
       </c>
     </row>
     <row r="18">
@@ -979,31 +979,31 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>93.3559608814247</v>
+        <v>103.026956521739</v>
       </c>
       <c r="D18" t="n">
-        <v>1.27507403429307</v>
+        <v>1.29599812388292</v>
       </c>
       <c r="E18" t="n">
-        <v>115</v>
+        <v>87.71</v>
       </c>
       <c r="F18" t="n">
-        <v>1.43796124716444</v>
+        <v>1.35926491085185</v>
       </c>
       <c r="G18" t="n">
-        <v>10.9912576424653</v>
+        <v>10.036</v>
       </c>
       <c r="H18" t="n">
-        <v>478.667950910275</v>
+        <v>454.97385</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>492.050405022726</v>
+        <v>454.832317101739</v>
       </c>
       <c r="K18" t="n">
-        <v>0.027957698206035</v>
+        <v>0.000311079193366814</v>
       </c>
     </row>
     <row r="19">
@@ -1014,31 +1014,31 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>95.2042173520261</v>
+        <v>103.11</v>
       </c>
       <c r="D19" t="n">
-        <v>1.32262921569386</v>
+        <v>1.3193602052329</v>
       </c>
       <c r="E19" t="n">
-        <v>90.1478279335203</v>
+        <v>82.7543194620071</v>
       </c>
       <c r="F19" t="n">
-        <v>1.58578929028086</v>
+        <v>1.45738435860191</v>
       </c>
       <c r="G19" t="n">
-        <v>9.97632119217562</v>
+        <v>10.07</v>
       </c>
       <c r="H19" t="n">
-        <v>430.061626976912</v>
+        <v>452.44875</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>449.852607911018</v>
+        <v>452.696997914932</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0460189416880215</v>
+        <v>0.000548676319542585</v>
       </c>
     </row>
     <row r="20">
@@ -1049,31 +1049,31 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>100.707484305537</v>
+        <v>107.716086956522</v>
       </c>
       <c r="D20" t="n">
-        <v>1.30402678192316</v>
+        <v>1.30772257149181</v>
       </c>
       <c r="E20" t="n">
-        <v>75.7372286908652</v>
+        <v>77.2592108288309</v>
       </c>
       <c r="F20" t="n">
-        <v>1.66511578795511</v>
+        <v>1.59183744744634</v>
       </c>
       <c r="G20" t="n">
-        <v>10.0718301793165</v>
+        <v>9.985</v>
       </c>
       <c r="H20" t="n">
-        <v>440.488109604262</v>
+        <v>478.17549375</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>446.835490896713</v>
+        <v>449.794637547258</v>
       </c>
       <c r="K20" t="n">
-        <v>0.014409881116096</v>
+        <v>0.0593523854185227</v>
       </c>
     </row>
     <row r="21">
@@ -1084,31 +1084,31 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>117.087931608069</v>
+        <v>110.964545454545</v>
       </c>
       <c r="D21" t="n">
-        <v>1.41627839527551</v>
+        <v>1.33140411733142</v>
       </c>
       <c r="E21" t="n">
-        <v>80.2846986846775</v>
+        <v>76.96</v>
       </c>
       <c r="F21" t="n">
-        <v>1.69373796781152</v>
+        <v>1.72629053629078</v>
       </c>
       <c r="G21" t="n">
-        <v>9.98871042247955</v>
+        <v>10.044</v>
       </c>
       <c r="H21" t="n">
-        <v>462.52391548571</v>
+        <v>485.5538</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>457.647373130197</v>
+        <v>453.245621588182</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0105433301765431</v>
+        <v>0.0665388231166525</v>
       </c>
     </row>
     <row r="22">
@@ -1119,31 +1119,31 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>107.131214829431</v>
+        <v>111.621428571429</v>
       </c>
       <c r="D22" t="n">
-        <v>1.40801094987813</v>
+        <v>1.33403484674122</v>
       </c>
       <c r="E22" t="n">
-        <v>71.7031714751414</v>
+        <v>77.6125</v>
       </c>
       <c r="F22" t="n">
-        <v>1.68870169603023</v>
+        <v>1.86074362513521</v>
       </c>
       <c r="G22" t="n">
-        <v>10.6841016711979</v>
+        <v>10.3275</v>
       </c>
       <c r="H22" t="n">
-        <v>464.644431392019</v>
+        <v>495.4801875</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>465.033725251635</v>
+        <v>461.810293007143</v>
       </c>
       <c r="K22" t="n">
-        <v>0.000837831755456042</v>
+        <v>0.067954068280191</v>
       </c>
     </row>
     <row r="23">
@@ -1154,31 +1154,31 @@
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>106.684920360375</v>
+        <v>109.478695652174</v>
       </c>
       <c r="D23" t="n">
-        <v>1.32563792126991</v>
+        <v>1.36296071657827</v>
       </c>
       <c r="E23" t="n">
-        <v>115</v>
+        <v>79.4125</v>
       </c>
       <c r="F23" t="n">
-        <v>2.22606210740248</v>
+        <v>2.08044982554345</v>
       </c>
       <c r="G23" t="n">
-        <v>10.6523223561835</v>
+        <v>10.738</v>
       </c>
       <c r="H23" t="n">
-        <v>557.538147367645</v>
+        <v>518.0301125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>491.110378692264</v>
+        <v>472.818484842174</v>
       </c>
       <c r="K23" t="n">
-        <v>0.119144795722073</v>
+        <v>0.0872760609217017</v>
       </c>
     </row>
     <row r="24">
@@ -1189,31 +1189,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>111.30587207353</v>
+        <v>108.07619047619</v>
       </c>
       <c r="D24" t="n">
-        <v>1.41936134759957</v>
+        <v>1.35066091003443</v>
       </c>
       <c r="E24" t="n">
-        <v>250</v>
+        <v>82.25</v>
       </c>
       <c r="F24" t="n">
-        <v>2.20988844000371</v>
+        <v>2.30015602595169</v>
       </c>
       <c r="G24" t="n">
-        <v>11.6510116429203</v>
+        <v>10.91</v>
       </c>
       <c r="H24" t="n">
-        <v>520.901897414127</v>
+        <v>530.197715</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>606.158400418131</v>
+        <v>478.425837714285</v>
       </c>
       <c r="K24" t="n">
-        <v>0.163670939628434</v>
+        <v>0.0976463606330604</v>
       </c>
     </row>
     <row r="25">
@@ -1224,31 +1224,31 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>112.576742696324</v>
+        <v>110.674</v>
       </c>
       <c r="D25" t="n">
-        <v>1.24979793757064</v>
+        <v>1.36951377232217</v>
       </c>
       <c r="E25" t="n">
-        <v>250</v>
+        <v>84.3375</v>
       </c>
       <c r="F25" t="n">
-        <v>2.53835282094663</v>
+        <v>2.51986222635993</v>
       </c>
       <c r="G25" t="n">
-        <v>11.9027976013012</v>
+        <v>11.2866666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>492.982649492692</v>
+        <v>537.705316666667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>613.829662207115</v>
+        <v>491.649189447334</v>
       </c>
       <c r="K25" t="n">
-        <v>0.245134413632572</v>
+        <v>0.0856530999262626</v>
       </c>
     </row>
     <row r="26">
@@ -1259,31 +1259,31 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>114.184355004434</v>
+        <v>107.42</v>
       </c>
       <c r="D26" t="n">
-        <v>1.33852335158658</v>
+        <v>1.36332324021673</v>
       </c>
       <c r="E26" t="n">
-        <v>250</v>
+        <v>81.61</v>
       </c>
       <c r="F26" t="n">
-        <v>2.82369372427273</v>
+        <v>2.59157382160382</v>
       </c>
       <c r="G26" t="n">
-        <v>11.6036174321903</v>
+        <v>10.714</v>
       </c>
       <c r="H26" t="n">
-        <v>580.764021240732</v>
+        <v>532.24483</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>606.660214249498</v>
+        <v>472.25971658</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0445898713791575</v>
+        <v>0.11270210632201</v>
       </c>
     </row>
     <row r="27">
@@ -1294,31 +1294,31 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>111.47765318131</v>
+        <v>108.81</v>
       </c>
       <c r="D27" t="n">
-        <v>1.26173581544375</v>
+        <v>1.36301698520082</v>
       </c>
       <c r="E27" t="n">
-        <v>250</v>
+        <v>76.29</v>
       </c>
       <c r="F27" t="n">
-        <v>2.5514104617153</v>
+        <v>2.66328541684771</v>
       </c>
       <c r="G27" t="n">
-        <v>8.78179310372332</v>
+        <v>9.6975</v>
       </c>
       <c r="H27" t="n">
-        <v>580.713306057532</v>
+        <v>541.933384375</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>527.886479449395</v>
+        <v>442.01425321</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0909688585694348</v>
+        <v>0.184375301551563</v>
       </c>
     </row>
     <row r="28">
@@ -1329,31 +1329,31 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>110.541252662363</v>
+        <v>107.4</v>
       </c>
       <c r="D28" t="n">
-        <v>1.32086989692509</v>
+        <v>1.38211007087117</v>
       </c>
       <c r="E28" t="n">
-        <v>250</v>
+        <v>73.34</v>
       </c>
       <c r="F28" t="n">
-        <v>2.94190680009661</v>
+        <v>2.73499701209159</v>
       </c>
       <c r="G28" t="n">
-        <v>8.61076802340976</v>
+        <v>9.4575</v>
       </c>
       <c r="H28" t="n">
-        <v>542.213225305451</v>
+        <v>524.04735625</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>522.63012842017</v>
+        <v>432.7232771</v>
       </c>
       <c r="K28" t="n">
-        <v>0.036116966483525</v>
+        <v>0.174266844514779</v>
       </c>
     </row>
     <row r="29">
@@ -1364,31 +1364,31 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>101.226118124344</v>
+        <v>107.79</v>
       </c>
       <c r="D29" t="n">
-        <v>1.33310148185806</v>
+        <v>1.380527404527</v>
       </c>
       <c r="E29" t="n">
-        <v>250</v>
+        <v>72.82</v>
       </c>
       <c r="F29" t="n">
-        <v>2.59100045713935</v>
+        <v>2.78222737076019</v>
       </c>
       <c r="G29" t="n">
-        <v>9.04957533496211</v>
+        <v>8.5025</v>
       </c>
       <c r="H29" t="n">
-        <v>449.012086248905</v>
+        <v>469.051525</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>528.803455131943</v>
+        <v>406.55176099</v>
       </c>
       <c r="K29" t="n">
-        <v>0.177704278630055</v>
+        <v>0.133247118235038</v>
       </c>
     </row>
     <row r="30">
@@ -1399,31 +1399,31 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>120.195686869361</v>
+        <v>109.68</v>
       </c>
       <c r="D30" t="n">
-        <v>1.32915260317857</v>
+        <v>1.37171596763391</v>
       </c>
       <c r="E30" t="n">
-        <v>67.6778091547936</v>
+        <v>73.69</v>
       </c>
       <c r="F30" t="n">
-        <v>2.6769915984286</v>
+        <v>2.82945772942879</v>
       </c>
       <c r="G30" t="n">
-        <v>7.98490409018341</v>
+        <v>7.914</v>
       </c>
       <c r="H30" t="n">
-        <v>398.094709841987</v>
+        <v>402.2864</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>396.921791020414</v>
+        <v>392.20215624</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0029463310930179</v>
+        <v>0.0250673245727422</v>
       </c>
     </row>
     <row r="31">
@@ -1434,31 +1434,31 @@
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>106.130183344508</v>
+        <v>111.87</v>
       </c>
       <c r="D31" t="n">
-        <v>1.30845874203917</v>
+        <v>1.3603501180353</v>
       </c>
       <c r="E31" t="n">
-        <v>69.5623162000198</v>
+        <v>71.48</v>
       </c>
       <c r="F31" t="n">
-        <v>2.89467348003955</v>
+        <v>2.87668808809739</v>
       </c>
       <c r="G31" t="n">
-        <v>7.40745188685541</v>
+        <v>7.0625</v>
       </c>
       <c r="H31" t="n">
-        <v>335.173310126367</v>
+        <v>371.900175</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>373.553857772931</v>
+        <v>368.91876987</v>
       </c>
       <c r="K31" t="n">
-        <v>0.114509558150956</v>
+        <v>0.00801668116988652</v>
       </c>
     </row>
     <row r="32">
@@ -1469,31 +1469,31 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>107.968795742235</v>
+        <v>106.98</v>
       </c>
       <c r="D32" t="n">
-        <v>1.40446453981644</v>
+        <v>1.35586095956524</v>
       </c>
       <c r="E32" t="n">
-        <v>66.0739673298667</v>
+        <v>68.75</v>
       </c>
       <c r="F32" t="n">
-        <v>2.80483450006397</v>
+        <v>2.93572125913781</v>
       </c>
       <c r="G32" t="n">
-        <v>6.38824295206564</v>
+        <v>6.594</v>
       </c>
       <c r="H32" t="n">
-        <v>367.219216555255</v>
+        <v>365.4538375</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>344.666046677695</v>
+        <v>351.35222534</v>
       </c>
       <c r="K32" t="n">
-        <v>0.061416093877448</v>
+        <v>0.0385865756848155</v>
       </c>
     </row>
     <row r="33">
@@ -1504,31 +1504,31 @@
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>96.2223967651725</v>
+        <v>101.92</v>
       </c>
       <c r="D33" t="n">
-        <v>1.25320596347076</v>
+        <v>1.33248659575698</v>
       </c>
       <c r="E33" t="n">
-        <v>70.8030936834086</v>
+        <v>68.94</v>
       </c>
       <c r="F33" t="n">
-        <v>2.83817070467087</v>
+        <v>2.99475443017823</v>
       </c>
       <c r="G33" t="n">
-        <v>7.48802334453037</v>
+        <v>7.0125</v>
       </c>
       <c r="H33" t="n">
-        <v>347.788392437664</v>
+        <v>375.93203</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>370.351440280027</v>
+        <v>359.74595302</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0648757932495045</v>
+        <v>0.0430558603373061</v>
       </c>
     </row>
     <row r="34">
@@ -1539,31 +1539,31 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>90.2452426451016</v>
+        <v>97.34</v>
       </c>
       <c r="D34" t="n">
-        <v>1.27229757145856</v>
+        <v>1.29240465259052</v>
       </c>
       <c r="E34" t="n">
-        <v>72.3445792614687</v>
+        <v>65.94</v>
       </c>
       <c r="F34" t="n">
-        <v>3.2800294799695</v>
+        <v>3.05378760121864</v>
       </c>
       <c r="G34" t="n">
-        <v>8.6509841539585</v>
+        <v>8.205</v>
       </c>
       <c r="H34" t="n">
-        <v>396.492279550554</v>
+        <v>406.48823125</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>399.359136658799</v>
+        <v>387.57705334</v>
       </c>
       <c r="K34" t="n">
-        <v>0.00723054963767544</v>
+        <v>0.0465233097938552</v>
       </c>
     </row>
     <row r="35">
@@ -1574,31 +1574,31 @@
         <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>93.5124215825088</v>
+        <v>87.27</v>
       </c>
       <c r="D35" t="n">
-        <v>1.14561351694903</v>
+        <v>1.26853045960041</v>
       </c>
       <c r="E35" t="n">
-        <v>63.6024343082551</v>
+        <v>63.71</v>
       </c>
       <c r="F35" t="n">
-        <v>2.87344186272498</v>
+        <v>3.06789932798895</v>
       </c>
       <c r="G35" t="n">
-        <v>8.70218992535956</v>
+        <v>8.5</v>
       </c>
       <c r="H35" t="n">
-        <v>373.047890557975</v>
+        <v>411.50738</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>397.300308258569</v>
+        <v>387.94870657</v>
       </c>
       <c r="K35" t="n">
-        <v>0.065011539575573</v>
+        <v>0.0572496984865739</v>
       </c>
     </row>
     <row r="36">
@@ -1609,31 +1609,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>76.0557472702004</v>
+        <v>78.44</v>
       </c>
       <c r="D36" t="n">
-        <v>1.35917052099265</v>
+        <v>1.24813654669757</v>
       </c>
       <c r="E36" t="n">
-        <v>58.8726557369228</v>
+        <v>62.55</v>
       </c>
       <c r="F36" t="n">
-        <v>3.26804474644017</v>
+        <v>3.08201105475925</v>
       </c>
       <c r="G36" t="n">
-        <v>7.84983649956528</v>
+        <v>8.425</v>
       </c>
       <c r="H36" t="n">
-        <v>394.586367329821</v>
+        <v>387.9138375</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>360.147567125084</v>
+        <v>379.65965184</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0872782312216847</v>
+        <v>0.0212783996394559</v>
       </c>
     </row>
     <row r="37">
@@ -1644,31 +1644,31 @@
         <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>60.7702781271567</v>
+        <v>62.33</v>
       </c>
       <c r="D37" t="n">
-        <v>1.25009331968815</v>
+        <v>1.23279999081493</v>
       </c>
       <c r="E37" t="n">
-        <v>67.3586185220592</v>
+        <v>62.44</v>
       </c>
       <c r="F37" t="n">
-        <v>3.21027131943203</v>
+        <v>3.09612278152956</v>
       </c>
       <c r="G37" t="n">
-        <v>7.7017351335485</v>
+        <v>8.3625</v>
       </c>
       <c r="H37" t="n">
-        <v>369.930036949854</v>
+        <v>375.1706875</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>351.897651093724</v>
+        <v>367.82873253</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0487453952234058</v>
+        <v>0.0195696391392517</v>
       </c>
     </row>
     <row r="38">
@@ -1679,31 +1679,31 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>50.1761184792262</v>
+        <v>48.07</v>
       </c>
       <c r="D38" t="n">
-        <v>1.20672947142261</v>
+        <v>1.15716241302786</v>
       </c>
       <c r="E38" t="n">
-        <v>57.8891421150835</v>
+        <v>62.1</v>
       </c>
       <c r="F38" t="n">
-        <v>3.05224299236885</v>
+        <v>3.20483027333727</v>
       </c>
       <c r="G38" t="n">
-        <v>6.33948375178012</v>
+        <v>6.8075</v>
       </c>
       <c r="H38" t="n">
-        <v>294.525276055759</v>
+        <v>320.0692625</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>302.118743599946</v>
+        <v>316.23682307</v>
       </c>
       <c r="K38" t="n">
-        <v>0.025782057302103</v>
+        <v>0.0119737815498605</v>
       </c>
     </row>
     <row r="39">
@@ -1714,31 +1714,31 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>58.9301653079996</v>
+        <v>57.93</v>
       </c>
       <c r="D39" t="n">
-        <v>1.15603506353802</v>
+        <v>1.13603677322678</v>
       </c>
       <c r="E39" t="n">
-        <v>63.0466661153827</v>
+        <v>61.4</v>
       </c>
       <c r="F39" t="n">
-        <v>3.20354214531507</v>
+        <v>3.31353776514498</v>
       </c>
       <c r="G39" t="n">
-        <v>7.52357755467272</v>
+        <v>7.2775</v>
       </c>
       <c r="H39" t="n">
-        <v>300.37385841296</v>
+        <v>332.076975</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>343.171259906857</v>
+        <v>334.78952833</v>
       </c>
       <c r="K39" t="n">
-        <v>0.142480446600843</v>
+        <v>0.00816844748119006</v>
       </c>
     </row>
     <row r="40">
@@ -1749,31 +1749,31 @@
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>53.4566583761936</v>
+        <v>55.79</v>
       </c>
       <c r="D40" t="n">
-        <v>1.00128915828963</v>
+        <v>1.08116510558968</v>
       </c>
       <c r="E40" t="n">
-        <v>63.0520380038039</v>
+        <v>60.115</v>
       </c>
       <c r="F40" t="n">
-        <v>3.11885314889673</v>
+        <v>3.42224525695269</v>
       </c>
       <c r="G40" t="n">
-        <v>6.91350911979843</v>
+        <v>6.9075</v>
       </c>
       <c r="H40" t="n">
-        <v>351.094025308229</v>
+        <v>335.977275</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>323.093175798819</v>
+        <v>322.53859539</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0797531358866844</v>
+        <v>0.0399987755421851</v>
       </c>
     </row>
     <row r="41">
@@ -1784,31 +1784,31 @@
         <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>60.2410947331805</v>
+        <v>59.39</v>
       </c>
       <c r="D41" t="n">
-        <v>1.07033990666561</v>
+        <v>1.0775772178982</v>
       </c>
       <c r="E41" t="n">
-        <v>52.1118641924419</v>
+        <v>57.8142857142857</v>
       </c>
       <c r="F41" t="n">
-        <v>3.28511710830109</v>
+        <v>3.4125454996046</v>
       </c>
       <c r="G41" t="n">
-        <v>6.30110770662641</v>
+        <v>6.79</v>
       </c>
       <c r="H41" t="n">
-        <v>362.658404726578</v>
+        <v>343.3527375</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>303.719557092423</v>
+        <v>320.129022175714</v>
       </c>
       <c r="K41" t="n">
-        <v>0.162518907230597</v>
+        <v>0.067638066594083</v>
       </c>
     </row>
     <row r="42">
@@ -1819,31 +1819,31 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>67.1737257209569</v>
+        <v>64.56</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0869088753992</v>
+        <v>1.11585237283569</v>
       </c>
       <c r="E42" t="n">
-        <v>61.6926914008747</v>
+        <v>60.3973684210526</v>
       </c>
       <c r="F42" t="n">
-        <v>3.08975257702715</v>
+        <v>3.4028457422565</v>
       </c>
       <c r="G42" t="n">
-        <v>6.14805870410567</v>
+        <v>6.695</v>
       </c>
       <c r="H42" t="n">
-        <v>321.384779926098</v>
+        <v>356.2384025</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>309.88945293279</v>
+        <v>322.384677328421</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0357681125906201</v>
+        <v>0.0950310941605431</v>
       </c>
     </row>
     <row r="43">
@@ -1854,31 +1854,31 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>59.1972867734833</v>
+        <v>62.34</v>
       </c>
       <c r="D43" t="n">
-        <v>1.12888130534415</v>
+        <v>1.12218492742573</v>
       </c>
       <c r="E43" t="n">
-        <v>52.9976652765424</v>
+        <v>58.8409090909091</v>
       </c>
       <c r="F43" t="n">
-        <v>3.2391550396</v>
+        <v>3.39314598490841</v>
       </c>
       <c r="G43" t="n">
-        <v>7.07412545087305</v>
+        <v>6.655</v>
       </c>
       <c r="H43" t="n">
-        <v>371.834428377458</v>
+        <v>347.42600625</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>324.741772596372</v>
+        <v>318.92782194</v>
       </c>
       <c r="K43" t="n">
-        <v>0.126649530508997</v>
+        <v>0.0820266295479714</v>
       </c>
     </row>
     <row r="44">
@@ -1889,31 +1889,31 @@
         <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>53.5491868939116</v>
+        <v>55.87</v>
       </c>
       <c r="D44" t="n">
-        <v>1.02646430842088</v>
+        <v>1.10162166009412</v>
       </c>
       <c r="E44" t="n">
-        <v>60.4890209086563</v>
+        <v>59.1304347826087</v>
       </c>
       <c r="F44" t="n">
-        <v>3.31943245090617</v>
+        <v>3.31252350373562</v>
       </c>
       <c r="G44" t="n">
-        <v>6.21351379060158</v>
+        <v>6.698</v>
       </c>
       <c r="H44" t="n">
-        <v>341.70630112349</v>
+        <v>323.31087</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>302.417460829246</v>
+        <v>316.246507263913</v>
       </c>
       <c r="K44" t="n">
-        <v>0.114978389819172</v>
+        <v>0.021850062560801</v>
       </c>
     </row>
     <row r="45">
@@ -1924,31 +1924,31 @@
         <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>51.5608173541026</v>
+        <v>46.99</v>
       </c>
       <c r="D45" t="n">
-        <v>1.16522944228874</v>
+        <v>1.11267142857143</v>
       </c>
       <c r="E45" t="n">
-        <v>55.8717450698548</v>
+        <v>58.5725</v>
       </c>
       <c r="F45" t="n">
-        <v>3.16460215820541</v>
+        <v>3.23190102256283</v>
       </c>
       <c r="G45" t="n">
-        <v>6.93368893303443</v>
+        <v>6.455</v>
       </c>
       <c r="H45" t="n">
-        <v>307.540316692786</v>
+        <v>308.22225</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>317.946536378854</v>
+        <v>303.71550519</v>
       </c>
       <c r="K45" t="n">
-        <v>0.033836928432583</v>
+        <v>0.0146217374313501</v>
       </c>
     </row>
     <row r="46">
@@ -1959,31 +1959,31 @@
         <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>45.3546631662808</v>
+        <v>47.24</v>
       </c>
       <c r="D46" t="n">
-        <v>1.19963797540496</v>
+        <v>1.12366363636364</v>
       </c>
       <c r="E46" t="n">
-        <v>58.1168260125773</v>
+        <v>54.7454545454545</v>
       </c>
       <c r="F46" t="n">
-        <v>3.4232642995638</v>
+        <v>3.15127854139004</v>
       </c>
       <c r="G46" t="n">
-        <v>6.26872433199082</v>
+        <v>6.3</v>
       </c>
       <c r="H46" t="n">
-        <v>299.536942046434</v>
+        <v>285.14254375</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>297.319826777872</v>
+        <v>297.23106764</v>
       </c>
       <c r="K46" t="n">
-        <v>0.00740180911714916</v>
+        <v>0.0423946694555641</v>
       </c>
     </row>
     <row r="47">
@@ -1994,31 +1994,31 @@
         <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>48.3514836018495</v>
+        <v>48.12</v>
       </c>
       <c r="D47" t="n">
-        <v>1.04147464352519</v>
+        <v>1.1234347826087</v>
       </c>
       <c r="E47" t="n">
-        <v>55.5612019503377</v>
+        <v>52.3136363636364</v>
       </c>
       <c r="F47" t="n">
-        <v>3.30039091359426</v>
+        <v>3.10259243930964</v>
       </c>
       <c r="G47" t="n">
-        <v>5.90464670622796</v>
+        <v>6.052</v>
       </c>
       <c r="H47" t="n">
-        <v>280.789497195933</v>
+        <v>271.17467</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>287.637705309767</v>
+        <v>289.4765798</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0243891177633873</v>
+        <v>0.0674912218018002</v>
       </c>
     </row>
     <row r="48">
@@ -2029,31 +2029,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>42.7916662903009</v>
+        <v>44.42</v>
       </c>
       <c r="D48" t="n">
-        <v>1.05615479262235</v>
+        <v>1.076025</v>
       </c>
       <c r="E48" t="n">
-        <v>52.5558147039797</v>
+        <v>52.5714285714286</v>
       </c>
       <c r="F48" t="n">
-        <v>2.94467848861614</v>
+        <v>3.05390633722925</v>
       </c>
       <c r="G48" t="n">
-        <v>5.89102142975549</v>
+        <v>5.525</v>
       </c>
       <c r="H48" t="n">
-        <v>242.736392421372</v>
+        <v>243.513975</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>281.905889935154</v>
+        <v>272.933273048571</v>
       </c>
       <c r="K48" t="n">
-        <v>0.161366398845489</v>
+        <v>0.120811538839081</v>
       </c>
     </row>
     <row r="49">
@@ -2064,31 +2064,31 @@
         <v>12</v>
       </c>
       <c r="C49" t="n">
-        <v>34.9504866494183</v>
+        <v>37.72</v>
       </c>
       <c r="D49" t="n">
-        <v>1.00523459342575</v>
+        <v>1.08697826086957</v>
       </c>
       <c r="E49" t="n">
-        <v>51.1777756731156</v>
+        <v>52.1275</v>
       </c>
       <c r="F49" t="n">
-        <v>2.98350080743639</v>
+        <v>3.00522023514886</v>
       </c>
       <c r="G49" t="n">
-        <v>5.46895584646845</v>
+        <v>5.25</v>
       </c>
       <c r="H49" t="n">
-        <v>218.089095952221</v>
+        <v>236.62155</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>264.616000812865</v>
+        <v>260.96036382</v>
       </c>
       <c r="K49" t="n">
-        <v>0.213338978079111</v>
+        <v>0.102859666923828</v>
       </c>
     </row>
     <row r="50">
@@ -2099,31 +2099,31 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>27.7948773665912</v>
+        <v>30.8</v>
       </c>
       <c r="D50" t="n">
-        <v>1.09086653230613</v>
+        <v>1.08774375</v>
       </c>
       <c r="E50" t="n">
-        <v>49.9917347310115</v>
+        <v>49.815625</v>
       </c>
       <c r="F50" t="n">
-        <v>2.96800728540912</v>
+        <v>2.91231896905698</v>
       </c>
       <c r="G50" t="n">
-        <v>4.09100423798244</v>
+        <v>4.415</v>
       </c>
       <c r="H50" t="n">
-        <v>209.88233986988</v>
+        <v>198.1587125</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>221.762536447595</v>
+        <v>232.378005775</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0566040791477744</v>
+        <v>0.172686291928749</v>
       </c>
     </row>
     <row r="51">
@@ -2134,31 +2134,31 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>31.482672838252</v>
+        <v>33.2</v>
       </c>
       <c r="D51" t="n">
-        <v>1.03879688775974</v>
+        <v>1.11146315789474</v>
       </c>
       <c r="E51" t="n">
-        <v>52.0822784893925</v>
+        <v>50.7075</v>
       </c>
       <c r="F51" t="n">
-        <v>2.82395041691959</v>
+        <v>2.8194177029651</v>
       </c>
       <c r="G51" t="n">
-        <v>4.1894139706234</v>
+        <v>4.0175</v>
       </c>
       <c r="H51" t="n">
-        <v>158.723163971371</v>
+        <v>164.7498</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>228.066862745617</v>
+        <v>223.5780446</v>
       </c>
       <c r="K51" t="n">
-        <v>0.436884554460833</v>
+        <v>0.357076273233716</v>
       </c>
     </row>
     <row r="52">
@@ -2169,31 +2169,31 @@
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>35.891105809838</v>
+        <v>39.07</v>
       </c>
       <c r="D52" t="n">
-        <v>1.16948578939472</v>
+        <v>1.11022380952381</v>
       </c>
       <c r="E52" t="n">
-        <v>51.4514453602261</v>
+        <v>52.19</v>
       </c>
       <c r="F52" t="n">
-        <v>2.47086503282294</v>
+        <v>2.72651643687323</v>
       </c>
       <c r="G52" t="n">
-        <v>3.61745992614627</v>
+        <v>3.904</v>
       </c>
       <c r="H52" t="n">
-        <v>168.733017748838</v>
+        <v>181.8716625</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>214.7973657157</v>
+        <v>225.07320613</v>
       </c>
       <c r="K52" t="n">
-        <v>0.273001387525879</v>
+        <v>0.237538619464701</v>
       </c>
     </row>
     <row r="53">
@@ -2204,31 +2204,31 @@
         <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>42.3872372215148</v>
+        <v>42.25</v>
       </c>
       <c r="D53" t="n">
-        <v>1.11506156515128</v>
+        <v>1.13380909090909</v>
       </c>
       <c r="E53" t="n">
-        <v>49.3460971960123</v>
+        <v>50.91</v>
       </c>
       <c r="F53" t="n">
-        <v>2.842016832005</v>
+        <v>2.82657984635832</v>
       </c>
       <c r="G53" t="n">
-        <v>3.75308359955647</v>
+        <v>3.9425</v>
       </c>
       <c r="H53" t="n">
-        <v>207.051576478658</v>
+        <v>199.705155</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>221.232778511669</v>
+        <v>227.30478005</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0684911570063473</v>
+        <v>0.13820186589575</v>
       </c>
     </row>
     <row r="54">
@@ -2239,31 +2239,31 @@
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>51.2366841626465</v>
+        <v>47.13</v>
       </c>
       <c r="D54" t="n">
-        <v>1.20511587838196</v>
+        <v>1.12945</v>
       </c>
       <c r="E54" t="n">
-        <v>55.2201928159632</v>
+        <v>51.48</v>
       </c>
       <c r="F54" t="n">
-        <v>2.75352200605064</v>
+        <v>2.92664325584342</v>
       </c>
       <c r="G54" t="n">
-        <v>4.42846579699032</v>
+        <v>4.28</v>
       </c>
       <c r="H54" t="n">
-        <v>224.752264495298</v>
+        <v>227.51163125</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>248.898789632574</v>
+        <v>239.92840343</v>
       </c>
       <c r="K54" t="n">
-        <v>0.107436181751048</v>
+        <v>0.0545764280787733</v>
       </c>
     </row>
     <row r="55">
@@ -2274,31 +2274,31 @@
         <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>51.1862718372121</v>
+        <v>48.48</v>
       </c>
       <c r="D55" t="n">
-        <v>1.13711387631491</v>
+        <v>1.12375238095238</v>
       </c>
       <c r="E55" t="n">
-        <v>57.1602416382115</v>
+        <v>53.17</v>
       </c>
       <c r="F55" t="n">
-        <v>2.72521868226104</v>
+        <v>3.02670666532852</v>
       </c>
       <c r="G55" t="n">
-        <v>4.87510820174711</v>
+        <v>4.706</v>
       </c>
       <c r="H55" t="n">
-        <v>208.542452220878</v>
+        <v>228.0944125</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>262.28818960813</v>
+        <v>253.47070192</v>
       </c>
       <c r="K55" t="n">
-        <v>0.257720846834233</v>
+        <v>0.111253446070276</v>
       </c>
     </row>
     <row r="56">
@@ -2309,31 +2309,31 @@
         <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>46.424867977235</v>
+        <v>45.07</v>
       </c>
       <c r="D56" t="n">
-        <v>1.19115695076605</v>
+        <v>1.1066</v>
       </c>
       <c r="E56" t="n">
-        <v>66.4375399116627</v>
+        <v>62.29</v>
       </c>
       <c r="F56" t="n">
-        <v>2.66462598305366</v>
+        <v>2.93841155121377</v>
       </c>
       <c r="G56" t="n">
-        <v>4.23821874457318</v>
+        <v>4.665</v>
       </c>
       <c r="H56" t="n">
-        <v>203.279365082228</v>
+        <v>220.50038</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>247.751676991001</v>
+        <v>255.95676777</v>
       </c>
       <c r="K56" t="n">
-        <v>0.218774354646297</v>
+        <v>0.160799667420074</v>
       </c>
     </row>
     <row r="57">
@@ -2344,31 +2344,31 @@
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>44.6048139182953</v>
+        <v>46.14</v>
       </c>
       <c r="D57" t="n">
-        <v>1.09641842582332</v>
+        <v>1.12108181818182</v>
       </c>
       <c r="E57" t="n">
-        <v>60.9065308803709</v>
+        <v>67.3739130434783</v>
       </c>
       <c r="F57" t="n">
-        <v>2.61237176114273</v>
+        <v>2.85011643709902</v>
       </c>
       <c r="G57" t="n">
-        <v>4.54845016826643</v>
+        <v>4.165</v>
       </c>
       <c r="H57" t="n">
-        <v>228.037195738149</v>
+        <v>218.345125</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>251.612750250278</v>
+        <v>246.162507705217</v>
       </c>
       <c r="K57" t="n">
-        <v>0.103384688782088</v>
+        <v>0.127400979093156</v>
       </c>
     </row>
     <row r="58">
@@ -2379,31 +2379,31 @@
         <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>46.0046477265973</v>
+        <v>46.19</v>
       </c>
       <c r="D58" t="n">
-        <v>1.13034598821604</v>
+        <v>1.12092272727273</v>
       </c>
       <c r="E58" t="n">
-        <v>66.5433226484573</v>
+        <v>72.9</v>
       </c>
       <c r="F58" t="n">
-        <v>2.608855834177</v>
+        <v>2.76182132298427</v>
       </c>
       <c r="G58" t="n">
-        <v>4.2053621001821</v>
+        <v>4.11</v>
       </c>
       <c r="H58" t="n">
-        <v>233.045110933384</v>
+        <v>234.95507</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>246.658372023317</v>
+        <v>248.16584749</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0584147036400358</v>
+        <v>0.0562268245158533</v>
       </c>
     </row>
     <row r="59">
@@ -2414,31 +2414,31 @@
         <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>52.0294817635044</v>
+        <v>49.73</v>
       </c>
       <c r="D59" t="n">
-        <v>0.995798048048381</v>
+        <v>1.10388571428571</v>
       </c>
       <c r="E59" t="n">
-        <v>93.81398149624</v>
+        <v>93.17</v>
       </c>
       <c r="F59" t="n">
-        <v>2.6010676470985</v>
+        <v>2.84000203845094</v>
       </c>
       <c r="G59" t="n">
-        <v>5.57974305899325</v>
+        <v>5.2525</v>
       </c>
       <c r="H59" t="n">
-        <v>258.294879486284</v>
+        <v>235.83091875</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>305.109531179331</v>
+        <v>294.33011233</v>
       </c>
       <c r="K59" t="n">
-        <v>0.181244985522576</v>
+        <v>0.248055657375503</v>
       </c>
     </row>
     <row r="60">
@@ -2449,31 +2449,31 @@
         <v>11</v>
       </c>
       <c r="C60" t="n">
-        <v>43.9726989548374</v>
+        <v>46.44</v>
       </c>
       <c r="D60" t="n">
-        <v>1.08171172611141</v>
+        <v>1.08137619047619</v>
       </c>
       <c r="E60" t="n">
-        <v>98.8286167717218</v>
+        <v>100.01</v>
       </c>
       <c r="F60" t="n">
-        <v>2.72110480394643</v>
+        <v>2.9181827539176</v>
       </c>
       <c r="G60" t="n">
-        <v>5.17060054513835</v>
+        <v>5.655</v>
       </c>
       <c r="H60" t="n">
-        <v>283.508077765638</v>
+        <v>268.24530625</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>292.057562234465</v>
+        <v>307.57269464</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0301560524702047</v>
+        <v>0.146609791387543</v>
       </c>
     </row>
     <row r="61">
@@ -2484,31 +2484,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>58.6199245509873</v>
+        <v>54.07</v>
       </c>
       <c r="D61" t="n">
-        <v>1.0961773304037</v>
+        <v>1.05502608695652</v>
       </c>
       <c r="E61" t="n">
-        <v>92.5585444716029</v>
+        <v>86.32</v>
       </c>
       <c r="F61" t="n">
-        <v>2.96289815007277</v>
+        <v>2.99636346938427</v>
       </c>
       <c r="G61" t="n">
-        <v>5.80231812982704</v>
+        <v>5.3625</v>
       </c>
       <c r="H61" t="n">
-        <v>310.379694631009</v>
+        <v>316.81850625</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>314.513467062243</v>
+        <v>295.73664447</v>
       </c>
       <c r="K61" t="n">
-        <v>0.013318437071562</v>
+        <v>0.066542393717886</v>
       </c>
     </row>
     <row r="62">
@@ -2519,31 +2519,31 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>50.7776338823382</v>
+        <v>54.89</v>
       </c>
       <c r="D62" t="n">
-        <v>1.0912906179784</v>
+        <v>1.06598125</v>
       </c>
       <c r="E62" t="n">
-        <v>86.0252461062265</v>
+        <v>83.73</v>
       </c>
       <c r="F62" t="n">
-        <v>2.75248853407125</v>
+        <v>3.01905396279001</v>
       </c>
       <c r="G62" t="n">
-        <v>5.92943654558156</v>
+        <v>6.1125</v>
       </c>
       <c r="H62" t="n">
-        <v>320.779373172467</v>
+        <v>351.2602375</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>308.983654782113</v>
+        <v>315.10785709</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0367720601037886</v>
+        <v>0.102921926681212</v>
       </c>
     </row>
     <row r="63">
@@ -2554,31 +2554,31 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>53.324006136253</v>
+        <v>55.49</v>
       </c>
       <c r="D63" t="n">
-        <v>1.08828196939185</v>
+        <v>1.06586111111111</v>
       </c>
       <c r="E63" t="n">
-        <v>74.4793666116898</v>
+        <v>80.41</v>
       </c>
       <c r="F63" t="n">
-        <v>3.12664137042295</v>
+        <v>3.04174445619575</v>
       </c>
       <c r="G63" t="n">
-        <v>6.76693639129819</v>
+        <v>6.2475</v>
       </c>
       <c r="H63" t="n">
-        <v>379.569851041436</v>
+        <v>412.69965</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>326.191470810296</v>
+        <v>317.08266789</v>
       </c>
       <c r="K63" t="n">
-        <v>0.140628609160303</v>
+        <v>0.231686608190727</v>
       </c>
     </row>
     <row r="64">
@@ -2589,31 +2589,31 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>51.2663501171251</v>
+        <v>51.97</v>
       </c>
       <c r="D64" t="n">
-        <v>1.15525998692029</v>
+        <v>1.06896363636364</v>
       </c>
       <c r="E64" t="n">
-        <v>80.9091786169913</v>
+        <v>80.55</v>
       </c>
       <c r="F64" t="n">
-        <v>3.15773607809287</v>
+        <v>3.06443494960149</v>
       </c>
       <c r="G64" t="n">
-        <v>5.42805432211794</v>
+        <v>5.08</v>
       </c>
       <c r="H64" t="n">
-        <v>428.492133888839</v>
+        <v>401.897885</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>292.375510835502</v>
+        <v>283.08094587</v>
       </c>
       <c r="K64" t="n">
-        <v>0.317664228320815</v>
+        <v>0.295639622811152</v>
       </c>
     </row>
     <row r="65">
@@ -2624,31 +2624,31 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>55.2409463340947</v>
+        <v>52.98</v>
       </c>
       <c r="D65" t="n">
-        <v>1.04378503874453</v>
+        <v>1.0713380952381</v>
       </c>
       <c r="E65" t="n">
-        <v>78.3374950324872</v>
+        <v>84.6421052631579</v>
       </c>
       <c r="F65" t="n">
-        <v>2.83204024283003</v>
+        <v>3.01574387630643</v>
       </c>
       <c r="G65" t="n">
-        <v>4.63993922928674</v>
+        <v>4.99</v>
       </c>
       <c r="H65" t="n">
-        <v>322.965616970571</v>
+        <v>327.4513125</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>271.709999145986</v>
+        <v>283.825698485263</v>
       </c>
       <c r="K65" t="n">
-        <v>0.158703017074588</v>
+        <v>0.133227787916522</v>
       </c>
     </row>
     <row r="66">
@@ -2659,31 +2659,31 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>48.7216141597168</v>
+        <v>50.87</v>
       </c>
       <c r="D66" t="n">
-        <v>1.13393343468749</v>
+        <v>1.10552631578947</v>
       </c>
       <c r="E66" t="n">
-        <v>72.1666495964695</v>
+        <v>74.52</v>
       </c>
       <c r="F66" t="n">
-        <v>2.78596477703719</v>
+        <v>2.96705280301138</v>
       </c>
       <c r="G66" t="n">
-        <v>5.27011971288978</v>
+        <v>5.1925</v>
       </c>
       <c r="H66" t="n">
-        <v>322.85471277409</v>
+        <v>307.4268</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>280.976022960852</v>
+        <v>281.67619047</v>
       </c>
       <c r="K66" t="n">
-        <v>0.129713732388789</v>
+        <v>0.0837617589943362</v>
       </c>
     </row>
     <row r="67">
@@ -2694,31 +2694,31 @@
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>46.838127799626</v>
+        <v>46.89</v>
       </c>
       <c r="D67" t="n">
-        <v>1.21003910679679</v>
+        <v>1.12217619047619</v>
       </c>
       <c r="E67" t="n">
-        <v>82.1718972276918</v>
+        <v>80.9522727272727</v>
       </c>
       <c r="F67" t="n">
-        <v>3.0549115879135</v>
+        <v>2.91836172971633</v>
       </c>
       <c r="G67" t="n">
-        <v>4.92672306221891</v>
+        <v>4.918</v>
       </c>
       <c r="H67" t="n">
-        <v>329.346716824666</v>
+        <v>300.83554</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>276.710769184205</v>
+        <v>275.73800211</v>
       </c>
       <c r="K67" t="n">
-        <v>0.159819257188718</v>
+        <v>0.0834261068024076</v>
       </c>
     </row>
     <row r="68">
@@ -2729,31 +2729,31 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>47.2564372066394</v>
+        <v>48.69</v>
       </c>
       <c r="D68" t="n">
-        <v>1.10686428075839</v>
+        <v>1.1496</v>
       </c>
       <c r="E68" t="n">
-        <v>84.7717190372283</v>
+        <v>87.5309523809524</v>
       </c>
       <c r="F68" t="n">
-        <v>3.26014706728554</v>
+        <v>3.06588456875344</v>
       </c>
       <c r="G68" t="n">
-        <v>5.26312846536154</v>
+        <v>4.9825</v>
       </c>
       <c r="H68" t="n">
-        <v>322.600799656586</v>
+        <v>298.4081</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>287.796171782433</v>
+        <v>282.759774509048</v>
       </c>
       <c r="K68" t="n">
-        <v>0.107887605707124</v>
+        <v>0.0524393456174695</v>
       </c>
     </row>
     <row r="69">
@@ -2764,31 +2764,31 @@
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>47.008254436553</v>
+        <v>51.37</v>
       </c>
       <c r="D69" t="n">
-        <v>1.18587741027581</v>
+        <v>1.18050869565217</v>
       </c>
       <c r="E69" t="n">
-        <v>93.1835466277837</v>
+        <v>95.89</v>
       </c>
       <c r="F69" t="n">
-        <v>2.98745051723486</v>
+        <v>3.21340740779054</v>
       </c>
       <c r="G69" t="n">
-        <v>5.30977865133136</v>
+        <v>5.544</v>
       </c>
       <c r="H69" t="n">
-        <v>308.028606051936</v>
+        <v>305.06503125</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>294.204653227632</v>
+        <v>305.02685703</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0448787955167167</v>
+        <v>0.000125134696178142</v>
       </c>
     </row>
     <row r="70">
@@ -2799,31 +2799,31 @@
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>57.4255633399039</v>
+        <v>55.16</v>
       </c>
       <c r="D70" t="n">
-        <v>1.23690575274889</v>
+        <v>1.19133636363636</v>
       </c>
       <c r="E70" t="n">
-        <v>92.6540540891633</v>
+        <v>96.8690476190476</v>
       </c>
       <c r="F70" t="n">
-        <v>3.22117989792373</v>
+        <v>3.36093024682764</v>
       </c>
       <c r="G70" t="n">
-        <v>5.35801946328604</v>
+        <v>5.935</v>
       </c>
       <c r="H70" t="n">
-        <v>328.992959156169</v>
+        <v>318.439145</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>301.691092413989</v>
+        <v>318.688864540952</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0829861733582574</v>
+        <v>0.000784198629073751</v>
       </c>
     </row>
     <row r="71">
@@ -2834,31 +2834,31 @@
         <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>58.5945432061022</v>
+        <v>57.62</v>
       </c>
       <c r="D71" t="n">
-        <v>1.19516431314448</v>
+        <v>1.17605238095238</v>
       </c>
       <c r="E71" t="n">
-        <v>93.6486126083005</v>
+        <v>97.1409090909091</v>
       </c>
       <c r="F71" t="n">
-        <v>3.5074025980663</v>
+        <v>3.36131575384284</v>
       </c>
       <c r="G71" t="n">
-        <v>5.95346835363307</v>
+        <v>6.175</v>
       </c>
       <c r="H71" t="n">
-        <v>273.271991563444</v>
+        <v>296.457925</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>319.312024467098</v>
+        <v>326.95125082</v>
       </c>
       <c r="K71" t="n">
-        <v>0.168476954554508</v>
+        <v>0.10285886545283</v>
       </c>
     </row>
     <row r="72">
@@ -2869,31 +2869,31 @@
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>60.4819708168539</v>
+        <v>62.57</v>
       </c>
       <c r="D72" t="n">
-        <v>1.18776461182112</v>
+        <v>1.17319047619048</v>
       </c>
       <c r="E72" t="n">
-        <v>104.52002361094</v>
+        <v>96.6272727272727</v>
       </c>
       <c r="F72" t="n">
-        <v>3.42369890587663</v>
+        <v>3.36170126085804</v>
       </c>
       <c r="G72" t="n">
-        <v>6.06955562412739</v>
+        <v>6.56</v>
       </c>
       <c r="H72" t="n">
-        <v>347.746700273023</v>
+        <v>326.98085</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>330.49668101173</v>
+        <v>340.23478367</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0496051270874744</v>
+        <v>0.0405342810442875</v>
       </c>
     </row>
     <row r="73">
@@ -2904,31 +2904,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>64.3689077621843</v>
+        <v>64.21</v>
       </c>
       <c r="D73" t="n">
-        <v>1.29312124870263</v>
+        <v>1.18380909090909</v>
       </c>
       <c r="E73" t="n">
-        <v>100.876382954359</v>
+        <v>102.155</v>
       </c>
       <c r="F73" t="n">
-        <v>3.1860259840624</v>
+        <v>3.36208676787324</v>
       </c>
       <c r="G73" t="n">
-        <v>7.00903347667586</v>
+        <v>7.46333333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>359.01313341012</v>
+        <v>367.56368125</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>356.295527589136</v>
+        <v>369.410512976667</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0075696557258792</v>
+        <v>0.00502452179275692</v>
       </c>
     </row>
     <row r="74">
@@ -2939,31 +2939,31 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>72.5333802026096</v>
+        <v>68.99</v>
       </c>
       <c r="D74" t="n">
-        <v>1.18919136543819</v>
+        <v>1.22171875</v>
       </c>
       <c r="E74" t="n">
-        <v>112.740151621966</v>
+        <v>106.776086956522</v>
       </c>
       <c r="F74" t="n">
-        <v>3.19443602667359</v>
+        <v>3.35272444524883</v>
       </c>
       <c r="G74" t="n">
-        <v>7.24532767633849</v>
+        <v>6.7625</v>
       </c>
       <c r="H74" t="n">
-        <v>426.148754222649</v>
+        <v>431.8401</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>375.305433198639</v>
+        <v>356.154485824783</v>
       </c>
       <c r="K74" t="n">
-        <v>0.119308857576634</v>
+        <v>0.175263052632716</v>
       </c>
     </row>
     <row r="75">
@@ -2974,31 +2974,31 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>63.8556863333629</v>
+        <v>65.42</v>
       </c>
       <c r="D75" t="n">
-        <v>1.31797049288671</v>
+        <v>1.23760526315789</v>
       </c>
       <c r="E75" t="n">
-        <v>99.9372619650443</v>
+        <v>104.705</v>
       </c>
       <c r="F75" t="n">
-        <v>3.6733775011357</v>
+        <v>3.34336212262442</v>
       </c>
       <c r="G75" t="n">
-        <v>7.23967604961013</v>
+        <v>6.5925</v>
       </c>
       <c r="H75" t="n">
-        <v>424.554849501109</v>
+        <v>412.355775</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>361.685257255795</v>
+        <v>347.98026212</v>
       </c>
       <c r="K75" t="n">
-        <v>0.148083556975482</v>
+        <v>0.156116433388134</v>
       </c>
     </row>
     <row r="76">
@@ -3009,31 +3009,31 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>65.373471398293</v>
+        <v>66.45</v>
       </c>
       <c r="D76" t="n">
-        <v>1.15424208784958</v>
+        <v>1.23292857142857</v>
       </c>
       <c r="E76" t="n">
-        <v>93.3764931200235</v>
+        <v>95.85</v>
       </c>
       <c r="F76" t="n">
-        <v>3.47241411996926</v>
+        <v>3.33399980000001</v>
       </c>
       <c r="G76" t="n">
-        <v>7.08662975150943</v>
+        <v>6.784</v>
       </c>
       <c r="H76" t="n">
-        <v>412.674896671851</v>
+        <v>389.85887</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>354.326572135129</v>
+        <v>348.28667811</v>
       </c>
       <c r="K76" t="n">
-        <v>0.1413905352792</v>
+        <v>0.106633951639987</v>
       </c>
     </row>
     <row r="77">
@@ -3044,31 +3044,31 @@
         <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>67.2779141358836</v>
+        <v>71.63</v>
       </c>
       <c r="D77" t="n">
-        <v>1.14578707043536</v>
+        <v>1.2284</v>
       </c>
       <c r="E77" t="n">
-        <v>92.3099650921348</v>
+        <v>94.2075</v>
       </c>
       <c r="F77" t="n">
-        <v>3.20364603381958</v>
+        <v>3.28533936666667</v>
       </c>
       <c r="G77" t="n">
-        <v>6.46477575362858</v>
+        <v>6.8425</v>
       </c>
       <c r="H77" t="n">
-        <v>374.190632104746</v>
+        <v>388.99829375</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>337.857230728644</v>
+        <v>352.08489333</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0970986397273873</v>
+        <v>0.0948934764318616</v>
       </c>
     </row>
     <row r="78">
@@ -3079,31 +3079,31 @@
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>82.2792452439736</v>
+        <v>76.65</v>
       </c>
       <c r="D78" t="n">
-        <v>1.16988294403314</v>
+        <v>1.18135263157895</v>
       </c>
       <c r="E78" t="n">
-        <v>105.247598625089</v>
+        <v>105.445454545455</v>
       </c>
       <c r="F78" t="n">
-        <v>3.44739571359912</v>
+        <v>3.23667893333334</v>
       </c>
       <c r="G78" t="n">
-        <v>6.72908922933843</v>
+        <v>7.414</v>
       </c>
       <c r="H78" t="n">
-        <v>415.701674959321</v>
+        <v>387.2764875</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>362.574707599226</v>
+        <v>377.89570951</v>
       </c>
       <c r="K78" t="n">
-        <v>0.127800705554757</v>
+        <v>0.0242224309834964</v>
       </c>
     </row>
     <row r="79">
@@ -3114,31 +3114,31 @@
         <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>77.1239900071029</v>
+        <v>75.19</v>
       </c>
       <c r="D79" t="n">
-        <v>1.07983374161137</v>
+        <v>1.16736666666667</v>
       </c>
       <c r="E79" t="n">
-        <v>116.998452922585</v>
+        <v>114.75</v>
       </c>
       <c r="F79" t="n">
-        <v>2.94118688518302</v>
+        <v>3.1880185</v>
       </c>
       <c r="G79" t="n">
-        <v>6.87856452923908</v>
+        <v>7.4725</v>
       </c>
       <c r="H79" t="n">
-        <v>476.722019844141</v>
+        <v>433.77583</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>370.828975887639</v>
+        <v>384.43289199</v>
       </c>
       <c r="K79" t="n">
-        <v>0.222127444398568</v>
+        <v>0.113752160903017</v>
       </c>
     </row>
     <row r="80">
@@ -3149,31 +3149,31 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>69.7856498772036</v>
+        <v>74.44</v>
       </c>
       <c r="D80" t="n">
-        <v>1.10292075336079</v>
+        <v>1.16839047619048</v>
       </c>
       <c r="E80" t="n">
-        <v>128.978417284873</v>
+        <v>119.57</v>
       </c>
       <c r="F80" t="n">
-        <v>3.27240218329084</v>
+        <v>3.101458</v>
       </c>
       <c r="G80" t="n">
-        <v>8.25926126809313</v>
+        <v>7.6075</v>
       </c>
       <c r="H80" t="n">
-        <v>424.866984502597</v>
+        <v>408.3903125</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>411.498383665753</v>
+        <v>390.68325934</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0314653793410081</v>
+        <v>0.0433581615871459</v>
       </c>
     </row>
     <row r="81">
@@ -3184,31 +3184,31 @@
         <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>74.0856755586872</v>
+        <v>73.13</v>
       </c>
       <c r="D81" t="n">
-        <v>1.21975711824709</v>
+        <v>1.15482173913043</v>
       </c>
       <c r="E81" t="n">
-        <v>125.928468557118</v>
+        <v>117.34</v>
       </c>
       <c r="F81" t="n">
-        <v>3.21314313303534</v>
+        <v>3.0148975</v>
       </c>
       <c r="G81" t="n">
-        <v>8.16513148011593</v>
+        <v>7.91</v>
       </c>
       <c r="H81" t="n">
-        <v>369.261200638779</v>
+        <v>408.34485</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>409.693025222463</v>
+        <v>396.72700423</v>
       </c>
       <c r="K81" t="n">
-        <v>0.109493833941238</v>
+        <v>0.0284510647556838</v>
       </c>
     </row>
     <row r="82">
@@ -3219,31 +3219,31 @@
         <v>9</v>
       </c>
       <c r="C82" t="n">
-        <v>81.3062870516153</v>
+        <v>78.86</v>
       </c>
       <c r="D82" t="n">
-        <v>1.26566894641208</v>
+        <v>1.16611428571429</v>
       </c>
       <c r="E82" t="n">
-        <v>115.230512838457</v>
+        <v>114.16</v>
       </c>
       <c r="F82" t="n">
-        <v>3.03241388175666</v>
+        <v>2.928337</v>
       </c>
       <c r="G82" t="n">
-        <v>8.56438874974148</v>
+        <v>9.475</v>
       </c>
       <c r="H82" t="n">
-        <v>395.749952632202</v>
+        <v>430.7602375</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>418.379648300367</v>
+        <v>441.05518406</v>
       </c>
       <c r="K82" t="n">
-        <v>0.057181802594418</v>
+        <v>0.023899482040749</v>
       </c>
     </row>
     <row r="83">
@@ -3254,31 +3254,31 @@
         <v>10</v>
       </c>
       <c r="C83" t="n">
-        <v>74.8192236289354</v>
+        <v>80.47</v>
       </c>
       <c r="D83" t="n">
-        <v>1.09625778127134</v>
+        <v>1.14980454545455</v>
       </c>
       <c r="E83" t="n">
-        <v>112.55801784057</v>
+        <v>108.73</v>
       </c>
       <c r="F83" t="n">
-        <v>2.64386123981133</v>
+        <v>2.8434903</v>
       </c>
       <c r="G83" t="n">
-        <v>8.70786034717143</v>
+        <v>9.0525</v>
       </c>
       <c r="H83" t="n">
-        <v>397.595883162489</v>
+        <v>418.818425</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>416.569890765881</v>
+        <v>427.10430207</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0477218412134246</v>
+        <v>0.0197839363681291</v>
       </c>
     </row>
     <row r="84">
@@ -3289,31 +3289,31 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>65.6587031786232</v>
+        <v>65.17</v>
       </c>
       <c r="D84" t="n">
-        <v>1.07598167980487</v>
+        <v>1.13665238095238</v>
       </c>
       <c r="E84" t="n">
-        <v>101.477471195458</v>
+        <v>100.73</v>
       </c>
       <c r="F84" t="n">
-        <v>2.89936744555654</v>
+        <v>2.7586436</v>
       </c>
       <c r="G84" t="n">
-        <v>7.67810724662868</v>
+        <v>8.214</v>
       </c>
       <c r="H84" t="n">
-        <v>407.100295454123</v>
+        <v>382.87915</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>375.755692090265</v>
+        <v>389.61981803</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0769947939460305</v>
+        <v>0.01760521049527</v>
       </c>
     </row>
     <row r="85">
@@ -3324,31 +3324,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="n">
-        <v>61.4123403983396</v>
+        <v>56.46</v>
       </c>
       <c r="D85" t="n">
-        <v>1.18561667196894</v>
+        <v>1.13835909090909</v>
       </c>
       <c r="E85" t="n">
-        <v>99.3940983375195</v>
+        <v>101.37</v>
       </c>
       <c r="F85" t="n">
-        <v>2.79419575944114</v>
+        <v>2.6737969</v>
       </c>
       <c r="G85" t="n">
-        <v>7.2590217075528</v>
+        <v>8.01666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>317.277646887728</v>
+        <v>326.58625</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>360.347288599477</v>
+        <v>379.195615593333</v>
       </c>
       <c r="K85" t="n">
-        <v>0.135747482163435</v>
+        <v>0.161088734119496</v>
       </c>
     </row>
     <row r="86">
@@ -3359,31 +3359,31 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>64.1660495270183</v>
+        <v>59.27</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22097444173925</v>
+        <v>1.14274166666667</v>
       </c>
       <c r="E86" t="n">
-        <v>91.5993996567726</v>
+        <v>98.56</v>
       </c>
       <c r="F86" t="n">
-        <v>2.69646259753338</v>
+        <v>2.65741756666667</v>
       </c>
       <c r="G86" t="n">
-        <v>7.65649928380232</v>
+        <v>7.426</v>
       </c>
       <c r="H86" t="n">
-        <v>329.473230750766</v>
+        <v>314.21551875</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>368.022904360005</v>
+        <v>363.04716881</v>
       </c>
       <c r="K86" t="n">
-        <v>0.11700396272376</v>
+        <v>0.15540814232938</v>
       </c>
     </row>
     <row r="87">
@@ -3394,31 +3394,31 @@
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>67.2781029804055</v>
+        <v>64.13</v>
       </c>
       <c r="D87" t="n">
-        <v>1.13232481962183</v>
+        <v>1.135505</v>
       </c>
       <c r="E87" t="n">
-        <v>90.7459114849195</v>
+        <v>95.42</v>
       </c>
       <c r="F87" t="n">
-        <v>2.77019822325471</v>
+        <v>2.64103823333333</v>
       </c>
       <c r="G87" t="n">
-        <v>5.79934547124908</v>
+        <v>5.9925</v>
       </c>
       <c r="H87" t="n">
-        <v>327.695308857986</v>
+        <v>315.5239</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>318.696215515486</v>
+        <v>324.94677833</v>
       </c>
       <c r="K87" t="n">
-        <v>0.027461770428944</v>
+        <v>0.0298642300313858</v>
       </c>
     </row>
     <row r="88">
@@ -3429,31 +3429,31 @@
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>72.896336543947</v>
+        <v>66.41</v>
       </c>
       <c r="D88" t="n">
-        <v>1.04693488500867</v>
+        <v>1.13176666666667</v>
       </c>
       <c r="E88" t="n">
-        <v>97.7682083355188</v>
+        <v>93.12</v>
       </c>
       <c r="F88" t="n">
-        <v>2.72746438529561</v>
+        <v>2.6246589</v>
       </c>
       <c r="G88" t="n">
-        <v>5.01956995643955</v>
+        <v>5.2675</v>
       </c>
       <c r="H88" t="n">
-        <v>302.393893010965</v>
+        <v>318.64856</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>305.316641366669</v>
+        <v>305.11860441</v>
       </c>
       <c r="K88" t="n">
-        <v>0.00966536832672693</v>
+        <v>0.0424604322392041</v>
       </c>
     </row>
     <row r="89">
@@ -3464,31 +3464,31 @@
         <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>70.6328697813302</v>
+        <v>71.2</v>
       </c>
       <c r="D89" t="n">
-        <v>1.07301728225268</v>
+        <v>1.12415714285714</v>
       </c>
       <c r="E89" t="n">
-        <v>85.3426795423753</v>
+        <v>86.77</v>
       </c>
       <c r="F89" t="n">
-        <v>2.52642407757816</v>
+        <v>2.60485196666667</v>
       </c>
       <c r="G89" t="n">
-        <v>5.24628489649482</v>
+        <v>4.935</v>
       </c>
       <c r="H89" t="n">
-        <v>285.612848212375</v>
+        <v>305.3556625</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>302.284537807084</v>
+        <v>295.0324878</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0583716373372396</v>
+        <v>0.0338070518014382</v>
       </c>
     </row>
     <row r="90">
@@ -3499,31 +3499,31 @@
         <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>75.917902377611</v>
+        <v>70.53</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17790371938399</v>
+        <v>1.11841111111111</v>
       </c>
       <c r="E90" t="n">
-        <v>90.0587376790568</v>
+        <v>82.32</v>
       </c>
       <c r="F90" t="n">
-        <v>2.53216834780135</v>
+        <v>2.58504503333333</v>
       </c>
       <c r="G90" t="n">
-        <v>4.49263863413483</v>
+        <v>4.464</v>
       </c>
       <c r="H90" t="n">
-        <v>320.092753704257</v>
+        <v>295.96278</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>287.96071767581</v>
+        <v>278.94993139</v>
       </c>
       <c r="K90" t="n">
-        <v>0.100383515892192</v>
+        <v>0.0574830680060513</v>
       </c>
     </row>
     <row r="91">
@@ -3534,31 +3534,31 @@
         <v>6</v>
       </c>
       <c r="C91" t="n">
-        <v>60.3081637138221</v>
+        <v>63.3</v>
       </c>
       <c r="D91" t="n">
-        <v>1.20383170085926</v>
+        <v>1.12829</v>
       </c>
       <c r="E91" t="n">
-        <v>72.8499368026904</v>
+        <v>72.49</v>
       </c>
       <c r="F91" t="n">
-        <v>2.58402462911389</v>
+        <v>2.5652381</v>
       </c>
       <c r="G91" t="n">
-        <v>3.6304364211699</v>
+        <v>3.6325</v>
       </c>
       <c r="H91" t="n">
-        <v>287.630922650644</v>
+        <v>279.560475</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>243.845317649496</v>
+        <v>245.542613</v>
       </c>
       <c r="K91" t="n">
-        <v>0.152228434264454</v>
+        <v>0.12168337459006</v>
       </c>
     </row>
     <row r="92">
@@ -3569,31 +3569,31 @@
         <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>62.7046469062567</v>
+        <v>64</v>
       </c>
       <c r="D92" t="n">
-        <v>1.0771419672523</v>
+        <v>1.12252272727273</v>
       </c>
       <c r="E92" t="n">
-        <v>74.7743100126646</v>
+        <v>72.08</v>
       </c>
       <c r="F92" t="n">
-        <v>2.63292189583239</v>
+        <v>2.5109587</v>
       </c>
       <c r="G92" t="n">
-        <v>3.4542306636367</v>
+        <v>3.65</v>
       </c>
       <c r="H92" t="n">
-        <v>263.969421605509</v>
+        <v>246.6103875</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>241.737503102797</v>
+        <v>246.1997508</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0842215676630034</v>
+        <v>0.00166512329088331</v>
       </c>
     </row>
     <row r="93">
@@ -3604,31 +3604,31 @@
         <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>57.450229835452</v>
+        <v>59.25</v>
       </c>
       <c r="D93" t="n">
-        <v>1.18893714519188</v>
+        <v>1.11258695652174</v>
       </c>
       <c r="E93" t="n">
-        <v>65.107541951146</v>
+        <v>65.55</v>
       </c>
       <c r="F93" t="n">
-        <v>2.60660993234001</v>
+        <v>2.4566793</v>
       </c>
       <c r="G93" t="n">
-        <v>3.44290038224794</v>
+        <v>3.634</v>
       </c>
       <c r="H93" t="n">
-        <v>229.028010794479</v>
+        <v>234.160145</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>232.070574507995</v>
+        <v>238.69234491</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0132846794720072</v>
+        <v>0.0193551294136753</v>
       </c>
     </row>
     <row r="94">
@@ -3639,31 +3639,31 @@
         <v>9</v>
       </c>
       <c r="C94" t="n">
-        <v>63.8993306314182</v>
+        <v>62.33</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14889547048461</v>
+        <v>1.10152</v>
       </c>
       <c r="E94" t="n">
-        <v>63.1187734377361</v>
+        <v>65.95</v>
       </c>
       <c r="F94" t="n">
-        <v>2.6392296831611</v>
+        <v>2.4023999</v>
       </c>
       <c r="G94" t="n">
-        <v>3.7912614487682</v>
+        <v>4.1125</v>
       </c>
       <c r="H94" t="n">
-        <v>221.956026653186</v>
+        <v>235.53129375</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>244.361334025165</v>
+        <v>253.93741013</v>
       </c>
       <c r="K94" t="n">
-        <v>0.100944802940574</v>
+        <v>0.0781472223369892</v>
       </c>
     </row>
     <row r="95">
@@ -3674,31 +3674,31 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>65.0371867492888</v>
+        <v>59.37</v>
       </c>
       <c r="D95" t="n">
-        <v>1.16951791453445</v>
+        <v>1.10387826086957</v>
       </c>
       <c r="E95" t="n">
-        <v>70.2338976825587</v>
+        <v>69.2</v>
       </c>
       <c r="F95" t="n">
-        <v>2.43897581676617</v>
+        <v>2.42049303333333</v>
       </c>
       <c r="G95" t="n">
-        <v>4.64308930469677</v>
+        <v>4.912</v>
       </c>
       <c r="H95" t="n">
-        <v>247.499372821374</v>
+        <v>226.25415</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>272.814774044006</v>
+        <v>275.97364495</v>
       </c>
       <c r="K95" t="n">
-        <v>0.102284708579454</v>
+        <v>0.219750643026879</v>
       </c>
     </row>
     <row r="96">
@@ -3709,31 +3709,31 @@
         <v>11</v>
       </c>
       <c r="C96" t="n">
-        <v>59.0449453943912</v>
+        <v>62.74</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08260011858957</v>
+        <v>1.10502</v>
       </c>
       <c r="E96" t="n">
-        <v>62.8190672783735</v>
+        <v>66.99</v>
       </c>
       <c r="F96" t="n">
-        <v>2.24115163331267</v>
+        <v>2.43858616666667</v>
       </c>
       <c r="G96" t="n">
-        <v>5.15105426699901</v>
+        <v>5.11</v>
       </c>
       <c r="H96" t="n">
-        <v>209.202111617016</v>
+        <v>229.890105</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>278.289002321625</v>
+        <v>282.09615294</v>
       </c>
       <c r="K96" t="n">
-        <v>0.33023993003993</v>
+        <v>0.227091322351608</v>
       </c>
     </row>
     <row r="97">
@@ -3744,31 +3744,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>70.3967566039762</v>
+        <v>65.85</v>
       </c>
       <c r="D97" t="n">
-        <v>1.03313739674672</v>
+        <v>1.11061428571429</v>
       </c>
       <c r="E97" t="n">
-        <v>67.7623729150761</v>
+        <v>66.18</v>
       </c>
       <c r="F97" t="n">
-        <v>2.48832867890211</v>
+        <v>2.4566793</v>
       </c>
       <c r="G97" t="n">
-        <v>4.72935742692836</v>
+        <v>4.86</v>
       </c>
       <c r="H97" t="n">
-        <v>208.600731570235</v>
+        <v>224.708083333333</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>276.962351632132</v>
+        <v>276.69853255</v>
       </c>
       <c r="K97" t="n">
-        <v>0.327715150121033</v>
+        <v>0.231368842835725</v>
       </c>
     </row>
     <row r="98">
@@ -3779,31 +3779,31 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>68.6980096399784</v>
+        <v>63.6</v>
       </c>
       <c r="D98" t="n">
-        <v>1.21450731541067</v>
+        <v>1.11056842105263</v>
       </c>
       <c r="E98" t="n">
-        <v>74.4207408072464</v>
+        <v>69.66</v>
       </c>
       <c r="F98" t="n">
-        <v>1.18851241556498</v>
+        <v>1.29954037702048</v>
       </c>
       <c r="G98" t="n">
-        <v>3.92203652253142</v>
+        <v>3.762</v>
       </c>
       <c r="H98" t="n">
-        <v>246.79149297848</v>
+        <v>256.9306</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>258.034881459137</v>
+        <v>247.48803808</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0455582497798555</v>
+        <v>0.0367514103808577</v>
       </c>
     </row>
     <row r="99">
@@ -3814,31 +3814,31 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>49.944587924052</v>
+        <v>55</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09377688471144</v>
+        <v>1.09178947368421</v>
       </c>
       <c r="E99" t="n">
-        <v>66.6676132727936</v>
+        <v>67.64</v>
       </c>
       <c r="F99" t="n">
-        <v>0.153778161372486</v>
+        <v>0.14240145404096</v>
       </c>
       <c r="G99" t="n">
-        <v>2.95095248481794</v>
+        <v>2.9275</v>
       </c>
       <c r="H99" t="n">
-        <v>285.298982275948</v>
+        <v>266.43094375</v>
       </c>
       <c r="I99" t="n">
-        <v>0.153778161372486</v>
+        <v>0.14240145404096</v>
       </c>
       <c r="J99" t="n">
-        <v>214.928472491638</v>
+        <v>218.0543515</v>
       </c>
       <c r="K99" t="n">
-        <v>0.246655313043655</v>
+        <v>0.181572724132949</v>
       </c>
     </row>
     <row r="100">
@@ -3849,31 +3849,31 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>35.8204161269637</v>
+        <v>32.98</v>
       </c>
       <c r="D100" t="n">
-        <v>1.18928785527261</v>
+        <v>1.10631</v>
       </c>
       <c r="E100" t="n">
-        <v>70.2645528646177</v>
+        <v>66.74</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.98093070687356</v>
+        <v>-1.01473746893856</v>
       </c>
       <c r="G100" t="n">
-        <v>2.63467661722004</v>
+        <v>2.82</v>
       </c>
       <c r="H100" t="n">
-        <v>239.221057831732</v>
+        <v>218.870075</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.98093070687356</v>
+        <v>-1.01473746893856</v>
       </c>
       <c r="J100" t="n">
-        <v>199.73524946356</v>
+        <v>200.80893998</v>
       </c>
       <c r="K100" t="n">
-        <v>0.165059918746559</v>
+        <v>0.0825198923151099</v>
       </c>
     </row>
     <row r="101">
@@ -3884,31 +3884,31 @@
         <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>25.5757164418632</v>
+        <v>23.34</v>
       </c>
       <c r="D101" t="n">
-        <v>0.987887656123235</v>
+        <v>1.08867142857143</v>
       </c>
       <c r="E101" t="n">
-        <v>60.447715083214</v>
+        <v>58.55</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.68366897757253</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="G101" t="n">
-        <v>2.37134135396816</v>
+        <v>2.216</v>
       </c>
       <c r="H101" t="n">
-        <v>176.761493615955</v>
+        <v>165.01195</v>
       </c>
       <c r="I101" t="n">
-        <v>-3.68366897757253</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="J101" t="n">
-        <v>179.975392188242</v>
+        <v>173.14335258</v>
       </c>
       <c r="K101" t="n">
-        <v>0.018182119343652</v>
+        <v>0.0492776588604642</v>
       </c>
     </row>
     <row r="102">
@@ -3919,31 +3919,31 @@
         <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>28.6606166342441</v>
+        <v>31.02</v>
       </c>
       <c r="D102" t="n">
-        <v>1.07888230868088</v>
+        <v>1.08883181818182</v>
       </c>
       <c r="E102" t="n">
-        <v>57.3373941212641</v>
+        <v>52.49</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.12064038635344</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="G102" t="n">
-        <v>1.44276073642145</v>
+        <v>1.6025</v>
       </c>
       <c r="H102" t="n">
-        <v>148.819927323294</v>
+        <v>161.55253</v>
       </c>
       <c r="I102" t="n">
-        <v>-7.12064038635344</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="J102" t="n">
-        <v>154.578807335302</v>
+        <v>157.36711272</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0386969683132403</v>
+        <v>0.0259074697251723</v>
       </c>
     </row>
     <row r="103">
@@ -3954,31 +3954,31 @@
         <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>41.3548821754209</v>
+        <v>39.93</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05087643907143</v>
+        <v>1.12609047619048</v>
       </c>
       <c r="E103" t="n">
-        <v>53.2878981742756</v>
+        <v>52.21</v>
       </c>
       <c r="F103" t="n">
-        <v>-8.91924180192224</v>
+        <v>-9.64701857291505</v>
       </c>
       <c r="G103" t="n">
-        <v>1.66435530511464</v>
+        <v>1.6725</v>
       </c>
       <c r="H103" t="n">
-        <v>170.745321845679</v>
+        <v>173.4710625</v>
       </c>
       <c r="I103" t="n">
-        <v>-8.91924180192224</v>
+        <v>-9.64701857291505</v>
       </c>
       <c r="J103" t="n">
-        <v>166.008629040531</v>
+        <v>164.66409573</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0277412742788268</v>
+        <v>0.0507690829990736</v>
       </c>
     </row>
     <row r="104">
@@ -3989,31 +3989,31 @@
         <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>38.5511582200457</v>
+        <v>42.81</v>
       </c>
       <c r="D104" t="n">
-        <v>1.13573674703457</v>
+        <v>1.14287826086957</v>
       </c>
       <c r="E104" t="n">
-        <v>50.4213852595352</v>
+        <v>51.56</v>
       </c>
       <c r="F104" t="n">
-        <v>-6.32022548974088</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="G104" t="n">
-        <v>1.95956169957407</v>
+        <v>1.796</v>
       </c>
       <c r="H104" t="n">
-        <v>181.38980780365</v>
+        <v>191.14311</v>
       </c>
       <c r="I104" t="n">
-        <v>-6.32022548974088</v>
+        <v>-6.76959153825622</v>
       </c>
       <c r="J104" t="n">
-        <v>170.520669345729</v>
+        <v>169.42652055</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0599214398511658</v>
+        <v>0.11361429376136</v>
       </c>
     </row>
     <row r="105">
@@ -4024,31 +4024,31 @@
         <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>41.9518028020039</v>
+        <v>44.26</v>
       </c>
       <c r="D105" t="n">
-        <v>1.24063263366411</v>
+        <v>1.18269047619048</v>
       </c>
       <c r="E105" t="n">
-        <v>50.9588300813716</v>
+        <v>50.14</v>
       </c>
       <c r="F105" t="n">
-        <v>-3.6492306852301</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="G105" t="n">
-        <v>2.57713883810118</v>
+        <v>2.64</v>
       </c>
       <c r="H105" t="n">
-        <v>225.575739357192</v>
+        <v>223.1313625</v>
       </c>
       <c r="I105" t="n">
-        <v>-3.6492306852301</v>
+        <v>-3.89216450359739</v>
       </c>
       <c r="J105" t="n">
-        <v>189.851475754256</v>
+        <v>192.49439286</v>
       </c>
       <c r="K105" t="n">
-        <v>0.158369263045473</v>
+        <v>0.13730463210881</v>
       </c>
     </row>
     <row r="106">
@@ -4059,31 +4059,31 @@
         <v>9</v>
       </c>
       <c r="C106" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D106" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E106" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F106" t="n">
         <v>-3</v>
       </c>
       <c r="G106" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>238.1854048711</v>
+        <v>241.47715</v>
       </c>
       <c r="I106" t="n">
         <v>-3</v>
       </c>
       <c r="J106" t="n">
-        <v>211.862085990192</v>
+        <v>223.460252056667</v>
       </c>
       <c r="K106" t="n">
-        <v>0.110516086807056</v>
+        <v>0.0746111917559629</v>
       </c>
     </row>
     <row r="107">
@@ -4094,26 +4094,26 @@
         <v>10</v>
       </c>
       <c r="C107" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D107" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E107" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F107" t="n">
         <v>-2</v>
       </c>
       <c r="G107" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H107"/>
       <c r="I107" t="n">
         <v>-2</v>
       </c>
       <c r="J107" t="n">
-        <v>211.862085990192</v>
+        <v>223.460252056667</v>
       </c>
       <c r="K107"/>
     </row>
@@ -4125,26 +4125,26 @@
         <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D108" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E108" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F108" t="n">
         <v>-2</v>
       </c>
       <c r="G108" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H108"/>
       <c r="I108" t="n">
         <v>-2</v>
       </c>
       <c r="J108" t="n">
-        <v>211.862085990192</v>
+        <v>223.460252056667</v>
       </c>
       <c r="K108"/>
     </row>
@@ -4156,26 +4156,26 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>41.24238683978</v>
+        <v>41.09</v>
       </c>
       <c r="D109" t="n">
-        <v>1.24222622327331</v>
+        <v>1.18105652173913</v>
       </c>
       <c r="E109" t="n">
-        <v>51.083232963765</v>
+        <v>54.6</v>
       </c>
       <c r="F109" t="n">
         <v>-2</v>
       </c>
       <c r="G109" t="n">
-        <v>3.39622396475387</v>
+        <v>3.74333333333333</v>
       </c>
       <c r="H109"/>
       <c r="I109" t="n">
         <v>-2</v>
       </c>
       <c r="J109" t="n">
-        <v>211.862085990192</v>
+        <v>223.460252056667</v>
       </c>
       <c r="K109"/>
     </row>
